--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -451,17 +451,13 @@
         <v>1996.05</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2034</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -578,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -660,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -742,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -824,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -865,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -947,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -985,19 +909,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>1.008274336283186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1026,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1061,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1096,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1236,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1271,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1306,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1341,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1376,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1411,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1446,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1481,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1516,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1551,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2353,14 +2271,20 @@
         <v>2022.45</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2020</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2395,7 +2319,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2430,7 +2358,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2465,7 +2397,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2493,14 +2429,20 @@
         <v>2021.45</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2020</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2535,7 +2477,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2570,7 +2516,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2598,14 +2548,20 @@
         <v>2021.7</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2015</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2633,14 +2589,20 @@
         <v>2022.1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2027</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2675,7 +2637,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2710,7 +2676,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2745,7 +2715,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2780,7 +2754,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2815,7 +2793,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2850,7 +2832,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2885,7 +2871,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2920,7 +2910,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2955,7 +2949,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2990,7 +2988,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3025,7 +3027,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3060,7 +3066,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3105,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3130,7 +3144,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3165,7 +3183,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3200,7 +3222,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3235,7 +3261,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3270,7 +3300,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3305,7 +3339,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3333,18 +3371,18 @@
         <v>2011.3</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1988</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1988</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3372,20 +3410,16 @@
         <v>2009.15</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1986</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1988</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -3415,20 +3449,16 @@
         <v>2007.25</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1992</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1988</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3458,18 +3488,18 @@
         <v>2005.45</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1995</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1995</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3497,20 +3527,16 @@
         <v>2004.35</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1995</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3540,20 +3566,16 @@
         <v>2002.35</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1985</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1995</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3583,18 +3605,18 @@
         <v>2000.9</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3622,20 +3644,16 @@
         <v>2000.2</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3665,20 +3683,16 @@
         <v>1999.55</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3708,17 +3722,13 @@
         <v>1999.25</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2014</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3751,17 +3761,13 @@
         <v>1999.65</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,17 +3800,13 @@
         <v>1999.45</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,17 +3839,13 @@
         <v>1999.6</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,17 +3878,13 @@
         <v>2000.6</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3923,17 +3917,13 @@
         <v>2000.85</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>2023</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,9 +3962,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,9 +4001,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4054,9 +4040,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,9 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,9 +4118,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +4157,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,17 +4190,13 @@
         <v>2008.45</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,17 +4229,13 @@
         <v>2009.8</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>2019</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,9 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,9 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,9 +4352,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,9 +4391,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,9 +4430,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,9 +4469,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,9 +4508,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,9 +4547,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,9 +4586,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,17 +4619,13 @@
         <v>2012.65</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>2009</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,17 +4658,13 @@
         <v>2012</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>2007</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,17 +4697,13 @@
         <v>2010.7</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,17 +4736,13 @@
         <v>2010.1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>2011</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,17 +4775,13 @@
         <v>2009.55</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>2009</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,17 +4814,13 @@
         <v>2009.95</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>2012</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4925,17 +4853,13 @@
         <v>2009.4</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1995</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4968,17 +4892,13 @@
         <v>2009</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,17 +4931,13 @@
         <v>2008.3</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>2001</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,17 +4970,13 @@
         <v>2007.6</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>2007</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,17 +5009,13 @@
         <v>2006.95</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5140,17 +5048,13 @@
         <v>2005.65</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1996</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,17 +5087,13 @@
         <v>2005.2</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5226,17 +5126,13 @@
         <v>2005.55</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,17 +5165,13 @@
         <v>2005.5</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>2018</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,17 +5204,13 @@
         <v>2005.25</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,17 +5243,13 @@
         <v>2005.35</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1998</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5398,17 +5282,13 @@
         <v>2004.7</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1994</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5441,17 +5321,13 @@
         <v>2003.95</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1987</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5484,17 +5360,13 @@
         <v>2004.15</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,17 +5399,13 @@
         <v>2004.4</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>2014</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,17 +5438,13 @@
         <v>2004.05</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5613,17 +5477,13 @@
         <v>2004.65</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>2009</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,17 +5516,13 @@
         <v>2004.15</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>2001</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,17 +5555,13 @@
         <v>2004.15</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>2009</v>
-      </c>
-      <c r="K138" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,17 +5594,13 @@
         <v>2003.5</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,17 +5633,13 @@
         <v>2005.05</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>2026</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5828,17 +5672,13 @@
         <v>2006.85</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>2034</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,17 +5711,13 @@
         <v>2008.6</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>2036</v>
-      </c>
-      <c r="K142" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5920,9 +5756,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,9 +5795,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,9 +5834,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6043,9 +5873,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,9 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,9 +5951,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,9 +5990,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6207,9 +6029,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,9 +6068,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,9 +6107,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,9 +6146,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6371,9 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,9 +6263,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,9 +6302,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,9 +6341,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6576,9 +6380,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,9 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,9 +6458,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,9 +6497,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,9 +6536,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6781,9 +6575,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6822,9 +6614,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6863,9 +6653,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,9 +6692,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,9 +6731,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,9 +6770,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7027,9 +6809,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,9 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,20 +6884,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1998</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7150,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7191,14 +6959,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7229,17 +6991,11 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7273,14 +7029,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7314,14 +7064,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7352,17 +7096,11 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7396,14 +7134,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7437,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1998</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="C2" t="n">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="D2" t="n">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="E2" t="n">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8773</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1996.05</v>
+        <v>1989.933333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C3" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D3" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E3" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="F3" t="n">
-        <v>220.9862</v>
+        <v>220.8773</v>
       </c>
       <c r="G3" t="n">
-        <v>1999.35</v>
+        <v>1990.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2020</v>
+        <v>2033</v>
       </c>
       <c r="C4" t="n">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D4" t="n">
         <v>2033</v>
       </c>
       <c r="E4" t="n">
-        <v>2020</v>
+        <v>2033</v>
       </c>
       <c r="F4" t="n">
-        <v>25.1831</v>
+        <v>220.9862</v>
       </c>
       <c r="G4" t="n">
-        <v>2002.2</v>
+        <v>1990.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="C5" t="n">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="D5" t="n">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="E5" t="n">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1648</v>
+        <v>25.1831</v>
       </c>
       <c r="G5" t="n">
-        <v>2006.05</v>
+        <v>1990.666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>2035</v>
       </c>
       <c r="C6" t="n">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="D6" t="n">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E6" t="n">
         <v>2035</v>
       </c>
       <c r="F6" t="n">
-        <v>850.2483999999999</v>
+        <v>0.1648</v>
       </c>
       <c r="G6" t="n">
-        <v>2009.85</v>
+        <v>1991.183333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C7" t="n">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D7" t="n">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E7" t="n">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F7" t="n">
-        <v>13.6514</v>
+        <v>850.2483999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>2013.65</v>
+        <v>1991.95</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2061</v>
+        <v>2036</v>
       </c>
       <c r="C8" t="n">
-        <v>2061</v>
+        <v>2052</v>
       </c>
       <c r="D8" t="n">
-        <v>2061</v>
+        <v>2052</v>
       </c>
       <c r="E8" t="n">
-        <v>2061</v>
+        <v>2036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>13.6514</v>
       </c>
       <c r="G8" t="n">
-        <v>2017.45</v>
+        <v>1992.65</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="C9" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="D9" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="E9" t="n">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="F9" t="n">
-        <v>1368.2107</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2021.1</v>
+        <v>1993.616666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2045</v>
+        <v>2058</v>
       </c>
       <c r="C10" t="n">
         <v>2060</v>
@@ -722,19 +722,19 @@
         <v>2060</v>
       </c>
       <c r="E10" t="n">
-        <v>2045</v>
+        <v>2058</v>
       </c>
       <c r="F10" t="n">
-        <v>32.1281</v>
+        <v>1368.2107</v>
       </c>
       <c r="G10" t="n">
-        <v>2023.7</v>
+        <v>1994.566666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -751,19 +751,19 @@
         <v>2045</v>
       </c>
       <c r="C11" t="n">
-        <v>2045</v>
+        <v>2060</v>
       </c>
       <c r="D11" t="n">
-        <v>2045</v>
+        <v>2060</v>
       </c>
       <c r="E11" t="n">
         <v>2045</v>
       </c>
       <c r="F11" t="n">
-        <v>18.9889</v>
+        <v>32.1281</v>
       </c>
       <c r="G11" t="n">
-        <v>2026.15</v>
+        <v>1995.383333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="C12" t="n">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="D12" t="n">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>18.9889</v>
       </c>
       <c r="G12" t="n">
-        <v>2029.25</v>
+        <v>1995.95</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>2059</v>
       </c>
       <c r="C13" t="n">
-        <v>2047</v>
+        <v>2059</v>
       </c>
       <c r="D13" t="n">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E13" t="n">
-        <v>2046</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="n">
-        <v>1664.8941</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2032.35</v>
+        <v>1996.733333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2046</v>
+        <v>2059</v>
       </c>
       <c r="C14" t="n">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D14" t="n">
-        <v>2046</v>
+        <v>2060</v>
       </c>
       <c r="E14" t="n">
         <v>2046</v>
       </c>
       <c r="F14" t="n">
-        <v>35.1135</v>
+        <v>1664.8941</v>
       </c>
       <c r="G14" t="n">
-        <v>2034.7</v>
+        <v>1996.983333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="C15" t="n">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="D15" t="n">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="E15" t="n">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>35.1135</v>
       </c>
       <c r="G15" t="n">
-        <v>2037.75</v>
+        <v>1997.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2043</v>
+        <v>2061</v>
       </c>
       <c r="C16" t="n">
-        <v>2042</v>
+        <v>2061</v>
       </c>
       <c r="D16" t="n">
         <v>2061</v>
       </c>
       <c r="E16" t="n">
-        <v>2042</v>
+        <v>2061</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9328</v>
+        <v>0.11</v>
       </c>
       <c r="G16" t="n">
-        <v>2039.55</v>
+        <v>1998.35</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C17" t="n">
         <v>2042</v>
       </c>
       <c r="D17" t="n">
-        <v>2042</v>
+        <v>2061</v>
       </c>
       <c r="E17" t="n">
         <v>2042</v>
       </c>
       <c r="F17" t="n">
-        <v>24.1538</v>
+        <v>376.9328</v>
       </c>
       <c r="G17" t="n">
-        <v>2041.3</v>
+        <v>1998.883333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>2042</v>
       </c>
       <c r="C18" t="n">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="D18" t="n">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="E18" t="n">
         <v>2042</v>
       </c>
       <c r="F18" t="n">
-        <v>269.97</v>
+        <v>24.1538</v>
       </c>
       <c r="G18" t="n">
-        <v>2042.15</v>
+        <v>1999.416666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>2042</v>
       </c>
       <c r="C19" t="n">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D19" t="n">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="E19" t="n">
         <v>2042</v>
       </c>
       <c r="F19" t="n">
-        <v>219.96</v>
+        <v>269.97</v>
       </c>
       <c r="G19" t="n">
-        <v>2043.2</v>
+        <v>2000.016666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2055</v>
+        <v>2042</v>
       </c>
       <c r="C20" t="n">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="D20" t="n">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="E20" t="n">
-        <v>2055</v>
+        <v>2042</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>219.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2044.45</v>
+        <v>2000.666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="C21" t="n">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="D21" t="n">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="E21" t="n">
-        <v>2046</v>
+        <v>2055</v>
       </c>
       <c r="F21" t="n">
-        <v>69.5581</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2045.05</v>
+        <v>2001.416666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="C22" t="n">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="D22" t="n">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="E22" t="n">
         <v>2046</v>
       </c>
       <c r="F22" t="n">
-        <v>307.6298</v>
+        <v>69.5581</v>
       </c>
       <c r="G22" t="n">
-        <v>2045.75</v>
+        <v>2002.533333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C23" t="n">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="D23" t="n">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="E23" t="n">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="F23" t="n">
-        <v>662.4123</v>
+        <v>307.6298</v>
       </c>
       <c r="G23" t="n">
-        <v>2046.6</v>
+        <v>2003.583333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>2050</v>
       </c>
       <c r="C24" t="n">
-        <v>2041</v>
+        <v>2061</v>
       </c>
       <c r="D24" t="n">
         <v>2061</v>
       </c>
       <c r="E24" t="n">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="F24" t="n">
-        <v>1945.7162</v>
+        <v>662.4123</v>
       </c>
       <c r="G24" t="n">
-        <v>2048.1</v>
+        <v>2004.766666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C25" t="n">
         <v>2041</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2058</v>
       </c>
       <c r="D25" t="n">
         <v>2061</v>
       </c>
       <c r="E25" t="n">
-        <v>2032</v>
+        <v>2041</v>
       </c>
       <c r="F25" t="n">
-        <v>228.2932</v>
+        <v>1945.7162</v>
       </c>
       <c r="G25" t="n">
-        <v>2048.4</v>
+        <v>2005.65</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
+        <v>2041</v>
       </c>
       <c r="C26" t="n">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="D26" t="n">
-        <v>2051</v>
+        <v>2061</v>
       </c>
       <c r="E26" t="n">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="F26" t="n">
-        <v>26.727</v>
+        <v>228.2932</v>
       </c>
       <c r="G26" t="n">
-        <v>2047.85</v>
+        <v>2006.733333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>2024</v>
       </c>
       <c r="C27" t="n">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="D27" t="n">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="E27" t="n">
         <v>2024</v>
       </c>
       <c r="F27" t="n">
-        <v>200.7094</v>
+        <v>26.727</v>
       </c>
       <c r="G27" t="n">
-        <v>2047.25</v>
+        <v>2007.783333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="D28" t="n">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="E28" t="n">
         <v>2024</v>
       </c>
       <c r="F28" t="n">
-        <v>32.398</v>
+        <v>200.7094</v>
       </c>
       <c r="G28" t="n">
-        <v>2045.4</v>
+        <v>2008.65</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C29" t="n">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D29" t="n">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="E29" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F29" t="n">
-        <v>54.4027</v>
+        <v>32.398</v>
       </c>
       <c r="G29" t="n">
-        <v>2043.75</v>
+        <v>2009.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>2025</v>
       </c>
       <c r="C30" t="n">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="D30" t="n">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="E30" t="n">
         <v>2025</v>
       </c>
       <c r="F30" t="n">
-        <v>31.2377</v>
+        <v>54.4027</v>
       </c>
       <c r="G30" t="n">
-        <v>2042.75</v>
+        <v>2010.816666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C31" t="n">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="D31" t="n">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E31" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F31" t="n">
-        <v>24.9043</v>
+        <v>31.2377</v>
       </c>
       <c r="G31" t="n">
-        <v>2041.95</v>
+        <v>2011.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C32" t="n">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="D32" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E32" t="n">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1</v>
+        <v>24.9043</v>
       </c>
       <c r="G32" t="n">
-        <v>2040.5</v>
+        <v>2012.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="C33" t="n">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="D33" t="n">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="E33" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="F33" t="n">
-        <v>413.6985</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2038.9</v>
+        <v>2014.05</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,32 +1553,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C34" t="n">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="D34" t="n">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="E34" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F34" t="n">
-        <v>19.05</v>
+        <v>413.6985</v>
       </c>
       <c r="G34" t="n">
-        <v>2037.85</v>
+        <v>2015.516666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2030</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,32 +1594,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C35" t="n">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="D35" t="n">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="E35" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F35" t="n">
-        <v>15.8526</v>
+        <v>19.05</v>
       </c>
       <c r="G35" t="n">
-        <v>2036</v>
+        <v>2016.933333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2038</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,20 +1647,26 @@
         <v>2024</v>
       </c>
       <c r="F36" t="n">
-        <v>606.9181</v>
+        <v>15.8526</v>
       </c>
       <c r="G36" t="n">
-        <v>2035.05</v>
+        <v>2018.166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2035</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="C37" t="n">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="D37" t="n">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="E37" t="n">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11</v>
+        <v>606.9181</v>
       </c>
       <c r="G37" t="n">
-        <v>2034.95</v>
+        <v>2019.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1701,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1715,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="C38" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="D38" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="E38" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="F38" t="n">
-        <v>1142.75</v>
+        <v>0.11</v>
       </c>
       <c r="G38" t="n">
-        <v>2033.9</v>
+        <v>2020.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1740,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1766,10 @@
         <v>2021</v>
       </c>
       <c r="F39" t="n">
-        <v>35.59</v>
+        <v>1142.75</v>
       </c>
       <c r="G39" t="n">
-        <v>2032.85</v>
+        <v>2022.033333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1779,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,32 +1793,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C40" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D40" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E40" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F40" t="n">
-        <v>36</v>
+        <v>35.59</v>
       </c>
       <c r="G40" t="n">
-        <v>2031.1</v>
+        <v>2023.216666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2021</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,20 +1846,26 @@
         <v>2020</v>
       </c>
       <c r="F41" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G41" t="n">
-        <v>2029.6</v>
+        <v>2024.466666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2021</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1875,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F42" t="n">
-        <v>163.0474</v>
+        <v>19</v>
       </c>
       <c r="G42" t="n">
-        <v>2028.25</v>
+        <v>2025.55</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1900,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +1926,10 @@
         <v>2021</v>
       </c>
       <c r="F43" t="n">
-        <v>71.76000000000001</v>
+        <v>163.0474</v>
       </c>
       <c r="G43" t="n">
-        <v>2026.8</v>
+        <v>2026.733333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1939,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +1965,10 @@
         <v>2021</v>
       </c>
       <c r="F44" t="n">
-        <v>152.9853</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>2025.35</v>
+        <v>2027.65</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1978,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1992,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="n">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="n">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="E45" t="n">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1</v>
+        <v>152.9853</v>
       </c>
       <c r="G45" t="n">
-        <v>2024.75</v>
+        <v>2028.316666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2017,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2031,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C46" t="n">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D46" t="n">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="E46" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F46" t="n">
-        <v>224.0078</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>2025.05</v>
+        <v>2029.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2056,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2070,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="C47" t="n">
-        <v>2018</v>
+        <v>2031</v>
       </c>
       <c r="D47" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="E47" t="n">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="F47" t="n">
-        <v>340</v>
+        <v>224.0078</v>
       </c>
       <c r="G47" t="n">
-        <v>2024.8</v>
+        <v>2030.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2095,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2109,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C48" t="n">
         <v>2018</v>
       </c>
       <c r="D48" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="E48" t="n">
         <v>2018</v>
       </c>
       <c r="F48" t="n">
-        <v>39.9131</v>
+        <v>340</v>
       </c>
       <c r="G48" t="n">
-        <v>2024.8</v>
+        <v>2031.666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2134,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2148,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C49" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E49" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2</v>
+        <v>39.9131</v>
       </c>
       <c r="G49" t="n">
-        <v>2024.65</v>
+        <v>2032.216666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2173,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2187,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C50" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D50" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E50" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F50" t="n">
-        <v>18.776</v>
+        <v>0.2</v>
       </c>
       <c r="G50" t="n">
-        <v>2024.35</v>
+        <v>2033.166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2212,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2226,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1</v>
+        <v>18.776</v>
       </c>
       <c r="G51" t="n">
-        <v>2023.9</v>
+        <v>2033.55</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2251,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2265,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C52" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E52" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="F52" t="n">
-        <v>60.6688</v>
+        <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>2023.35</v>
+        <v>2033.933333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2290,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2304,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E53" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1</v>
+        <v>60.6688</v>
       </c>
       <c r="G53" t="n">
-        <v>2023</v>
+        <v>2034.233333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2329,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C54" t="n">
         <v>2020</v>
@@ -2262,27 +2352,25 @@
         <v>2020</v>
       </c>
       <c r="E54" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="F54" t="n">
-        <v>501.0881</v>
+        <v>0.1</v>
       </c>
       <c r="G54" t="n">
-        <v>2022.45</v>
+        <v>2034.566666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2294,22 +2382,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C55" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E55" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F55" t="n">
-        <v>19.0569</v>
+        <v>501.0881</v>
       </c>
       <c r="G55" t="n">
-        <v>2022.2</v>
+        <v>2034.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,22 +2421,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C56" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E56" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F56" t="n">
-        <v>34.02</v>
+        <v>19.0569</v>
       </c>
       <c r="G56" t="n">
-        <v>2022</v>
+        <v>2035.133333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2384,10 +2472,10 @@
         <v>2020</v>
       </c>
       <c r="F57" t="n">
-        <v>204.8148</v>
+        <v>34.02</v>
       </c>
       <c r="G57" t="n">
-        <v>2021</v>
+        <v>2035.35</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2411,32 +2499,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C58" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E58" t="n">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="F58" t="n">
-        <v>0.111</v>
+        <v>204.8148</v>
       </c>
       <c r="G58" t="n">
-        <v>2021.45</v>
+        <v>2035.566666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>2020</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2452,22 +2538,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C59" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D59" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E59" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="F59" t="n">
-        <v>766.5529</v>
+        <v>0.111</v>
       </c>
       <c r="G59" t="n">
-        <v>2021.4</v>
+        <v>2035.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2491,22 +2577,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C60" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E60" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="F60" t="n">
-        <v>598.1376</v>
+        <v>766.5529</v>
       </c>
       <c r="G60" t="n">
-        <v>2021.35</v>
+        <v>2035.583333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2530,32 +2616,30 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="C61" t="n">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="E61" t="n">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>598.1376</v>
       </c>
       <c r="G61" t="n">
-        <v>2021.7</v>
+        <v>2035.333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2571,32 +2655,30 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C62" t="n">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D62" t="n">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="E62" t="n">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>2022.1</v>
+        <v>2035.15</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>2027</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2615,19 +2697,19 @@
         <v>2029</v>
       </c>
       <c r="C63" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D63" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E63" t="n">
         <v>2029</v>
       </c>
       <c r="F63" t="n">
-        <v>217.161</v>
+        <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>2022.5</v>
+        <v>2035.066666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2651,22 +2733,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C64" t="n">
         <v>2030</v>
       </c>
-      <c r="C64" t="n">
-        <v>2040</v>
-      </c>
       <c r="D64" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E64" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>217.161</v>
       </c>
       <c r="G64" t="n">
-        <v>2022.95</v>
+        <v>2035.016666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2690,22 +2772,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C65" t="n">
-        <v>2031</v>
+        <v>2040</v>
       </c>
       <c r="D65" t="n">
-        <v>2031</v>
+        <v>2040</v>
       </c>
       <c r="E65" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F65" t="n">
-        <v>523.3094</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n">
-        <v>2023.05</v>
+        <v>2035.15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2729,22 +2811,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="C66" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="D66" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="E66" t="n">
-        <v>2019</v>
+        <v>2031</v>
       </c>
       <c r="F66" t="n">
-        <v>48</v>
+        <v>523.3094</v>
       </c>
       <c r="G66" t="n">
-        <v>2022.5</v>
+        <v>2035.083333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2768,22 +2850,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="C67" t="n">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D67" t="n">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="E67" t="n">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1</v>
+        <v>48</v>
       </c>
       <c r="G67" t="n">
-        <v>2022.8</v>
+        <v>2034.566666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2807,22 +2889,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="C68" t="n">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="D68" t="n">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E68" t="n">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="F68" t="n">
         <v>0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>2022.95</v>
+        <v>2034.116666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2846,22 +2928,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2014</v>
+        <v>2027</v>
       </c>
       <c r="C69" t="n">
-        <v>2014</v>
+        <v>2027</v>
       </c>
       <c r="D69" t="n">
-        <v>2014</v>
+        <v>2027</v>
       </c>
       <c r="E69" t="n">
-        <v>2014</v>
+        <v>2027</v>
       </c>
       <c r="F69" t="n">
-        <v>23.0874</v>
+        <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>2022.55</v>
+        <v>2033.55</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2885,22 +2967,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C70" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E70" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F70" t="n">
-        <v>223.4478</v>
+        <v>23.0874</v>
       </c>
       <c r="G70" t="n">
-        <v>2022.25</v>
+        <v>2032.783333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2924,22 +3006,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="C71" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="E71" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1</v>
+        <v>223.4478</v>
       </c>
       <c r="G71" t="n">
-        <v>2022.25</v>
+        <v>2032</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2963,22 +3045,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="C72" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="E72" t="n">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="F72" t="n">
-        <v>33.3848</v>
+        <v>0.1</v>
       </c>
       <c r="G72" t="n">
-        <v>2021.65</v>
+        <v>2031.583333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3002,22 +3084,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C73" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D73" t="n">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="E73" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F73" t="n">
-        <v>2.0716</v>
+        <v>33.3848</v>
       </c>
       <c r="G73" t="n">
-        <v>2021.6</v>
+        <v>2030.716666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3041,22 +3123,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C74" t="n">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="D74" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E74" t="n">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1</v>
+        <v>2.0716</v>
       </c>
       <c r="G74" t="n">
-        <v>2021.75</v>
+        <v>2030.033333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3080,22 +3162,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="C75" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E75" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="F75" t="n">
-        <v>38.5051</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>2020.8</v>
+        <v>2029.55</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3119,22 +3201,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="C76" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="D76" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="E76" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1</v>
+        <v>38.5051</v>
       </c>
       <c r="G76" t="n">
-        <v>2020.7</v>
+        <v>2028.533333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,22 +3240,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C77" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="D77" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="E77" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="F77" t="n">
-        <v>80.821</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>2019.7</v>
+        <v>2028.133333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3197,22 +3279,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C78" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="D78" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="E78" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1</v>
+        <v>80.821</v>
       </c>
       <c r="G78" t="n">
-        <v>2018.95</v>
+        <v>2027.316666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3236,22 +3318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="C79" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="E79" t="n">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="F79" t="n">
-        <v>13.5461</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>2016.95</v>
+        <v>2026.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3275,22 +3357,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C80" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D80" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E80" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6005</v>
+        <v>13.5461</v>
       </c>
       <c r="G80" t="n">
-        <v>2015.05</v>
+        <v>2025.65</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3314,22 +3396,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="C81" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D81" t="n">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="E81" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="F81" t="n">
-        <v>166.948</v>
+        <v>0.6005</v>
       </c>
       <c r="G81" t="n">
-        <v>2013.35</v>
+        <v>2024.416666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3353,22 +3435,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="C82" t="n">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="D82" t="n">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="E82" t="n">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="F82" t="n">
-        <v>15.8983</v>
+        <v>166.948</v>
       </c>
       <c r="G82" t="n">
-        <v>2011.3</v>
+        <v>2023.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3392,22 +3474,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="C83" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="D83" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="E83" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="F83" t="n">
-        <v>17.89</v>
+        <v>15.8983</v>
       </c>
       <c r="G83" t="n">
-        <v>2009.15</v>
+        <v>2021.983333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3431,22 +3513,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="C84" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="D84" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="E84" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2</v>
+        <v>17.89</v>
       </c>
       <c r="G84" t="n">
-        <v>2007.25</v>
+        <v>2020.733333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3470,22 +3552,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C85" t="n">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D85" t="n">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="E85" t="n">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="F85" t="n">
-        <v>8.5703</v>
+        <v>0.2</v>
       </c>
       <c r="G85" t="n">
-        <v>2005.45</v>
+        <v>2019.916666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3509,22 +3591,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C86" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D86" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E86" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1</v>
+        <v>8.5703</v>
       </c>
       <c r="G86" t="n">
-        <v>2004.35</v>
+        <v>2018.866666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3548,22 +3630,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="C87" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="D87" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="E87" t="n">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="F87" t="n">
-        <v>30.1631</v>
+        <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>2002.35</v>
+        <v>2017.966666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3587,22 +3669,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="C88" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="D88" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="E88" t="n">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="F88" t="n">
-        <v>356.8721</v>
+        <v>30.1631</v>
       </c>
       <c r="G88" t="n">
-        <v>2000.9</v>
+        <v>2016.983333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3626,22 +3708,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C89" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D89" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E89" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1</v>
+        <v>356.8721</v>
       </c>
       <c r="G89" t="n">
-        <v>2000.2</v>
+        <v>2016.283333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3668,19 +3750,19 @@
         <v>2000</v>
       </c>
       <c r="C90" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D90" t="n">
         <v>2000</v>
       </c>
       <c r="E90" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="F90" t="n">
-        <v>471.5122</v>
+        <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>1999.55</v>
+        <v>2015.633333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3704,22 +3786,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="D91" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="E91" t="n">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="F91" t="n">
-        <v>19.2975</v>
+        <v>471.5122</v>
       </c>
       <c r="G91" t="n">
-        <v>1999.25</v>
+        <v>2015</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3743,22 +3825,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C92" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E92" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1</v>
+        <v>19.2975</v>
       </c>
       <c r="G92" t="n">
-        <v>1999.65</v>
+        <v>2014.833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3785,19 +3867,19 @@
         <v>2015</v>
       </c>
       <c r="C93" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D93" t="n">
         <v>2015</v>
       </c>
       <c r="E93" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F93" t="n">
-        <v>236.1874</v>
+        <v>0.1</v>
       </c>
       <c r="G93" t="n">
-        <v>1999.45</v>
+        <v>2014.583333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3821,22 +3903,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C94" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D94" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E94" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1</v>
+        <v>236.1874</v>
       </c>
       <c r="G94" t="n">
-        <v>1999.6</v>
+        <v>2014.15</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3872,10 +3954,10 @@
         <v>2020</v>
       </c>
       <c r="F95" t="n">
-        <v>318.3823</v>
+        <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>2000.6</v>
+        <v>2013.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3899,22 +3981,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C96" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D96" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E96" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F96" t="n">
-        <v>0.11</v>
+        <v>318.3823</v>
       </c>
       <c r="G96" t="n">
-        <v>2000.85</v>
+        <v>2013.833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3941,19 +4023,19 @@
         <v>2023</v>
       </c>
       <c r="C97" t="n">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="D97" t="n">
         <v>2023</v>
       </c>
       <c r="E97" t="n">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="F97" t="n">
-        <v>807.8918</v>
+        <v>0.11</v>
       </c>
       <c r="G97" t="n">
-        <v>2002</v>
+        <v>2013.816666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3977,22 +4059,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C98" t="n">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D98" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E98" t="n">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>807.8918</v>
       </c>
       <c r="G98" t="n">
-        <v>2002.25</v>
+        <v>2013.316666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4016,22 +4098,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="C99" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D99" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E99" t="n">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="F99" t="n">
-        <v>13.0398</v>
+        <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>2003.45</v>
+        <v>2013.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4055,22 +4137,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C100" t="n">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="D100" t="n">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="E100" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F100" t="n">
-        <v>58.1395</v>
+        <v>13.0398</v>
       </c>
       <c r="G100" t="n">
-        <v>2004.7</v>
+        <v>2013.333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4106,10 +4188,10 @@
         <v>2006</v>
       </c>
       <c r="F101" t="n">
-        <v>29.0698</v>
+        <v>58.1395</v>
       </c>
       <c r="G101" t="n">
-        <v>2005.35</v>
+        <v>2013.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4133,22 +4215,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="C102" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D102" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E102" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="F102" t="n">
-        <v>16.1204</v>
+        <v>29.0698</v>
       </c>
       <c r="G102" t="n">
-        <v>2006.7</v>
+        <v>2012.866666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4172,22 +4254,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C103" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="D103" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E103" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1</v>
+        <v>16.1204</v>
       </c>
       <c r="G103" t="n">
-        <v>2008.45</v>
+        <v>2012.583333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4211,22 +4293,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C104" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D104" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E104" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F104" t="n">
-        <v>62.308</v>
+        <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>2009.8</v>
+        <v>2012.583333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4250,22 +4332,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D105" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E105" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F105" t="n">
-        <v>9.442299999999999</v>
+        <v>62.308</v>
       </c>
       <c r="G105" t="n">
-        <v>2011.15</v>
+        <v>2012.55</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4289,22 +4371,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C106" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D106" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E106" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1</v>
+        <v>9.442299999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>2012.5</v>
+        <v>2012.416666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4328,22 +4410,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="C107" t="n">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="D107" t="n">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="E107" t="n">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="F107" t="n">
-        <v>19.1792</v>
+        <v>0.1</v>
       </c>
       <c r="G107" t="n">
-        <v>2013.75</v>
+        <v>2012.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4367,22 +4449,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="C108" t="n">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="D108" t="n">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E108" t="n">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2</v>
+        <v>19.1792</v>
       </c>
       <c r="G108" t="n">
-        <v>2014.8</v>
+        <v>2012.133333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4406,22 +4488,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D109" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E109" t="n">
-        <v>1995</v>
+        <v>2019</v>
       </c>
       <c r="F109" t="n">
-        <v>6271.1372</v>
+        <v>0.2</v>
       </c>
       <c r="G109" t="n">
-        <v>2015.05</v>
+        <v>2012.166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4445,22 +4527,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="C110" t="n">
-        <v>1996</v>
+        <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="E110" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F110" t="n">
-        <v>2993.2085</v>
+        <v>6271.1372</v>
       </c>
       <c r="G110" t="n">
-        <v>2014.85</v>
+        <v>2012.016666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4484,22 +4566,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C111" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="D111" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E111" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1</v>
+        <v>2993.2085</v>
       </c>
       <c r="G111" t="n">
-        <v>2014.5</v>
+        <v>2011.633333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4523,22 +4605,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="C112" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="D112" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E112" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="G112" t="n">
-        <v>2013.85</v>
+        <v>2011.416666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4565,19 +4647,19 @@
         <v>2002</v>
       </c>
       <c r="C113" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D113" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E113" t="n">
         <v>2002</v>
       </c>
       <c r="F113" t="n">
-        <v>219.6958</v>
+        <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>2013.2</v>
+        <v>2011.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4601,22 +4683,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C114" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D114" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E114" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="F114" t="n">
-        <v>49.77600796</v>
+        <v>219.6958</v>
       </c>
       <c r="G114" t="n">
-        <v>2012.65</v>
+        <v>2010.916666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4640,22 +4722,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C115" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D115" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E115" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F115" t="n">
-        <v>290</v>
+        <v>49.77600796</v>
       </c>
       <c r="G115" t="n">
-        <v>2012</v>
+        <v>2010.733333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4679,22 +4761,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="C116" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="D116" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E116" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="F116" t="n">
-        <v>769.2939</v>
+        <v>290</v>
       </c>
       <c r="G116" t="n">
-        <v>2010.7</v>
+        <v>2010.533333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4718,22 +4800,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="C117" t="n">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="D117" t="n">
-        <v>2011</v>
+        <v>1997</v>
       </c>
       <c r="E117" t="n">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="F117" t="n">
-        <v>0.11</v>
+        <v>769.2939</v>
       </c>
       <c r="G117" t="n">
-        <v>2010.1</v>
+        <v>2010.116666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4757,22 +4839,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C118" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D118" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E118" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F118" t="n">
-        <v>190.2173</v>
+        <v>0.11</v>
       </c>
       <c r="G118" t="n">
-        <v>2009.55</v>
+        <v>2009.966666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4796,22 +4878,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C119" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D119" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E119" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1</v>
+        <v>190.2173</v>
       </c>
       <c r="G119" t="n">
-        <v>2009.95</v>
+        <v>2009.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4835,22 +4917,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="C120" t="n">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="D120" t="n">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="E120" t="n">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="F120" t="n">
-        <v>13.5917</v>
+        <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>2009.4</v>
+        <v>2009.466666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4874,22 +4956,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C121" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D121" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E121" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F121" t="n">
-        <v>31.4595</v>
+        <v>13.5917</v>
       </c>
       <c r="G121" t="n">
-        <v>2009</v>
+        <v>2009.133333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4913,22 +4995,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C122" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D122" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E122" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1</v>
+        <v>31.4595</v>
       </c>
       <c r="G122" t="n">
-        <v>2008.3</v>
+        <v>2008.65</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4952,22 +5034,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C123" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D123" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E123" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="F123" t="n">
         <v>0.1</v>
       </c>
       <c r="G123" t="n">
-        <v>2007.6</v>
+        <v>2008.183333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4991,22 +5073,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C124" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="D124" t="n">
-        <v>2047</v>
+        <v>2007</v>
       </c>
       <c r="E124" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="F124" t="n">
-        <v>2816.1937</v>
+        <v>0.1</v>
       </c>
       <c r="G124" t="n">
-        <v>2006.95</v>
+        <v>2007.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5030,22 +5112,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="C125" t="n">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="D125" t="n">
-        <v>1996</v>
+        <v>2047</v>
       </c>
       <c r="E125" t="n">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>2816.1937</v>
       </c>
       <c r="G125" t="n">
-        <v>2005.65</v>
+        <v>2007.016666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5069,22 +5151,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="C126" t="n">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="D126" t="n">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="E126" t="n">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>2005.2</v>
+        <v>2006.433333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5108,22 +5190,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C127" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E127" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F127" t="n">
         <v>0.1</v>
       </c>
       <c r="G127" t="n">
-        <v>2005.55</v>
+        <v>2006.366666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5147,22 +5229,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C128" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D128" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E128" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G128" t="n">
-        <v>2005.5</v>
+        <v>2006.233333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5186,22 +5268,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C129" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="D129" t="n">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="E129" t="n">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="F129" t="n">
-        <v>40.386</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>2005.25</v>
+        <v>2006.083333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5225,22 +5307,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C130" t="n">
         <v>1998</v>
       </c>
       <c r="D130" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E130" t="n">
         <v>1998</v>
       </c>
       <c r="F130" t="n">
-        <v>10.3863</v>
+        <v>40.386</v>
       </c>
       <c r="G130" t="n">
-        <v>2005.35</v>
+        <v>2005.816666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5264,22 +5346,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C131" t="n">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="D131" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E131" t="n">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="F131" t="n">
-        <v>290.9721</v>
+        <v>10.3863</v>
       </c>
       <c r="G131" t="n">
-        <v>2004.7</v>
+        <v>2005.566666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5303,22 +5385,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="C132" t="n">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="D132" t="n">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="E132" t="n">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="F132" t="n">
-        <v>374.9999</v>
+        <v>290.9721</v>
       </c>
       <c r="G132" t="n">
-        <v>2003.95</v>
+        <v>2005.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5342,22 +5424,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="C133" t="n">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="D133" t="n">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="E133" t="n">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1</v>
+        <v>374.9999</v>
       </c>
       <c r="G133" t="n">
-        <v>2004.15</v>
+        <v>2004.766666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5381,22 +5463,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C134" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D134" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="E134" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F134" t="n">
         <v>0.1</v>
       </c>
       <c r="G134" t="n">
-        <v>2004.4</v>
+        <v>2004.766666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5420,22 +5502,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="C135" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="D135" t="n">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="E135" t="n">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="F135" t="n">
-        <v>517.9582</v>
+        <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>2004.05</v>
+        <v>2004.716666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5459,22 +5541,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="C136" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D136" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E136" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1</v>
+        <v>517.9582</v>
       </c>
       <c r="G136" t="n">
-        <v>2004.65</v>
+        <v>2004.716666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5498,22 +5580,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="C137" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D137" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E137" t="n">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="F137" t="n">
-        <v>2912.9563</v>
+        <v>0.1</v>
       </c>
       <c r="G137" t="n">
-        <v>2004.15</v>
+        <v>2004.566666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5537,22 +5619,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C138" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D138" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E138" t="n">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="F138" t="n">
-        <v>230</v>
+        <v>2912.9563</v>
       </c>
       <c r="G138" t="n">
-        <v>2004.15</v>
+        <v>2004.866666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5576,22 +5658,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="C139" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="D139" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="E139" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="F139" t="n">
-        <v>15.96</v>
+        <v>230</v>
       </c>
       <c r="G139" t="n">
-        <v>2003.5</v>
+        <v>2004.766666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5615,22 +5697,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2026</v>
+        <v>1999</v>
       </c>
       <c r="C140" t="n">
-        <v>2026</v>
+        <v>1999</v>
       </c>
       <c r="D140" t="n">
-        <v>2026</v>
+        <v>1999</v>
       </c>
       <c r="E140" t="n">
-        <v>2026</v>
+        <v>1999</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>15.96</v>
       </c>
       <c r="G140" t="n">
-        <v>2005.05</v>
+        <v>2005.083333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5654,22 +5736,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="C141" t="n">
-        <v>2036</v>
+        <v>2026</v>
       </c>
       <c r="D141" t="n">
-        <v>2036</v>
+        <v>2026</v>
       </c>
       <c r="E141" t="n">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="F141" t="n">
-        <v>366.9389</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>2006.85</v>
+        <v>2005.833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5693,7 +5775,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="C142" t="n">
         <v>2036</v>
@@ -5702,13 +5784,13 @@
         <v>2036</v>
       </c>
       <c r="E142" t="n">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="F142" t="n">
-        <v>144.5616</v>
+        <v>366.9389</v>
       </c>
       <c r="G142" t="n">
-        <v>2008.6</v>
+        <v>2006.766666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5732,22 +5814,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="C143" t="n">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="D143" t="n">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="E143" t="n">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="F143" t="n">
-        <v>75.25279999999999</v>
+        <v>144.5616</v>
       </c>
       <c r="G143" t="n">
-        <v>2009.95</v>
+        <v>2007.566666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5771,22 +5853,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2045</v>
+        <v>2034</v>
       </c>
       <c r="C144" t="n">
-        <v>2049</v>
+        <v>2034</v>
       </c>
       <c r="D144" t="n">
-        <v>2049</v>
+        <v>2034</v>
       </c>
       <c r="E144" t="n">
-        <v>2045</v>
+        <v>2034</v>
       </c>
       <c r="F144" t="n">
-        <v>374.9999</v>
+        <v>75.25279999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>2011.9</v>
+        <v>2008.366666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5810,22 +5892,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="C145" t="n">
-        <v>2037</v>
+        <v>2049</v>
       </c>
       <c r="D145" t="n">
-        <v>2037</v>
+        <v>2049</v>
       </c>
       <c r="E145" t="n">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="F145" t="n">
-        <v>18.4074</v>
+        <v>374.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>2013.95</v>
+        <v>2009.316666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5849,22 +5931,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="C146" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="D146" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="E146" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="F146" t="n">
-        <v>142.5054</v>
+        <v>18.4074</v>
       </c>
       <c r="G146" t="n">
-        <v>2015.45</v>
+        <v>2010.016666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5888,22 +5970,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="C147" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="D147" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="E147" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="F147" t="n">
-        <v>11.0143</v>
+        <v>142.5054</v>
       </c>
       <c r="G147" t="n">
-        <v>2016.1</v>
+        <v>2010.816666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5939,10 +6021,10 @@
         <v>2030</v>
       </c>
       <c r="F148" t="n">
-        <v>225</v>
+        <v>11.0143</v>
       </c>
       <c r="G148" t="n">
-        <v>2016.7</v>
+        <v>2011.566666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5966,22 +6048,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C149" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="D149" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E149" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="F149" t="n">
-        <v>225.0375</v>
+        <v>225</v>
       </c>
       <c r="G149" t="n">
-        <v>2018.7</v>
+        <v>2012.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6005,22 +6087,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="C150" t="n">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="D150" t="n">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="E150" t="n">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="F150" t="n">
-        <v>845</v>
+        <v>225.0375</v>
       </c>
       <c r="G150" t="n">
-        <v>2021.15</v>
+        <v>2012.766666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6044,22 +6126,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2031</v>
+        <v>2047</v>
       </c>
       <c r="C151" t="n">
-        <v>2032</v>
+        <v>2047</v>
       </c>
       <c r="D151" t="n">
-        <v>2032</v>
+        <v>2047</v>
       </c>
       <c r="E151" t="n">
-        <v>2031</v>
+        <v>2047</v>
       </c>
       <c r="F151" t="n">
-        <v>385</v>
+        <v>845</v>
       </c>
       <c r="G151" t="n">
-        <v>2023</v>
+        <v>2013.716666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6083,22 +6165,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>2031</v>
+      </c>
+      <c r="C152" t="n">
         <v>2032</v>
       </c>
-      <c r="C152" t="n">
-        <v>2033</v>
-      </c>
       <c r="D152" t="n">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E152" t="n">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F152" t="n">
-        <v>160.6677</v>
+        <v>385</v>
       </c>
       <c r="G152" t="n">
-        <v>2025.25</v>
+        <v>2014.016666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6122,7 +6204,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C153" t="n">
         <v>2033</v>
@@ -6131,13 +6213,13 @@
         <v>2033</v>
       </c>
       <c r="E153" t="n">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F153" t="n">
-        <v>324.6824</v>
+        <v>160.6677</v>
       </c>
       <c r="G153" t="n">
-        <v>2026.6</v>
+        <v>2014.316666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6173,10 +6255,10 @@
         <v>2033</v>
       </c>
       <c r="F154" t="n">
-        <v>241.4299</v>
+        <v>324.6824</v>
       </c>
       <c r="G154" t="n">
-        <v>2027.55</v>
+        <v>2014.666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6200,22 +6282,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2021</v>
+        <v>2033</v>
       </c>
       <c r="C155" t="n">
-        <v>2021</v>
+        <v>2033</v>
       </c>
       <c r="D155" t="n">
-        <v>2021</v>
+        <v>2033</v>
       </c>
       <c r="E155" t="n">
-        <v>2021</v>
+        <v>2033</v>
       </c>
       <c r="F155" t="n">
-        <v>182.658</v>
+        <v>241.4299</v>
       </c>
       <c r="G155" t="n">
-        <v>2028.6</v>
+        <v>2014.883333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6239,22 +6321,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="D156" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E156" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="F156" t="n">
-        <v>497.604</v>
+        <v>182.658</v>
       </c>
       <c r="G156" t="n">
-        <v>2029.5</v>
+        <v>2014.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6278,22 +6360,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C157" t="n">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D157" t="n">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E157" t="n">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F157" t="n">
-        <v>84</v>
+        <v>497.604</v>
       </c>
       <c r="G157" t="n">
-        <v>2030.85</v>
+        <v>2014.966666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6317,22 +6399,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="C158" t="n">
-        <v>2014</v>
+        <v>2028</v>
       </c>
       <c r="D158" t="n">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="E158" t="n">
-        <v>2014</v>
+        <v>2028</v>
       </c>
       <c r="F158" t="n">
-        <v>2283.085</v>
+        <v>84</v>
       </c>
       <c r="G158" t="n">
-        <v>2031.35</v>
+        <v>2015.266666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6356,22 +6438,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>2028</v>
+        <v>2014</v>
       </c>
       <c r="D159" t="n">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="E159" t="n">
-        <v>2028</v>
+        <v>2014</v>
       </c>
       <c r="F159" t="n">
-        <v>4.9038</v>
+        <v>2283.085</v>
       </c>
       <c r="G159" t="n">
-        <v>2032.8</v>
+        <v>2015.166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6395,22 +6477,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C160" t="n">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D160" t="n">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E160" t="n">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F160" t="n">
-        <v>79.02330000000001</v>
+        <v>4.9038</v>
       </c>
       <c r="G160" t="n">
-        <v>2032.95</v>
+        <v>2015.25</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6434,22 +6516,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C161" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D161" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E161" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F161" t="n">
-        <v>470.4433</v>
+        <v>79.02330000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>2032.75</v>
+        <v>2015.633333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6485,10 +6567,10 @@
         <v>2030</v>
       </c>
       <c r="F162" t="n">
-        <v>1759.506</v>
+        <v>470.4433</v>
       </c>
       <c r="G162" t="n">
-        <v>2032.45</v>
+        <v>2016.033333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6512,22 +6594,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C163" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D163" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E163" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F163" t="n">
-        <v>180.8409</v>
+        <v>1759.506</v>
       </c>
       <c r="G163" t="n">
-        <v>2032.3</v>
+        <v>2016.466666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6551,22 +6633,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C164" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D164" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="E164" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F164" t="n">
-        <v>170.477</v>
+        <v>180.8409</v>
       </c>
       <c r="G164" t="n">
-        <v>2031.55</v>
+        <v>2016.633333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6590,22 +6672,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C165" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="D165" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E165" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1</v>
+        <v>170.477</v>
       </c>
       <c r="G165" t="n">
-        <v>2031.7</v>
+        <v>2016.816666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6641,10 +6723,10 @@
         <v>2040</v>
       </c>
       <c r="F166" t="n">
-        <v>969.4117</v>
+        <v>0.1</v>
       </c>
       <c r="G166" t="n">
-        <v>2031.45</v>
+        <v>2017.133333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6680,10 +6762,10 @@
         <v>2040</v>
       </c>
       <c r="F167" t="n">
-        <v>15.7034</v>
+        <v>969.4117</v>
       </c>
       <c r="G167" t="n">
-        <v>2031.95</v>
+        <v>2017.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6707,22 +6789,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="C168" t="n">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="D168" t="n">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="E168" t="n">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1</v>
+        <v>15.7034</v>
       </c>
       <c r="G168" t="n">
-        <v>2033.2</v>
+        <v>2017.933333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6749,19 +6831,19 @@
         <v>2055</v>
       </c>
       <c r="C169" t="n">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="D169" t="n">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="E169" t="n">
         <v>2055</v>
       </c>
       <c r="F169" t="n">
-        <v>58.1075</v>
+        <v>0.1</v>
       </c>
       <c r="G169" t="n">
-        <v>2033.95</v>
+        <v>2018.516666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6785,22 +6867,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2093</v>
+        <v>2055</v>
       </c>
       <c r="C170" t="n">
-        <v>2089</v>
+        <v>2061</v>
       </c>
       <c r="D170" t="n">
-        <v>2093</v>
+        <v>2061</v>
       </c>
       <c r="E170" t="n">
-        <v>2089</v>
+        <v>2055</v>
       </c>
       <c r="F170" t="n">
-        <v>14.47</v>
+        <v>58.1075</v>
       </c>
       <c r="G170" t="n">
-        <v>2036.25</v>
+        <v>2019.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6824,22 +6906,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2061</v>
+        <v>2093</v>
       </c>
       <c r="C171" t="n">
-        <v>2061</v>
+        <v>2089</v>
       </c>
       <c r="D171" t="n">
-        <v>2061</v>
+        <v>2093</v>
       </c>
       <c r="E171" t="n">
-        <v>2061</v>
+        <v>2089</v>
       </c>
       <c r="F171" t="n">
-        <v>18.4418</v>
+        <v>14.47</v>
       </c>
       <c r="G171" t="n">
-        <v>2037.75</v>
+        <v>2020.85</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6863,59 +6945,61 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="C172" t="n">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="D172" t="n">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="E172" t="n">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="F172" t="n">
-        <v>61.9168</v>
+        <v>18.4418</v>
       </c>
       <c r="G172" t="n">
-        <v>2039</v>
+        <v>2021.75</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2090</v>
+        <v>2057</v>
       </c>
       <c r="C173" t="n">
-        <v>2090</v>
+        <v>2065</v>
       </c>
       <c r="D173" t="n">
-        <v>2090</v>
+        <v>2065</v>
       </c>
       <c r="E173" t="n">
-        <v>2090</v>
+        <v>2057</v>
       </c>
       <c r="F173" t="n">
-        <v>0.11</v>
+        <v>61.9168</v>
       </c>
       <c r="G173" t="n">
-        <v>2041.85</v>
+        <v>2022.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6925,7 +7009,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6935,22 +7023,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2065</v>
+        <v>2090</v>
       </c>
       <c r="C174" t="n">
-        <v>2065</v>
+        <v>2090</v>
       </c>
       <c r="D174" t="n">
-        <v>2065</v>
+        <v>2090</v>
       </c>
       <c r="E174" t="n">
-        <v>2065</v>
+        <v>2090</v>
       </c>
       <c r="F174" t="n">
-        <v>18.5</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="n">
-        <v>2043.45</v>
+        <v>2024.25</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6960,7 +7048,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6970,32 +7062,36 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2089</v>
+        <v>2065</v>
       </c>
       <c r="C175" t="n">
-        <v>2089</v>
+        <v>2065</v>
       </c>
       <c r="D175" t="n">
-        <v>2089</v>
+        <v>2065</v>
       </c>
       <c r="E175" t="n">
-        <v>2089</v>
+        <v>2065</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1</v>
+        <v>18.5</v>
       </c>
       <c r="G175" t="n">
-        <v>2046.85</v>
+        <v>2025.183333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7005,22 +7101,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="C176" t="n">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="D176" t="n">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="E176" t="n">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="F176" t="n">
         <v>0.1</v>
       </c>
       <c r="G176" t="n">
-        <v>2050.2</v>
+        <v>2026.55</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7030,7 +7126,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7040,22 +7140,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="C177" t="n">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="D177" t="n">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="E177" t="n">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="F177" t="n">
-        <v>103.0528</v>
+        <v>0.1</v>
       </c>
       <c r="G177" t="n">
-        <v>2053.75</v>
+        <v>2028.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7065,7 +7165,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7075,32 +7179,36 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2079</v>
+        <v>2099</v>
       </c>
       <c r="C178" t="n">
-        <v>2081</v>
+        <v>2099</v>
       </c>
       <c r="D178" t="n">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="E178" t="n">
-        <v>2079</v>
+        <v>2099</v>
       </c>
       <c r="F178" t="n">
-        <v>1161.8919</v>
+        <v>103.0528</v>
       </c>
       <c r="G178" t="n">
-        <v>2056.75</v>
+        <v>2029.666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7110,22 +7218,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="C179" t="n">
-        <v>2075</v>
+        <v>2081</v>
       </c>
       <c r="D179" t="n">
-        <v>2075</v>
+        <v>2098</v>
       </c>
       <c r="E179" t="n">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="F179" t="n">
-        <v>814.329</v>
+        <v>1161.8919</v>
       </c>
       <c r="G179" t="n">
-        <v>2059.1</v>
+        <v>2030.883333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7135,7 +7243,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7145,22 +7257,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C180" t="n">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D180" t="n">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E180" t="n">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F180" t="n">
-        <v>10.7233</v>
+        <v>814.329</v>
       </c>
       <c r="G180" t="n">
-        <v>2061.45</v>
+        <v>2031.933333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7170,7 +7282,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7180,22 +7296,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2093</v>
+        <v>2076</v>
       </c>
       <c r="C181" t="n">
-        <v>2093</v>
+        <v>2076</v>
       </c>
       <c r="D181" t="n">
-        <v>2093</v>
+        <v>2076</v>
       </c>
       <c r="E181" t="n">
-        <v>2093</v>
+        <v>2076</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1</v>
+        <v>10.7233</v>
       </c>
       <c r="G181" t="n">
-        <v>2064.6</v>
+        <v>2033.283333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7205,8 +7321,51 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2093</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2093</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2034.866666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
+        <v>2002.466666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>1989.933333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>220.8773</v>
       </c>
       <c r="G3" t="n">
+        <v>2007.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>1990.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>220.9862</v>
       </c>
       <c r="G4" t="n">
+        <v>2010.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>1990.3</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>25.1831</v>
       </c>
       <c r="G5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H5" t="n">
         <v>1990.666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>0.1648</v>
       </c>
       <c r="G6" t="n">
+        <v>2017.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>1991.183333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>850.2483999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>2021.133333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1991.95</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>13.6514</v>
       </c>
       <c r="G8" t="n">
+        <v>2024.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>1992.65</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>0.1</v>
       </c>
       <c r="G9" t="n">
+        <v>2028.866666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>1993.616666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1368.2107</v>
       </c>
       <c r="G10" t="n">
+        <v>2032.866666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>1994.566666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>32.1281</v>
       </c>
       <c r="G11" t="n">
+        <v>2036.533333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>1995.383333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>18.9889</v>
       </c>
       <c r="G12" t="n">
+        <v>2039.066666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>1995.95</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>0.1</v>
       </c>
       <c r="G13" t="n">
+        <v>2042.533333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>1996.733333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1664.8941</v>
       </c>
       <c r="G14" t="n">
+        <v>2044.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>1996.983333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>35.1135</v>
       </c>
       <c r="G15" t="n">
+        <v>2045.466666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1997.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>0.11</v>
       </c>
       <c r="G16" t="n">
+        <v>2047.533333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>1998.35</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>376.9328</v>
       </c>
       <c r="G17" t="n">
+        <v>2047.8</v>
+      </c>
+      <c r="H17" t="n">
         <v>1998.883333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>24.1538</v>
       </c>
       <c r="G18" t="n">
+        <v>2048.333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>1999.416666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>269.97</v>
       </c>
       <c r="G19" t="n">
+        <v>2049.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>2000.016666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>219.96</v>
       </c>
       <c r="G20" t="n">
+        <v>2050.333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>2000.666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
+        <v>2051.666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>2001.416666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>69.5581</v>
       </c>
       <c r="G22" t="n">
+        <v>2052.266666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>2002.533333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>307.6298</v>
       </c>
       <c r="G23" t="n">
+        <v>2052.466666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>2003.583333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>662.4123</v>
       </c>
       <c r="G24" t="n">
+        <v>2052.466666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>2004.766666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1945.7162</v>
       </c>
       <c r="G25" t="n">
+        <v>2051.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>2005.65</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>228.2932</v>
       </c>
       <c r="G26" t="n">
+        <v>2051.066666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>2006.733333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>26.727</v>
       </c>
       <c r="G27" t="n">
+        <v>2051.466666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>2007.783333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>200.7094</v>
       </c>
       <c r="G28" t="n">
+        <v>2050.466666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>2008.65</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>32.398</v>
       </c>
       <c r="G29" t="n">
+        <v>2050</v>
+      </c>
+      <c r="H29" t="n">
         <v>2009.7</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>54.4027</v>
       </c>
       <c r="G30" t="n">
+        <v>2049.533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>2010.816666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>31.2377</v>
       </c>
       <c r="G31" t="n">
+        <v>2047.333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>2011.8</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>24.9043</v>
       </c>
       <c r="G32" t="n">
+        <v>2046.133333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>2012.8</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>0.1</v>
       </c>
       <c r="G33" t="n">
+        <v>2045.333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>2014.05</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,24 +1669,21 @@
         <v>413.6985</v>
       </c>
       <c r="G34" t="n">
+        <v>2044.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>2015.516666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,24 +1707,21 @@
         <v>19.05</v>
       </c>
       <c r="G35" t="n">
+        <v>2043.866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>2016.933333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2038</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,24 +1745,21 @@
         <v>15.8526</v>
       </c>
       <c r="G36" t="n">
+        <v>2041.8</v>
+      </c>
+      <c r="H36" t="n">
         <v>2018.166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,22 +1783,21 @@
         <v>606.9181</v>
       </c>
       <c r="G37" t="n">
+        <v>2039.466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>2019.4</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,22 +1821,21 @@
         <v>0.11</v>
       </c>
       <c r="G38" t="n">
+        <v>2038.466666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>2020.9</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1769,22 +1859,21 @@
         <v>1142.75</v>
       </c>
       <c r="G39" t="n">
+        <v>2035.8</v>
+      </c>
+      <c r="H39" t="n">
         <v>2022.033333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,24 +1897,21 @@
         <v>35.59</v>
       </c>
       <c r="G40" t="n">
+        <v>2034.466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>2023.216666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,24 +1935,21 @@
         <v>36</v>
       </c>
       <c r="G41" t="n">
+        <v>2031.933333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>2024.466666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,22 +1973,21 @@
         <v>19</v>
       </c>
       <c r="G42" t="n">
+        <v>2029.866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>2025.55</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,22 +2011,21 @@
         <v>163.0474</v>
       </c>
       <c r="G43" t="n">
+        <v>2028.333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>2026.733333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,22 +2049,21 @@
         <v>71.76000000000001</v>
       </c>
       <c r="G44" t="n">
+        <v>2027.066666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>2027.65</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2007,22 +2087,21 @@
         <v>152.9853</v>
       </c>
       <c r="G45" t="n">
+        <v>2025.866666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>2028.316666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,22 +2125,21 @@
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
+        <v>2025.933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>2029.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2085,22 +2163,21 @@
         <v>224.0078</v>
       </c>
       <c r="G47" t="n">
+        <v>2026.4</v>
+      </c>
+      <c r="H47" t="n">
         <v>2030.7</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,22 +2201,21 @@
         <v>340</v>
       </c>
       <c r="G48" t="n">
+        <v>2025.6</v>
+      </c>
+      <c r="H48" t="n">
         <v>2031.666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,22 +2239,21 @@
         <v>39.9131</v>
       </c>
       <c r="G49" t="n">
+        <v>2024.266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>2032.216666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2202,22 +2277,21 @@
         <v>0.2</v>
       </c>
       <c r="G50" t="n">
+        <v>2023.466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>2033.166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2241,22 +2315,21 @@
         <v>18.776</v>
       </c>
       <c r="G51" t="n">
+        <v>2023.133333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>2033.55</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,22 +2353,21 @@
         <v>0.1</v>
       </c>
       <c r="G52" t="n">
+        <v>2022.866666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>2033.933333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,22 +2391,21 @@
         <v>60.6688</v>
       </c>
       <c r="G53" t="n">
+        <v>2021.2</v>
+      </c>
+      <c r="H53" t="n">
         <v>2034.233333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,22 +2429,21 @@
         <v>0.1</v>
       </c>
       <c r="G54" t="n">
+        <v>2021.133333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>2034.566666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2397,22 +2467,21 @@
         <v>501.0881</v>
       </c>
       <c r="G55" t="n">
+        <v>2021.066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>2034.9</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,22 +2505,21 @@
         <v>19.0569</v>
       </c>
       <c r="G56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H56" t="n">
         <v>2035.133333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2475,22 +2543,21 @@
         <v>34.02</v>
       </c>
       <c r="G57" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H57" t="n">
         <v>2035.35</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,22 +2581,21 @@
         <v>204.8148</v>
       </c>
       <c r="G58" t="n">
+        <v>2020.933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>2035.566666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2553,22 +2619,21 @@
         <v>0.111</v>
       </c>
       <c r="G59" t="n">
+        <v>2021.533333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>2035.7</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,22 +2657,21 @@
         <v>766.5529</v>
       </c>
       <c r="G60" t="n">
+        <v>2021.466666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>2035.583333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2631,22 +2695,21 @@
         <v>598.1376</v>
       </c>
       <c r="G61" t="n">
+        <v>2020.533333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>2035.333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,22 +2733,21 @@
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
+        <v>2020.266666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>2035.15</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2709,22 +2771,21 @@
         <v>0.1</v>
       </c>
       <c r="G63" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H63" t="n">
         <v>2035.066666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,22 +2809,21 @@
         <v>217.161</v>
       </c>
       <c r="G64" t="n">
+        <v>2021.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>2035.016666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2787,22 +2847,21 @@
         <v>30</v>
       </c>
       <c r="G65" t="n">
+        <v>2022.933333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>2035.15</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,22 +2885,21 @@
         <v>523.3094</v>
       </c>
       <c r="G66" t="n">
+        <v>2023.733333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>2035.083333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2865,22 +2923,21 @@
         <v>48</v>
       </c>
       <c r="G67" t="n">
+        <v>2023.666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>2034.566666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,22 +2961,21 @@
         <v>0.1</v>
       </c>
       <c r="G68" t="n">
+        <v>2024.333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>2034.116666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,22 +2999,21 @@
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
+        <v>2024.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>2033.55</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,22 +3037,21 @@
         <v>23.0874</v>
       </c>
       <c r="G70" t="n">
+        <v>2024.4</v>
+      </c>
+      <c r="H70" t="n">
         <v>2032.783333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,22 +3075,21 @@
         <v>223.4478</v>
       </c>
       <c r="G71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H71" t="n">
         <v>2032</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,22 +3113,21 @@
         <v>0.1</v>
       </c>
       <c r="G72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H72" t="n">
         <v>2031.583333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3099,22 +3151,21 @@
         <v>33.3848</v>
       </c>
       <c r="G73" t="n">
+        <v>2023.133333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>2030.716666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3138,22 +3189,21 @@
         <v>2.0716</v>
       </c>
       <c r="G74" t="n">
+        <v>2021.533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>2030.033333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,22 +3227,21 @@
         <v>0.1</v>
       </c>
       <c r="G75" t="n">
+        <v>2021.333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>2029.55</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,22 +3265,21 @@
         <v>38.5051</v>
       </c>
       <c r="G76" t="n">
+        <v>2020.333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>2028.533333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,22 +3303,21 @@
         <v>0.1</v>
       </c>
       <c r="G77" t="n">
+        <v>2019.733333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>2028.133333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,22 +3341,21 @@
         <v>80.821</v>
       </c>
       <c r="G78" t="n">
+        <v>2017.333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>2027.316666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3333,22 +3379,21 @@
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
+        <v>2016.333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>2026.8</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,22 +3417,21 @@
         <v>13.5461</v>
       </c>
       <c r="G80" t="n">
+        <v>2012.333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>2025.65</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3411,22 +3455,25 @@
         <v>0.6005</v>
       </c>
       <c r="G81" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H81" t="n">
         <v>2024.416666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1980</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,22 +3497,29 @@
         <v>166.948</v>
       </c>
       <c r="G82" t="n">
+        <v>2006.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>2023.1</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1981</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3489,22 +3543,29 @@
         <v>15.8983</v>
       </c>
       <c r="G83" t="n">
+        <v>2003.933333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>2021.983333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1980</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,22 +3589,29 @@
         <v>17.89</v>
       </c>
       <c r="G84" t="n">
+        <v>2001.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>2020.733333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1988</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3567,22 +3635,29 @@
         <v>0.2</v>
       </c>
       <c r="G85" t="n">
+        <v>1999.733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>2019.916666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1986</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,22 +3681,29 @@
         <v>8.5703</v>
       </c>
       <c r="G86" t="n">
+        <v>1998.533333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>2018.866666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1992</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,22 +3727,29 @@
         <v>0.1</v>
       </c>
       <c r="G87" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H87" t="n">
         <v>2017.966666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1995</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,22 +3773,29 @@
         <v>30.1631</v>
       </c>
       <c r="G88" t="n">
+        <v>1995.533333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>2016.983333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1997</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,22 +3819,29 @@
         <v>356.8721</v>
       </c>
       <c r="G89" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H89" t="n">
         <v>2016.283333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1985</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,22 +3865,29 @@
         <v>0.1</v>
       </c>
       <c r="G90" t="n">
+        <v>1993.866666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>2015.633333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1998</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,22 +3911,29 @@
         <v>471.5122</v>
       </c>
       <c r="G91" t="n">
+        <v>1993.2</v>
+      </c>
+      <c r="H91" t="n">
         <v>2015</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,22 +3957,29 @@
         <v>19.2975</v>
       </c>
       <c r="G92" t="n">
+        <v>1992.933333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>2014.833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1990</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,22 +4003,29 @@
         <v>0.1</v>
       </c>
       <c r="G93" t="n">
+        <v>1994.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>2014.583333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2014</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,22 +4049,27 @@
         <v>236.1874</v>
       </c>
       <c r="G94" t="n">
+        <v>1994.2</v>
+      </c>
+      <c r="H94" t="n">
         <v>2014.15</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3957,22 +4093,27 @@
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
+        <v>1996.866666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>2013.9</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,22 +4137,27 @@
         <v>318.3823</v>
       </c>
       <c r="G96" t="n">
+        <v>1999.466666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>2013.833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,22 +4181,27 @@
         <v>0.11</v>
       </c>
       <c r="G97" t="n">
+        <v>2002.333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>2013.816666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,22 +4225,27 @@
         <v>807.8918</v>
       </c>
       <c r="G98" t="n">
+        <v>2003.8</v>
+      </c>
+      <c r="H98" t="n">
         <v>2013.316666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4113,22 +4269,27 @@
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
+        <v>2006.066666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>2013.3</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,22 +4313,27 @@
         <v>13.0398</v>
       </c>
       <c r="G100" t="n">
+        <v>2008.133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>2013.333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4191,22 +4357,27 @@
         <v>58.1395</v>
       </c>
       <c r="G101" t="n">
+        <v>2008.866666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>2013.1</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,22 +4401,29 @@
         <v>29.0698</v>
       </c>
       <c r="G102" t="n">
+        <v>2009.466666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>2012.866666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4269,22 +4447,29 @@
         <v>16.1204</v>
       </c>
       <c r="G103" t="n">
+        <v>2010.733333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>2012.583333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,22 +4493,29 @@
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
+        <v>2012.266666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>2012.583333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2004</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4347,22 +4539,27 @@
         <v>62.308</v>
       </c>
       <c r="G105" t="n">
+        <v>2013.533333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>2012.55</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,22 +4583,27 @@
         <v>9.442299999999999</v>
       </c>
       <c r="G106" t="n">
+        <v>2015.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>2012.416666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4425,22 +4627,27 @@
         <v>0.1</v>
       </c>
       <c r="G107" t="n">
+        <v>2016.266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>2012.3</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,22 +4671,27 @@
         <v>19.1792</v>
       </c>
       <c r="G108" t="n">
+        <v>2015.8</v>
+      </c>
+      <c r="H108" t="n">
         <v>2012.133333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4503,22 +4715,27 @@
         <v>0.2</v>
       </c>
       <c r="G109" t="n">
+        <v>2016.333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>2012.166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,22 +4759,27 @@
         <v>6271.1372</v>
       </c>
       <c r="G110" t="n">
+        <v>2015.933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>2012.016666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,22 +4803,27 @@
         <v>2993.2085</v>
       </c>
       <c r="G111" t="n">
+        <v>2014.333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>2011.633333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,22 +4847,27 @@
         <v>0.1</v>
       </c>
       <c r="G112" t="n">
+        <v>2013.266666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>2011.416666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,22 +4891,27 @@
         <v>20</v>
       </c>
       <c r="G113" t="n">
+        <v>2012.733333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>2011.2</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,22 +4935,27 @@
         <v>219.6958</v>
       </c>
       <c r="G114" t="n">
+        <v>2011.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>2010.916666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,22 +4979,27 @@
         <v>49.77600796</v>
       </c>
       <c r="G115" t="n">
+        <v>2010.666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>2010.733333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,22 +5023,27 @@
         <v>290</v>
       </c>
       <c r="G116" t="n">
+        <v>2010.733333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>2010.533333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,22 +5067,27 @@
         <v>769.2939</v>
       </c>
       <c r="G117" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H117" t="n">
         <v>2010.116666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,22 +5111,27 @@
         <v>0.11</v>
       </c>
       <c r="G118" t="n">
+        <v>2010.466666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>2009.966666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,19 +5158,24 @@
         <v>2009.6</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2009.6</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,22 +5199,27 @@
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
+        <v>2009.133333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>2009.466666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4971,22 +5243,27 @@
         <v>13.5917</v>
       </c>
       <c r="G121" t="n">
+        <v>2007.4</v>
+      </c>
+      <c r="H121" t="n">
         <v>2009.133333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,22 +5287,27 @@
         <v>31.4595</v>
       </c>
       <c r="G122" t="n">
+        <v>2005.666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>2008.65</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,22 +5331,27 @@
         <v>0.1</v>
       </c>
       <c r="G123" t="n">
+        <v>2005.2</v>
+      </c>
+      <c r="H123" t="n">
         <v>2008.183333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,22 +5375,27 @@
         <v>0.1</v>
       </c>
       <c r="G124" t="n">
+        <v>2004.333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>2007.8</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5127,22 +5419,27 @@
         <v>2816.1937</v>
       </c>
       <c r="G125" t="n">
+        <v>2002.933333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>2007.016666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,22 +5463,27 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
+        <v>2002.933333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>2006.433333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5205,22 +5507,27 @@
         <v>0.1</v>
       </c>
       <c r="G127" t="n">
+        <v>2003.466666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>2006.366666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,22 +5551,27 @@
         <v>0.1</v>
       </c>
       <c r="G128" t="n">
+        <v>2004.466666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>2006.233333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5283,22 +5595,27 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
+        <v>2005.466666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>2006.083333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,22 +5639,27 @@
         <v>40.386</v>
       </c>
       <c r="G130" t="n">
+        <v>2004.733333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>2005.816666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5361,22 +5683,27 @@
         <v>10.3863</v>
       </c>
       <c r="G131" t="n">
+        <v>2004.133333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>2005.566666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,22 +5727,27 @@
         <v>290.9721</v>
       </c>
       <c r="G132" t="n">
+        <v>2003.933333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>2005.1</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5439,22 +5771,27 @@
         <v>374.9999</v>
       </c>
       <c r="G133" t="n">
+        <v>2002.333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>2004.766666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5478,22 +5815,29 @@
         <v>0.1</v>
       </c>
       <c r="G134" t="n">
+        <v>2002.2</v>
+      </c>
+      <c r="H134" t="n">
         <v>2004.766666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1987</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5517,22 +5861,29 @@
         <v>0.1</v>
       </c>
       <c r="G135" t="n">
+        <v>2002.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>2004.716666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2006</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5556,22 +5907,27 @@
         <v>517.9582</v>
       </c>
       <c r="G136" t="n">
+        <v>2002.666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>2004.716666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5595,22 +5951,27 @@
         <v>0.1</v>
       </c>
       <c r="G137" t="n">
+        <v>2003.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>2004.566666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,22 +5995,27 @@
         <v>2912.9563</v>
       </c>
       <c r="G138" t="n">
+        <v>2004.066666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>2004.866666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5673,22 +6039,27 @@
         <v>230</v>
       </c>
       <c r="G139" t="n">
+        <v>2004.2</v>
+      </c>
+      <c r="H139" t="n">
         <v>2004.766666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,22 +6083,27 @@
         <v>15.96</v>
       </c>
       <c r="G140" t="n">
+        <v>2004.6</v>
+      </c>
+      <c r="H140" t="n">
         <v>2005.083333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,22 +6127,27 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
+        <v>2006.6</v>
+      </c>
+      <c r="H141" t="n">
         <v>2005.833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5790,22 +6171,27 @@
         <v>366.9389</v>
       </c>
       <c r="G142" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H142" t="n">
         <v>2006.766666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5829,22 +6215,27 @@
         <v>144.5616</v>
       </c>
       <c r="G143" t="n">
+        <v>2009.266666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>2007.566666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,22 +6259,27 @@
         <v>75.25279999999999</v>
       </c>
       <c r="G144" t="n">
+        <v>2010.333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>2008.366666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,22 +6303,27 @@
         <v>374.9999</v>
       </c>
       <c r="G145" t="n">
+        <v>2013.733333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>2009.316666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5946,22 +6347,27 @@
         <v>18.4074</v>
       </c>
       <c r="G146" t="n">
+        <v>2016.333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>2010.016666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5985,22 +6391,27 @@
         <v>142.5054</v>
       </c>
       <c r="G147" t="n">
+        <v>2019.866666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>2010.816666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,22 +6435,27 @@
         <v>11.0143</v>
       </c>
       <c r="G148" t="n">
+        <v>2022.733333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>2011.566666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6063,22 +6479,27 @@
         <v>225</v>
       </c>
       <c r="G149" t="n">
+        <v>2024.333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>2012.1</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,22 +6523,27 @@
         <v>225.0375</v>
       </c>
       <c r="G150" t="n">
+        <v>2026.066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>2012.766666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6141,22 +6567,27 @@
         <v>845</v>
       </c>
       <c r="G151" t="n">
+        <v>2029.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>2013.716666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6180,22 +6611,27 @@
         <v>385</v>
       </c>
       <c r="G152" t="n">
+        <v>2030.733333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>2014.016666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6219,22 +6655,27 @@
         <v>160.6677</v>
       </c>
       <c r="G153" t="n">
+        <v>2032.2</v>
+      </c>
+      <c r="H153" t="n">
         <v>2014.316666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,22 +6699,27 @@
         <v>324.6824</v>
       </c>
       <c r="G154" t="n">
+        <v>2033.8</v>
+      </c>
+      <c r="H154" t="n">
         <v>2014.666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6297,22 +6743,27 @@
         <v>241.4299</v>
       </c>
       <c r="G155" t="n">
+        <v>2036.066666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>2014.883333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6336,22 +6787,27 @@
         <v>182.658</v>
       </c>
       <c r="G156" t="n">
+        <v>2035.733333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>2014.9</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6375,22 +6831,27 @@
         <v>497.604</v>
       </c>
       <c r="G157" t="n">
+        <v>2035.133333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>2014.966666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,22 +6875,27 @@
         <v>84</v>
       </c>
       <c r="G158" t="n">
+        <v>2034.6</v>
+      </c>
+      <c r="H158" t="n">
         <v>2015.266666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,22 +6919,27 @@
         <v>2283.085</v>
       </c>
       <c r="G159" t="n">
+        <v>2033.266666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>2015.166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6492,22 +6963,27 @@
         <v>4.9038</v>
       </c>
       <c r="G160" t="n">
+        <v>2031.866666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>2015.25</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6531,22 +7007,27 @@
         <v>79.02330000000001</v>
       </c>
       <c r="G161" t="n">
+        <v>2031.333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>2015.633333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6570,22 +7051,27 @@
         <v>470.4433</v>
       </c>
       <c r="G162" t="n">
+        <v>2030.333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>2016.033333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,22 +7095,27 @@
         <v>1759.506</v>
       </c>
       <c r="G163" t="n">
+        <v>2030.333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>2016.466666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,22 +7139,27 @@
         <v>180.8409</v>
       </c>
       <c r="G164" t="n">
+        <v>2030.4</v>
+      </c>
+      <c r="H164" t="n">
         <v>2016.633333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6687,22 +7183,27 @@
         <v>170.477</v>
       </c>
       <c r="G165" t="n">
+        <v>2029.733333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>2016.816666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,22 +7227,27 @@
         <v>0.1</v>
       </c>
       <c r="G166" t="n">
+        <v>2029.266666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>2017.133333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,22 +7271,27 @@
         <v>969.4117</v>
       </c>
       <c r="G167" t="n">
+        <v>2029.8</v>
+      </c>
+      <c r="H167" t="n">
         <v>2017.4</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,22 +7315,27 @@
         <v>15.7034</v>
       </c>
       <c r="G168" t="n">
+        <v>2030.266666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>2017.933333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6843,22 +7359,27 @@
         <v>0.1</v>
       </c>
       <c r="G169" t="n">
+        <v>2031.733333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>2018.516666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6882,22 +7403,27 @@
         <v>58.1075</v>
       </c>
       <c r="G170" t="n">
+        <v>2033.6</v>
+      </c>
+      <c r="H170" t="n">
         <v>2019.3</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6921,22 +7447,27 @@
         <v>14.47</v>
       </c>
       <c r="G171" t="n">
+        <v>2038.133333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>2020.85</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6960,22 +7491,27 @@
         <v>18.4418</v>
       </c>
       <c r="G172" t="n">
+        <v>2040.4</v>
+      </c>
+      <c r="H172" t="n">
         <v>2021.75</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6999,22 +7535,27 @@
         <v>61.9168</v>
       </c>
       <c r="G173" t="n">
+        <v>2042.866666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>2022.8</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,22 +7579,27 @@
         <v>0.11</v>
       </c>
       <c r="G174" t="n">
+        <v>2047.933333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>2024.25</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7077,22 +7623,27 @@
         <v>18.5</v>
       </c>
       <c r="G175" t="n">
+        <v>2050.4</v>
+      </c>
+      <c r="H175" t="n">
         <v>2025.183333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,22 +7667,27 @@
         <v>0.1</v>
       </c>
       <c r="G176" t="n">
+        <v>2054.4</v>
+      </c>
+      <c r="H176" t="n">
         <v>2026.55</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7155,22 +7711,27 @@
         <v>0.1</v>
       </c>
       <c r="G177" t="n">
+        <v>2058.666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>2028.2</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7194,22 +7755,27 @@
         <v>103.0528</v>
       </c>
       <c r="G178" t="n">
+        <v>2063.266666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>2029.666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7233,23 +7799,28 @@
         <v>1161.8919</v>
       </c>
       <c r="G179" t="n">
+        <v>2066.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>2030.883333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
+      <c r="L179" t="n">
+        <v>1980</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1.046010101010101</v>
       </c>
     </row>
     <row r="180">
@@ -7272,22 +7843,21 @@
         <v>814.329</v>
       </c>
       <c r="G180" t="n">
+        <v>2069.6</v>
+      </c>
+      <c r="H180" t="n">
         <v>2031.933333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7311,22 +7881,21 @@
         <v>10.7233</v>
       </c>
       <c r="G181" t="n">
+        <v>2072</v>
+      </c>
+      <c r="H181" t="n">
         <v>2033.283333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7350,22 +7919,401 @@
         <v>0.1</v>
       </c>
       <c r="G182" t="n">
+        <v>2075.533333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>2034.866666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2075</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2075</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2075</v>
+      </c>
+      <c r="F183" t="n">
+        <v>327.3475</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2077.866666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2036.1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2094</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2094</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2094</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2094</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2080.466666666667</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2037.55</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2064</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2064</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2064</v>
+      </c>
+      <c r="F185" t="n">
+        <v>18.4714</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2080.666666666667</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2038.733333333333</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2075</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2075</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2060</v>
+      </c>
+      <c r="F186" t="n">
+        <v>499.7958</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2079.733333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2040.05</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2061</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2061</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2061</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2061</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24.696</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2079.733333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2040.816666666667</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2058</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2058</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2058</v>
+      </c>
+      <c r="F188" t="n">
+        <v>399.6886</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2079.266666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2041.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2043</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2043</v>
+      </c>
+      <c r="F189" t="n">
+        <v>22.7194</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2076.133333333333</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2041.916666666667</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2063</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2063</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2063</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2076</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2043</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2041</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2041</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2041</v>
+      </c>
+      <c r="F191" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2072.8</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2043.716666666667</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2050</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2041</v>
+      </c>
+      <c r="F192" t="n">
+        <v>25.0801</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2069.266666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2044.533333333333</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1960</v>
+        <v>2046</v>
       </c>
       <c r="C2" t="n">
-        <v>1955</v>
+        <v>2046</v>
       </c>
       <c r="D2" t="n">
-        <v>1960</v>
+        <v>2046</v>
       </c>
       <c r="E2" t="n">
-        <v>1955</v>
+        <v>2046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>35.1135</v>
       </c>
       <c r="G2" t="n">
-        <v>-4366.228700000001</v>
+        <v>2034.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1956</v>
+        <v>2061</v>
       </c>
       <c r="C3" t="n">
-        <v>1950</v>
+        <v>2061</v>
       </c>
       <c r="D3" t="n">
-        <v>1956</v>
+        <v>2061</v>
       </c>
       <c r="E3" t="n">
-        <v>1950</v>
+        <v>2061</v>
       </c>
       <c r="F3" t="n">
-        <v>721.8015</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>-5088.030200000001</v>
+        <v>2037.75</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1950</v>
+        <v>2043</v>
       </c>
       <c r="C4" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="D4" t="n">
-        <v>1950</v>
+        <v>2061</v>
       </c>
       <c r="E4" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="F4" t="n">
-        <v>141.748</v>
+        <v>376.9328</v>
       </c>
       <c r="G4" t="n">
-        <v>-5088.030200000001</v>
+        <v>2039.55</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="C5" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="D5" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="E5" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="F5" t="n">
-        <v>68.9701</v>
+        <v>24.1538</v>
       </c>
       <c r="G5" t="n">
-        <v>-5088.030200000001</v>
+        <v>2041.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1955</v>
+        <v>2042</v>
       </c>
       <c r="C6" t="n">
-        <v>1950</v>
+        <v>2046</v>
       </c>
       <c r="D6" t="n">
-        <v>1955</v>
+        <v>2046</v>
       </c>
       <c r="E6" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="F6" t="n">
-        <v>602.1369</v>
+        <v>269.97</v>
       </c>
       <c r="G6" t="n">
-        <v>-5088.030200000001</v>
+        <v>2042.15</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="C7" t="n">
-        <v>1950</v>
+        <v>2049</v>
       </c>
       <c r="D7" t="n">
-        <v>1950</v>
+        <v>2049</v>
       </c>
       <c r="E7" t="n">
-        <v>1950</v>
+        <v>2042</v>
       </c>
       <c r="F7" t="n">
-        <v>238.4843</v>
+        <v>219.96</v>
       </c>
       <c r="G7" t="n">
-        <v>-5088.030200000001</v>
+        <v>2043.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1951</v>
+        <v>2055</v>
       </c>
       <c r="C8" t="n">
-        <v>1953</v>
+        <v>2055</v>
       </c>
       <c r="D8" t="n">
-        <v>1953</v>
+        <v>2055</v>
       </c>
       <c r="E8" t="n">
-        <v>1951</v>
+        <v>2055</v>
       </c>
       <c r="F8" t="n">
-        <v>36.5655</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>-5051.464700000001</v>
+        <v>2044.45</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1951</v>
+        <v>2050</v>
       </c>
       <c r="C9" t="n">
-        <v>1950</v>
+        <v>2059</v>
       </c>
       <c r="D9" t="n">
-        <v>1951</v>
+        <v>2059</v>
       </c>
       <c r="E9" t="n">
-        <v>1950</v>
+        <v>2046</v>
       </c>
       <c r="F9" t="n">
-        <v>5346.285</v>
+        <v>69.5581</v>
       </c>
       <c r="G9" t="n">
-        <v>-10397.7497</v>
+        <v>2045.05</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1950</v>
+        <v>2048</v>
       </c>
       <c r="C10" t="n">
-        <v>1945</v>
+        <v>2055</v>
       </c>
       <c r="D10" t="n">
-        <v>1950</v>
+        <v>2057</v>
       </c>
       <c r="E10" t="n">
-        <v>1945</v>
+        <v>2046</v>
       </c>
       <c r="F10" t="n">
-        <v>572.7325</v>
+        <v>307.6298</v>
       </c>
       <c r="G10" t="n">
-        <v>-10970.4822</v>
+        <v>2045.75</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1950</v>
+        <v>2050</v>
       </c>
       <c r="C11" t="n">
-        <v>1955</v>
+        <v>2061</v>
       </c>
       <c r="D11" t="n">
-        <v>1955</v>
+        <v>2061</v>
       </c>
       <c r="E11" t="n">
-        <v>1946</v>
+        <v>2045</v>
       </c>
       <c r="F11" t="n">
-        <v>604.7668</v>
+        <v>662.4123</v>
       </c>
       <c r="G11" t="n">
-        <v>-10365.7154</v>
+        <v>2046.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1950</v>
+        <v>2050</v>
       </c>
       <c r="C12" t="n">
-        <v>1950</v>
+        <v>2041</v>
       </c>
       <c r="D12" t="n">
-        <v>1950</v>
+        <v>2061</v>
       </c>
       <c r="E12" t="n">
-        <v>1950</v>
+        <v>2041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>1945.7162</v>
       </c>
       <c r="G12" t="n">
-        <v>-10365.8154</v>
+        <v>2048.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1967</v>
+        <v>2041</v>
       </c>
       <c r="C13" t="n">
-        <v>1966</v>
+        <v>2058</v>
       </c>
       <c r="D13" t="n">
-        <v>1967</v>
+        <v>2061</v>
       </c>
       <c r="E13" t="n">
-        <v>1966</v>
+        <v>2032</v>
       </c>
       <c r="F13" t="n">
-        <v>253.8607</v>
+        <v>228.2932</v>
       </c>
       <c r="G13" t="n">
-        <v>-10111.9547</v>
+        <v>2048.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1963</v>
+        <v>2024</v>
       </c>
       <c r="C14" t="n">
-        <v>1981</v>
+        <v>2051</v>
       </c>
       <c r="D14" t="n">
-        <v>1981</v>
+        <v>2051</v>
       </c>
       <c r="E14" t="n">
-        <v>1963</v>
+        <v>2024</v>
       </c>
       <c r="F14" t="n">
-        <v>1797.9863</v>
+        <v>26.727</v>
       </c>
       <c r="G14" t="n">
-        <v>-8313.968400000002</v>
+        <v>2047.85</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1958</v>
+        <v>2024</v>
       </c>
       <c r="C15" t="n">
-        <v>1958</v>
+        <v>2044</v>
       </c>
       <c r="D15" t="n">
-        <v>1958</v>
+        <v>2044</v>
       </c>
       <c r="E15" t="n">
-        <v>1958</v>
+        <v>2024</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>200.7094</v>
       </c>
       <c r="G15" t="n">
-        <v>-8314.068400000002</v>
+        <v>2047.25</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1959</v>
+        <v>2024</v>
       </c>
       <c r="C16" t="n">
-        <v>1959</v>
+        <v>2040</v>
       </c>
       <c r="D16" t="n">
-        <v>1959</v>
+        <v>2040</v>
       </c>
       <c r="E16" t="n">
-        <v>1959</v>
+        <v>2024</v>
       </c>
       <c r="F16" t="n">
-        <v>798</v>
+        <v>32.398</v>
       </c>
       <c r="G16" t="n">
-        <v>-7516.068400000002</v>
+        <v>2045.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1960</v>
+        <v>2025</v>
       </c>
       <c r="C17" t="n">
-        <v>1960</v>
+        <v>2039</v>
       </c>
       <c r="D17" t="n">
-        <v>1960</v>
+        <v>2039</v>
       </c>
       <c r="E17" t="n">
-        <v>1960</v>
+        <v>2025</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7172</v>
+        <v>54.4027</v>
       </c>
       <c r="G17" t="n">
-        <v>-7514.351200000002</v>
+        <v>2043.75</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1985</v>
+        <v>2025</v>
       </c>
       <c r="C18" t="n">
-        <v>1985</v>
+        <v>2028</v>
       </c>
       <c r="D18" t="n">
-        <v>1985</v>
+        <v>2028</v>
       </c>
       <c r="E18" t="n">
-        <v>1985</v>
+        <v>2025</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>31.2377</v>
       </c>
       <c r="G18" t="n">
-        <v>-7514.251200000002</v>
+        <v>2042.75</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1985</v>
+        <v>2029</v>
       </c>
       <c r="C19" t="n">
-        <v>1966</v>
+        <v>2024</v>
       </c>
       <c r="D19" t="n">
-        <v>1990</v>
+        <v>2029</v>
       </c>
       <c r="E19" t="n">
-        <v>1966</v>
+        <v>2024</v>
       </c>
       <c r="F19" t="n">
-        <v>92.48083717999999</v>
+        <v>24.9043</v>
       </c>
       <c r="G19" t="n">
-        <v>-7606.732037180001</v>
+        <v>2041.95</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1993</v>
+        <v>2030</v>
       </c>
       <c r="C20" t="n">
-        <v>1996</v>
+        <v>2030</v>
       </c>
       <c r="D20" t="n">
-        <v>1996</v>
+        <v>2030</v>
       </c>
       <c r="E20" t="n">
-        <v>1993</v>
+        <v>2030</v>
       </c>
       <c r="F20" t="n">
-        <v>500.2</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>-7106.532037180002</v>
+        <v>2040.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1996</v>
+        <v>2027</v>
       </c>
       <c r="C21" t="n">
-        <v>1997</v>
+        <v>2038</v>
       </c>
       <c r="D21" t="n">
-        <v>1997</v>
+        <v>2042</v>
       </c>
       <c r="E21" t="n">
-        <v>1996</v>
+        <v>2024</v>
       </c>
       <c r="F21" t="n">
-        <v>1300</v>
+        <v>413.6985</v>
       </c>
       <c r="G21" t="n">
-        <v>-5806.532037180002</v>
+        <v>2038.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1997</v>
+        <v>2025</v>
       </c>
       <c r="C22" t="n">
-        <v>1997</v>
+        <v>2035</v>
       </c>
       <c r="D22" t="n">
-        <v>1997</v>
+        <v>2035</v>
       </c>
       <c r="E22" t="n">
-        <v>1997</v>
+        <v>2025</v>
       </c>
       <c r="F22" t="n">
-        <v>43.0981</v>
+        <v>19.05</v>
       </c>
       <c r="G22" t="n">
-        <v>-5806.532037180002</v>
+        <v>2037.85</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1997</v>
+        <v>2024</v>
       </c>
       <c r="C23" t="n">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="D23" t="n">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="E23" t="n">
-        <v>1997</v>
+        <v>2024</v>
       </c>
       <c r="F23" t="n">
-        <v>64</v>
+        <v>15.8526</v>
       </c>
       <c r="G23" t="n">
-        <v>-5742.532037180002</v>
+        <v>2036</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="n">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="D24" t="n">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="E24" t="n">
-        <v>1999</v>
+        <v>2024</v>
       </c>
       <c r="F24" t="n">
-        <v>1191.1452</v>
+        <v>606.9181</v>
       </c>
       <c r="G24" t="n">
-        <v>-5742.532037180002</v>
+        <v>2035.05</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2000</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="n">
-        <v>2005</v>
+        <v>2040</v>
       </c>
       <c r="D25" t="n">
-        <v>2005</v>
+        <v>2040</v>
       </c>
       <c r="E25" t="n">
-        <v>2000</v>
+        <v>2040</v>
       </c>
       <c r="F25" t="n">
-        <v>36.1</v>
+        <v>0.11</v>
       </c>
       <c r="G25" t="n">
-        <v>-5706.432037180001</v>
+        <v>2034.95</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="D26" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="E26" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>1142.75</v>
       </c>
       <c r="G26" t="n">
-        <v>-5706.332037180001</v>
+        <v>2033.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C27" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="D27" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="E27" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="F27" t="n">
-        <v>23.8865</v>
+        <v>35.59</v>
       </c>
       <c r="G27" t="n">
-        <v>-5706.332037180001</v>
+        <v>2032.85</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C28" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="E28" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F28" t="n">
-        <v>39.5417</v>
+        <v>36</v>
       </c>
       <c r="G28" t="n">
-        <v>-5666.790337180001</v>
+        <v>2031.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C29" t="n">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="E29" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F29" t="n">
-        <v>763.761</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>-4903.029337180002</v>
+        <v>2029.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="C30" t="n">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="D30" t="n">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E30" t="n">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>163.0474</v>
       </c>
       <c r="G30" t="n">
-        <v>-4902.929337180001</v>
+        <v>2028.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="n">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="D31" t="n">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="E31" t="n">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-4902.829337180001</v>
+        <v>2026.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="C32" t="n">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="D32" t="n">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="E32" t="n">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="F32" t="n">
-        <v>220.8773</v>
+        <v>152.9853</v>
       </c>
       <c r="G32" t="n">
-        <v>-5123.706637180001</v>
+        <v>2025.35</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="C33" t="n">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="D33" t="n">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="E33" t="n">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="F33" t="n">
-        <v>220.9862</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>-5344.692837180001</v>
+        <v>2024.75</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C34" t="n">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D34" t="n">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="E34" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="F34" t="n">
-        <v>25.1831</v>
+        <v>224.0078</v>
       </c>
       <c r="G34" t="n">
-        <v>-5369.875937180002</v>
+        <v>2025.05</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2035</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="n">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="n">
-        <v>2035</v>
+        <v>2019</v>
       </c>
       <c r="E35" t="n">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1648</v>
+        <v>340</v>
       </c>
       <c r="G35" t="n">
-        <v>-5369.711137180002</v>
+        <v>2024.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="C36" t="n">
-        <v>2050</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="n">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="E36" t="n">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="F36" t="n">
-        <v>850.2483999999999</v>
+        <v>39.9131</v>
       </c>
       <c r="G36" t="n">
-        <v>-4519.462737180002</v>
+        <v>2024.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2036</v>
+        <v>2022</v>
       </c>
       <c r="C37" t="n">
-        <v>2052</v>
+        <v>2023</v>
       </c>
       <c r="D37" t="n">
-        <v>2052</v>
+        <v>2023</v>
       </c>
       <c r="E37" t="n">
-        <v>2036</v>
+        <v>2022</v>
       </c>
       <c r="F37" t="n">
-        <v>13.6514</v>
+        <v>0.2</v>
       </c>
       <c r="G37" t="n">
-        <v>-4505.811337180002</v>
+        <v>2024.65</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2061</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="n">
-        <v>2061</v>
+        <v>2019</v>
       </c>
       <c r="D38" t="n">
-        <v>2061</v>
+        <v>2019</v>
       </c>
       <c r="E38" t="n">
-        <v>2061</v>
+        <v>2019</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1</v>
+        <v>18.776</v>
       </c>
       <c r="G38" t="n">
-        <v>-4505.711337180001</v>
+        <v>2024.35</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2058</v>
+        <v>2020</v>
       </c>
       <c r="C39" t="n">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="E39" t="n">
-        <v>2058</v>
+        <v>2020</v>
       </c>
       <c r="F39" t="n">
-        <v>1368.2107</v>
+        <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>-5873.922037180002</v>
+        <v>2023.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2045</v>
+        <v>2019</v>
       </c>
       <c r="C40" t="n">
-        <v>2060</v>
+        <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>2060</v>
+        <v>2019</v>
       </c>
       <c r="E40" t="n">
-        <v>2045</v>
+        <v>2015</v>
       </c>
       <c r="F40" t="n">
-        <v>32.1281</v>
+        <v>60.6688</v>
       </c>
       <c r="G40" t="n">
-        <v>-5873.922037180002</v>
+        <v>2023.35</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="C41" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="E41" t="n">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="F41" t="n">
-        <v>18.9889</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>-5892.910937180002</v>
+        <v>2023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2059</v>
+        <v>2014</v>
       </c>
       <c r="C42" t="n">
-        <v>2059</v>
+        <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>2059</v>
+        <v>2020</v>
       </c>
       <c r="E42" t="n">
-        <v>2059</v>
+        <v>2013</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>501.0881</v>
       </c>
       <c r="G42" t="n">
-        <v>-5892.810937180002</v>
+        <v>2022.45</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2059</v>
+        <v>2019</v>
       </c>
       <c r="C43" t="n">
-        <v>2047</v>
+        <v>2019</v>
       </c>
       <c r="D43" t="n">
-        <v>2060</v>
+        <v>2019</v>
       </c>
       <c r="E43" t="n">
-        <v>2046</v>
+        <v>2019</v>
       </c>
       <c r="F43" t="n">
-        <v>1664.8941</v>
+        <v>19.0569</v>
       </c>
       <c r="G43" t="n">
-        <v>-7557.705037180001</v>
+        <v>2022.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="C44" t="n">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="E44" t="n">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="F44" t="n">
-        <v>35.1135</v>
+        <v>34.02</v>
       </c>
       <c r="G44" t="n">
-        <v>-7592.818537180002</v>
+        <v>2022</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2061</v>
+        <v>2020</v>
       </c>
       <c r="C45" t="n">
-        <v>2061</v>
+        <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>2061</v>
+        <v>2020</v>
       </c>
       <c r="E45" t="n">
-        <v>2061</v>
+        <v>2020</v>
       </c>
       <c r="F45" t="n">
-        <v>0.11</v>
+        <v>204.8148</v>
       </c>
       <c r="G45" t="n">
-        <v>-7592.708537180002</v>
+        <v>2021</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="C46" t="n">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="D46" t="n">
-        <v>2061</v>
+        <v>2030</v>
       </c>
       <c r="E46" t="n">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9328</v>
+        <v>0.111</v>
       </c>
       <c r="G46" t="n">
-        <v>-7969.641337180002</v>
+        <v>2021.45</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2042</v>
+        <v>2020</v>
       </c>
       <c r="C47" t="n">
-        <v>2042</v>
+        <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>2042</v>
+        <v>2020</v>
       </c>
       <c r="E47" t="n">
-        <v>2042</v>
+        <v>2020</v>
       </c>
       <c r="F47" t="n">
-        <v>24.1538</v>
+        <v>766.5529</v>
       </c>
       <c r="G47" t="n">
-        <v>-7969.641337180002</v>
+        <v>2021.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2042</v>
+        <v>2019</v>
       </c>
       <c r="C48" t="n">
-        <v>2046</v>
+        <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>2046</v>
+        <v>2019</v>
       </c>
       <c r="E48" t="n">
-        <v>2042</v>
+        <v>2015</v>
       </c>
       <c r="F48" t="n">
-        <v>269.97</v>
+        <v>598.1376</v>
       </c>
       <c r="G48" t="n">
-        <v>-7699.671337180002</v>
+        <v>2021.35</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="C49" t="n">
-        <v>2049</v>
+        <v>2027</v>
       </c>
       <c r="D49" t="n">
-        <v>2049</v>
+        <v>2027</v>
       </c>
       <c r="E49" t="n">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="F49" t="n">
-        <v>219.96</v>
+        <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>-7479.711337180001</v>
+        <v>2021.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="C50" t="n">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="D50" t="n">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="E50" t="n">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="F50" t="n">
         <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>-7479.611337180001</v>
+        <v>2022.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2050</v>
+        <v>2029</v>
       </c>
       <c r="C51" t="n">
-        <v>2059</v>
+        <v>2030</v>
       </c>
       <c r="D51" t="n">
-        <v>2059</v>
+        <v>2030</v>
       </c>
       <c r="E51" t="n">
-        <v>2046</v>
+        <v>2029</v>
       </c>
       <c r="F51" t="n">
-        <v>69.5581</v>
+        <v>217.161</v>
       </c>
       <c r="G51" t="n">
-        <v>-7410.053237180001</v>
+        <v>2022.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2048</v>
+        <v>2030</v>
       </c>
       <c r="C52" t="n">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="D52" t="n">
-        <v>2057</v>
+        <v>2040</v>
       </c>
       <c r="E52" t="n">
-        <v>2046</v>
+        <v>2030</v>
       </c>
       <c r="F52" t="n">
-        <v>307.6298</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n">
-        <v>-7717.683037180001</v>
+        <v>2022.95</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2050</v>
+        <v>2031</v>
       </c>
       <c r="C53" t="n">
-        <v>2061</v>
+        <v>2031</v>
       </c>
       <c r="D53" t="n">
-        <v>2061</v>
+        <v>2031</v>
       </c>
       <c r="E53" t="n">
-        <v>2045</v>
+        <v>2031</v>
       </c>
       <c r="F53" t="n">
-        <v>662.4123</v>
+        <v>523.3094</v>
       </c>
       <c r="G53" t="n">
-        <v>-7055.270737180001</v>
+        <v>2023.05</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="C54" t="n">
-        <v>2041</v>
+        <v>2019</v>
       </c>
       <c r="D54" t="n">
-        <v>2061</v>
+        <v>2019</v>
       </c>
       <c r="E54" t="n">
-        <v>2041</v>
+        <v>2019</v>
       </c>
       <c r="F54" t="n">
-        <v>1945.7162</v>
+        <v>48</v>
       </c>
       <c r="G54" t="n">
-        <v>-9000.986937180001</v>
+        <v>2022.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2041</v>
+        <v>2025</v>
       </c>
       <c r="C55" t="n">
-        <v>2058</v>
+        <v>2025</v>
       </c>
       <c r="D55" t="n">
-        <v>2061</v>
+        <v>2025</v>
       </c>
       <c r="E55" t="n">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="F55" t="n">
-        <v>228.2932</v>
+        <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>-8772.693737180001</v>
+        <v>2022.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,63 +2375,69 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="C56" t="n">
-        <v>2051</v>
+        <v>2027</v>
       </c>
       <c r="D56" t="n">
-        <v>2051</v>
+        <v>2027</v>
       </c>
       <c r="E56" t="n">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="F56" t="n">
-        <v>26.727</v>
+        <v>0.1</v>
       </c>
       <c r="G56" t="n">
-        <v>-8799.420737180002</v>
+        <v>2022.95</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2025</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="C57" t="n">
-        <v>2044</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>2044</v>
+        <v>2014</v>
       </c>
       <c r="E57" t="n">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="F57" t="n">
-        <v>200.7094</v>
+        <v>23.0874</v>
       </c>
       <c r="G57" t="n">
-        <v>-9000.130137180002</v>
+        <v>2022.55</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,873 +2446,1092 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C58" t="n">
-        <v>2040</v>
+        <v>2013</v>
       </c>
       <c r="D58" t="n">
-        <v>2040</v>
+        <v>2013</v>
       </c>
       <c r="E58" t="n">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="F58" t="n">
-        <v>32.398</v>
+        <v>223.4478</v>
       </c>
       <c r="G58" t="n">
-        <v>-9032.528137180001</v>
+        <v>2022.25</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C59" t="n">
-        <v>2039</v>
+        <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>2039</v>
+        <v>2020</v>
       </c>
       <c r="E59" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F59" t="n">
-        <v>54.4027</v>
+        <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>-9086.930837180002</v>
+        <v>2022.25</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2013</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2025</v>
+        <v>2007</v>
       </c>
       <c r="C60" t="n">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="D60" t="n">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="E60" t="n">
-        <v>2025</v>
+        <v>2007</v>
       </c>
       <c r="F60" t="n">
-        <v>31.2377</v>
+        <v>33.3848</v>
       </c>
       <c r="G60" t="n">
-        <v>-9118.168537180001</v>
+        <v>2021.65</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="C61" t="n">
-        <v>2024</v>
+        <v>2006</v>
       </c>
       <c r="D61" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="E61" t="n">
-        <v>2024</v>
+        <v>2006</v>
       </c>
       <c r="F61" t="n">
-        <v>24.9043</v>
+        <v>2.0716</v>
       </c>
       <c r="G61" t="n">
-        <v>-9143.072837180001</v>
+        <v>2021.6</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="C62" t="n">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="D62" t="n">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="E62" t="n">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>-9142.972837180001</v>
+        <v>2021.75</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2027</v>
+        <v>2000</v>
       </c>
       <c r="C63" t="n">
-        <v>2038</v>
+        <v>2000</v>
       </c>
       <c r="D63" t="n">
-        <v>2042</v>
+        <v>2000</v>
       </c>
       <c r="E63" t="n">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="F63" t="n">
-        <v>413.6985</v>
+        <v>38.5051</v>
       </c>
       <c r="G63" t="n">
-        <v>-8729.274337180001</v>
+        <v>2020.8</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="C64" t="n">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="D64" t="n">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="E64" t="n">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="F64" t="n">
-        <v>19.05</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>-8748.32433718</v>
+        <v>2020.7</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="C65" t="n">
-        <v>2024</v>
+        <v>1993</v>
       </c>
       <c r="D65" t="n">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="E65" t="n">
-        <v>2024</v>
+        <v>1993</v>
       </c>
       <c r="F65" t="n">
-        <v>15.8526</v>
+        <v>80.821</v>
       </c>
       <c r="G65" t="n">
-        <v>-8764.17693718</v>
+        <v>2019.7</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2018</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="C66" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="E66" t="n">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="F66" t="n">
-        <v>606.9181</v>
+        <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>-8764.17693718</v>
+        <v>2018.95</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1993</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2040</v>
+        <v>1980</v>
       </c>
       <c r="C67" t="n">
-        <v>2040</v>
+        <v>1980</v>
       </c>
       <c r="D67" t="n">
-        <v>2040</v>
+        <v>1980</v>
       </c>
       <c r="E67" t="n">
-        <v>2040</v>
+        <v>1980</v>
       </c>
       <c r="F67" t="n">
-        <v>0.11</v>
+        <v>13.5461</v>
       </c>
       <c r="G67" t="n">
-        <v>-8764.06693718</v>
+        <v>2016.95</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="C68" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="D68" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="E68" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="F68" t="n">
-        <v>1142.75</v>
+        <v>0.6005</v>
       </c>
       <c r="G68" t="n">
-        <v>-9906.81693718</v>
+        <v>2015.05</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1980</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="C69" t="n">
-        <v>2021</v>
+        <v>1980</v>
       </c>
       <c r="D69" t="n">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="E69" t="n">
-        <v>2021</v>
+        <v>1980</v>
       </c>
       <c r="F69" t="n">
-        <v>35.59</v>
+        <v>166.948</v>
       </c>
       <c r="G69" t="n">
-        <v>-9906.81693718</v>
+        <v>2013.35</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1981</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2020</v>
+        <v>1988</v>
       </c>
       <c r="C70" t="n">
-        <v>2020</v>
+        <v>1988</v>
       </c>
       <c r="D70" t="n">
-        <v>2020</v>
+        <v>1988</v>
       </c>
       <c r="E70" t="n">
-        <v>2020</v>
+        <v>1988</v>
       </c>
       <c r="F70" t="n">
-        <v>36</v>
+        <v>15.8983</v>
       </c>
       <c r="G70" t="n">
-        <v>-9942.81693718</v>
+        <v>2011.3</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1980</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2020</v>
+        <v>1986</v>
       </c>
       <c r="C71" t="n">
-        <v>2020</v>
+        <v>1986</v>
       </c>
       <c r="D71" t="n">
-        <v>2020</v>
+        <v>1986</v>
       </c>
       <c r="E71" t="n">
-        <v>2020</v>
+        <v>1986</v>
       </c>
       <c r="F71" t="n">
-        <v>19</v>
+        <v>17.89</v>
       </c>
       <c r="G71" t="n">
-        <v>-9942.81693718</v>
+        <v>2009.15</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1988</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2021</v>
+        <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>2021</v>
+        <v>1992</v>
       </c>
       <c r="D72" t="n">
-        <v>2021</v>
+        <v>1992</v>
       </c>
       <c r="E72" t="n">
-        <v>2021</v>
+        <v>1992</v>
       </c>
       <c r="F72" t="n">
-        <v>163.0474</v>
+        <v>0.2</v>
       </c>
       <c r="G72" t="n">
-        <v>-9779.76953718</v>
+        <v>2007.25</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1986</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="C73" t="n">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="D73" t="n">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="E73" t="n">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="F73" t="n">
-        <v>71.76000000000001</v>
+        <v>8.5703</v>
       </c>
       <c r="G73" t="n">
-        <v>-9779.76953718</v>
+        <v>2005.45</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="C74" t="n">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="D74" t="n">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="E74" t="n">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="F74" t="n">
-        <v>152.9853</v>
+        <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>-9779.76953718</v>
+        <v>2004.35</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1995</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2029</v>
+        <v>1985</v>
       </c>
       <c r="C75" t="n">
-        <v>2029</v>
+        <v>1985</v>
       </c>
       <c r="D75" t="n">
-        <v>2029</v>
+        <v>1985</v>
       </c>
       <c r="E75" t="n">
-        <v>2029</v>
+        <v>1985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1</v>
+        <v>30.1631</v>
       </c>
       <c r="G75" t="n">
-        <v>-9779.66953718</v>
+        <v>2002.35</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1997</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2030</v>
+        <v>1998</v>
       </c>
       <c r="C76" t="n">
-        <v>2031</v>
+        <v>1998</v>
       </c>
       <c r="D76" t="n">
-        <v>2031</v>
+        <v>1998</v>
       </c>
       <c r="E76" t="n">
-        <v>2030</v>
+        <v>1998</v>
       </c>
       <c r="F76" t="n">
-        <v>224.0078</v>
+        <v>356.8721</v>
       </c>
       <c r="G76" t="n">
-        <v>-9555.66173718</v>
+        <v>2000.9</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1985</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="C77" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E77" t="n">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="F77" t="n">
-        <v>340</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>-9895.66173718</v>
+        <v>2000.2</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1998</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="C78" t="n">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="D78" t="n">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="E78" t="n">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="F78" t="n">
-        <v>39.9131</v>
+        <v>471.5122</v>
       </c>
       <c r="G78" t="n">
-        <v>-9895.66173718</v>
+        <v>1999.55</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="C79" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="E79" t="n">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2</v>
+        <v>19.2975</v>
       </c>
       <c r="G79" t="n">
-        <v>-9895.46173718</v>
+        <v>1999.25</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1990</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C80" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E80" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F80" t="n">
-        <v>18.776</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>-9914.237737179999</v>
+        <v>1999.65</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2014</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C81" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D81" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E81" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1</v>
+        <v>236.1874</v>
       </c>
       <c r="G81" t="n">
-        <v>-9914.137737179999</v>
+        <v>1999.45</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C82" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E82" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="F82" t="n">
-        <v>60.6688</v>
+        <v>0.1</v>
       </c>
       <c r="G82" t="n">
-        <v>-9974.806537179998</v>
+        <v>1999.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,11 +3540,18 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3280,10 +3570,10 @@
         <v>2020</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1</v>
+        <v>318.3823</v>
       </c>
       <c r="G83" t="n">
-        <v>-9974.706537179998</v>
+        <v>2000.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3582,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="C84" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D84" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E84" t="n">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="F84" t="n">
-        <v>501.0881</v>
+        <v>0.11</v>
       </c>
       <c r="G84" t="n">
-        <v>-9974.706537179998</v>
+        <v>2000.85</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3624,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C85" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D85" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E85" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="F85" t="n">
-        <v>19.0569</v>
+        <v>807.8918</v>
       </c>
       <c r="G85" t="n">
-        <v>-9993.763437179998</v>
+        <v>2002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,11 +3666,18 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3385,10 +3696,10 @@
         <v>2020</v>
       </c>
       <c r="F86" t="n">
-        <v>34.02</v>
+        <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>-9959.743437179997</v>
+        <v>2002.25</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3708,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="C87" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D87" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E87" t="n">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="F87" t="n">
-        <v>204.8148</v>
+        <v>13.0398</v>
       </c>
       <c r="G87" t="n">
-        <v>-9959.743437179997</v>
+        <v>2003.45</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3750,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2030</v>
+        <v>2006</v>
       </c>
       <c r="C88" t="n">
-        <v>2030</v>
+        <v>2006</v>
       </c>
       <c r="D88" t="n">
-        <v>2030</v>
+        <v>2006</v>
       </c>
       <c r="E88" t="n">
-        <v>2030</v>
+        <v>2006</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111</v>
+        <v>58.1395</v>
       </c>
       <c r="G88" t="n">
-        <v>-9959.632437179996</v>
+        <v>2004.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +3792,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="C89" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="D89" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="E89" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="F89" t="n">
-        <v>766.5529</v>
+        <v>29.0698</v>
       </c>
       <c r="G89" t="n">
-        <v>-10726.18533718</v>
+        <v>2005.35</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +3834,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C90" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D90" t="n">
         <v>2015</v>
       </c>
-      <c r="D90" t="n">
-        <v>2019</v>
-      </c>
       <c r="E90" t="n">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="F90" t="n">
-        <v>598.1376</v>
+        <v>16.1204</v>
       </c>
       <c r="G90" t="n">
-        <v>-11324.32293718</v>
+        <v>2006.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +3876,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="C91" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="D91" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E91" t="n">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="F91" t="n">
         <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>-11324.22293718</v>
+        <v>2008.45</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3918,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="C92" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="D92" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="E92" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1</v>
+        <v>62.308</v>
       </c>
       <c r="G92" t="n">
-        <v>-11324.12293718</v>
+        <v>2009.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3960,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="C93" t="n">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="D93" t="n">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="E93" t="n">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="F93" t="n">
-        <v>217.161</v>
+        <v>9.442299999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-11106.96193718</v>
+        <v>2011.15</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +4002,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="C94" t="n">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="D94" t="n">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="E94" t="n">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="G94" t="n">
-        <v>-11076.96193718</v>
+        <v>2012.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +4044,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="C95" t="n">
-        <v>2031</v>
+        <v>2008</v>
       </c>
       <c r="D95" t="n">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="E95" t="n">
-        <v>2031</v>
+        <v>2008</v>
       </c>
       <c r="F95" t="n">
-        <v>523.3094</v>
+        <v>19.1792</v>
       </c>
       <c r="G95" t="n">
-        <v>-11600.27133718</v>
+        <v>2013.75</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,11 +4086,18 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3726,19 +4107,19 @@
         <v>2019</v>
       </c>
       <c r="C96" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D96" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E96" t="n">
         <v>2019</v>
       </c>
       <c r="F96" t="n">
-        <v>48</v>
+        <v>0.2</v>
       </c>
       <c r="G96" t="n">
-        <v>-11648.27133718</v>
+        <v>2014.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +4128,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="C97" t="n">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="E97" t="n">
-        <v>2025</v>
+        <v>1995</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>6271.1372</v>
       </c>
       <c r="G97" t="n">
-        <v>-11648.17133718</v>
+        <v>2015.05</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +4170,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2027</v>
+        <v>1996</v>
       </c>
       <c r="C98" t="n">
-        <v>2027</v>
+        <v>1996</v>
       </c>
       <c r="D98" t="n">
-        <v>2027</v>
+        <v>1996</v>
       </c>
       <c r="E98" t="n">
-        <v>2027</v>
+        <v>1996</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>2993.2085</v>
       </c>
       <c r="G98" t="n">
-        <v>-11648.07133718</v>
+        <v>2014.85</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +4212,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="C99" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D99" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="E99" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F99" t="n">
-        <v>23.0874</v>
+        <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>-11671.15873718</v>
+        <v>2014.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,33 +4254,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C100" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="D100" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E100" t="n">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="F100" t="n">
-        <v>223.4478</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>-11894.60653718</v>
+        <v>2013.85</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,33 +4296,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="C101" t="n">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="D101" t="n">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="E101" t="n">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1</v>
+        <v>219.6958</v>
       </c>
       <c r="G101" t="n">
-        <v>-11894.50653718</v>
+        <v>2013.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4338,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C102" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D102" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E102" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F102" t="n">
-        <v>33.3848</v>
+        <v>49.77600796</v>
       </c>
       <c r="G102" t="n">
-        <v>-11927.89133718</v>
+        <v>2012.65</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4380,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C103" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D103" t="n">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="E103" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F103" t="n">
-        <v>2.0716</v>
+        <v>290</v>
       </c>
       <c r="G103" t="n">
-        <v>-11929.96293717999</v>
+        <v>2012</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4422,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="C104" t="n">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="D104" t="n">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E104" t="n">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1</v>
+        <v>769.2939</v>
       </c>
       <c r="G104" t="n">
-        <v>-11929.86293717999</v>
+        <v>2010.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4464,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="C105" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="D105" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="E105" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="F105" t="n">
-        <v>38.5051</v>
+        <v>0.11</v>
       </c>
       <c r="G105" t="n">
-        <v>-11968.36803717999</v>
+        <v>2010.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4506,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C106" t="n">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="D106" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E106" t="n">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1</v>
+        <v>190.2173</v>
       </c>
       <c r="G106" t="n">
-        <v>-11968.26803717999</v>
+        <v>2009.55</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4548,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="C107" t="n">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="D107" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="E107" t="n">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="F107" t="n">
-        <v>80.821</v>
+        <v>0.1</v>
       </c>
       <c r="G107" t="n">
-        <v>-12049.08903717999</v>
+        <v>2009.95</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,113 +4590,126 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="C108" t="n">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="D108" t="n">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="E108" t="n">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1</v>
+        <v>13.5917</v>
       </c>
       <c r="G108" t="n">
-        <v>-12048.98903717999</v>
+        <v>2009.4</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1993</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
+        <v>2013</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="C109" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="D109" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="E109" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="F109" t="n">
-        <v>13.5461</v>
+        <v>31.4595</v>
       </c>
       <c r="G109" t="n">
-        <v>-12062.53513717999</v>
+        <v>2009</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1995</v>
+      </c>
       <c r="K109" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="C110" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="D110" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="E110" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6005</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>-12061.93463717999</v>
+        <v>2008.3</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4247,41 +4718,42 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="K110" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="C111" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="D111" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="E111" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="F111" t="n">
-        <v>166.948</v>
+        <v>0.1</v>
       </c>
       <c r="G111" t="n">
-        <v>-12228.88263717999</v>
+        <v>2007.6</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4290,41 +4762,42 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="K111" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="C112" t="n">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="D112" t="n">
-        <v>1988</v>
+        <v>2047</v>
       </c>
       <c r="E112" t="n">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="F112" t="n">
-        <v>15.8983</v>
+        <v>2816.1937</v>
       </c>
       <c r="G112" t="n">
-        <v>-12212.98433717999</v>
+        <v>2006.95</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4333,10 +4806,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="K112" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4346,40 +4819,39 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="C113" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="D113" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="E113" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="F113" t="n">
-        <v>17.89</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-12230.87433717999</v>
+        <v>2005.65</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1988</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4389,28 +4861,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="C114" t="n">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="E114" t="n">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>-12230.67433717999</v>
+        <v>2005.2</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4419,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="K114" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4432,28 +4905,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="C115" t="n">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="D115" t="n">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="E115" t="n">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="F115" t="n">
-        <v>8.5703</v>
+        <v>0.1</v>
       </c>
       <c r="G115" t="n">
-        <v>-12222.10403717999</v>
+        <v>2005.55</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4462,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="K115" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4475,40 +4949,39 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="C116" t="n">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="D116" t="n">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="E116" t="n">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-12222.00403717999</v>
+        <v>2005.5</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1995</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4518,40 +4991,39 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="C117" t="n">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="D117" t="n">
-        <v>1985</v>
+        <v>2000</v>
       </c>
       <c r="E117" t="n">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="F117" t="n">
-        <v>30.1631</v>
+        <v>40.386</v>
       </c>
       <c r="G117" t="n">
-        <v>-12252.16713717999</v>
+        <v>2005.25</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1997</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4561,6 +5033,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4579,22 +5052,20 @@
         <v>1998</v>
       </c>
       <c r="F118" t="n">
-        <v>356.8721</v>
+        <v>10.3863</v>
       </c>
       <c r="G118" t="n">
-        <v>-11895.29503717999</v>
+        <v>2005.35</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1985</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4604,40 +5075,39 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C119" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="D119" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E119" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1</v>
+        <v>290.9721</v>
       </c>
       <c r="G119" t="n">
-        <v>-11895.19503717999</v>
+        <v>2004.7</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4647,28 +5117,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="C120" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D120" t="n">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="E120" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="F120" t="n">
-        <v>471.5122</v>
+        <v>374.9999</v>
       </c>
       <c r="G120" t="n">
-        <v>-12366.70723717999</v>
+        <v>2003.95</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4677,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K120" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4690,28 +5161,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="C121" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D121" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="E121" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F121" t="n">
-        <v>19.2975</v>
+        <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>-12347.40973717999</v>
+        <v>2004.15</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4720,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="K121" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4733,28 +5205,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D122" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E122" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F122" t="n">
         <v>0.1</v>
       </c>
       <c r="G122" t="n">
-        <v>-12347.30973717999</v>
+        <v>2004.4</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4763,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="K122" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4776,38 +5249,41 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C123" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D123" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="E123" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F123" t="n">
-        <v>236.1874</v>
+        <v>517.9582</v>
       </c>
       <c r="G123" t="n">
-        <v>-12583.49713717999</v>
+        <v>2004.05</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2014</v>
+      </c>
       <c r="K123" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4817,38 +5293,41 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C124" t="n">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D124" t="n">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E124" t="n">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="F124" t="n">
         <v>0.1</v>
       </c>
       <c r="G124" t="n">
-        <v>-12583.39713717999</v>
+        <v>2004.65</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2000</v>
+      </c>
       <c r="K124" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4858,38 +5337,41 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="C125" t="n">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E125" t="n">
-        <v>2020</v>
+        <v>1990</v>
       </c>
       <c r="F125" t="n">
-        <v>318.3823</v>
+        <v>2912.9563</v>
       </c>
       <c r="G125" t="n">
-        <v>-12583.39713717999</v>
+        <v>2004.15</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2009</v>
+      </c>
       <c r="K125" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4899,28 +5381,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="C126" t="n">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="D126" t="n">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="E126" t="n">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="F126" t="n">
-        <v>0.11</v>
+        <v>230</v>
       </c>
       <c r="G126" t="n">
-        <v>-12583.28713717999</v>
+        <v>2004.15</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4930,7 +5413,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4940,28 +5423,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C127" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D127" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="E127" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F127" t="n">
-        <v>807.8918</v>
+        <v>15.96</v>
       </c>
       <c r="G127" t="n">
-        <v>-13391.17893717999</v>
+        <v>2003.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4971,7 +5455,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4981,38 +5465,41 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="C128" t="n">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="D128" t="n">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="E128" t="n">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>-13391.07893717999</v>
+        <v>2005.05</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1999</v>
+      </c>
       <c r="K128" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5022,28 +5509,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2004</v>
+        <v>2034</v>
       </c>
       <c r="C129" t="n">
-        <v>2023</v>
+        <v>2036</v>
       </c>
       <c r="D129" t="n">
-        <v>2023</v>
+        <v>2036</v>
       </c>
       <c r="E129" t="n">
-        <v>2004</v>
+        <v>2034</v>
       </c>
       <c r="F129" t="n">
-        <v>13.0398</v>
+        <v>366.9389</v>
       </c>
       <c r="G129" t="n">
-        <v>-13378.03913717999</v>
+        <v>2006.85</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5053,7 +5541,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5063,28 +5551,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2006</v>
+        <v>2036</v>
       </c>
       <c r="C130" t="n">
-        <v>2006</v>
+        <v>2036</v>
       </c>
       <c r="D130" t="n">
-        <v>2006</v>
+        <v>2036</v>
       </c>
       <c r="E130" t="n">
-        <v>2006</v>
+        <v>2036</v>
       </c>
       <c r="F130" t="n">
-        <v>58.1395</v>
+        <v>144.5616</v>
       </c>
       <c r="G130" t="n">
-        <v>-13436.17863717999</v>
+        <v>2008.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5094,7 +5583,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5104,28 +5593,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2006</v>
+        <v>2034</v>
       </c>
       <c r="C131" t="n">
-        <v>2006</v>
+        <v>2034</v>
       </c>
       <c r="D131" t="n">
-        <v>2006</v>
+        <v>2034</v>
       </c>
       <c r="E131" t="n">
-        <v>2006</v>
+        <v>2034</v>
       </c>
       <c r="F131" t="n">
-        <v>29.0698</v>
+        <v>75.25279999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-13436.17863717999</v>
+        <v>2009.95</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5135,7 +5625,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5145,28 +5635,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2015</v>
+        <v>2045</v>
       </c>
       <c r="C132" t="n">
-        <v>2004</v>
+        <v>2049</v>
       </c>
       <c r="D132" t="n">
-        <v>2015</v>
+        <v>2049</v>
       </c>
       <c r="E132" t="n">
-        <v>2004</v>
+        <v>2045</v>
       </c>
       <c r="F132" t="n">
-        <v>16.1204</v>
+        <v>374.9999</v>
       </c>
       <c r="G132" t="n">
-        <v>-13452.29903717999</v>
+        <v>2011.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5176,7 +5667,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5186,28 +5677,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="C133" t="n">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="D133" t="n">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="E133" t="n">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1</v>
+        <v>18.4074</v>
       </c>
       <c r="G133" t="n">
-        <v>-13452.19903717999</v>
+        <v>2013.95</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5217,7 +5709,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5227,28 +5719,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2019</v>
+        <v>2045</v>
       </c>
       <c r="C134" t="n">
-        <v>2019</v>
+        <v>2045</v>
       </c>
       <c r="D134" t="n">
-        <v>2019</v>
+        <v>2045</v>
       </c>
       <c r="E134" t="n">
-        <v>2019</v>
+        <v>2045</v>
       </c>
       <c r="F134" t="n">
-        <v>62.308</v>
+        <v>142.5054</v>
       </c>
       <c r="G134" t="n">
-        <v>-13514.50703717999</v>
+        <v>2015.45</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5258,7 +5751,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5268,28 +5761,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="C135" t="n">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="D135" t="n">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E135" t="n">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="F135" t="n">
-        <v>9.442299999999999</v>
+        <v>11.0143</v>
       </c>
       <c r="G135" t="n">
-        <v>-13505.06473717999</v>
+        <v>2016.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5299,7 +5793,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5309,28 +5803,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="C136" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="D136" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="E136" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1</v>
+        <v>225</v>
       </c>
       <c r="G136" t="n">
-        <v>-13504.96473717999</v>
+        <v>2016.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5340,7 +5835,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5350,28 +5845,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="C137" t="n">
-        <v>2008</v>
+        <v>2040</v>
       </c>
       <c r="D137" t="n">
-        <v>2010</v>
+        <v>2040</v>
       </c>
       <c r="E137" t="n">
-        <v>2008</v>
+        <v>2040</v>
       </c>
       <c r="F137" t="n">
-        <v>19.1792</v>
+        <v>225.0375</v>
       </c>
       <c r="G137" t="n">
-        <v>-13524.14393717999</v>
+        <v>2018.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5381,7 +5877,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5391,28 +5887,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2019</v>
+        <v>2047</v>
       </c>
       <c r="C138" t="n">
-        <v>2020</v>
+        <v>2047</v>
       </c>
       <c r="D138" t="n">
-        <v>2020</v>
+        <v>2047</v>
       </c>
       <c r="E138" t="n">
-        <v>2019</v>
+        <v>2047</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2</v>
+        <v>845</v>
       </c>
       <c r="G138" t="n">
-        <v>-13523.94393717999</v>
+        <v>2021.15</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5422,7 +5919,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5432,28 +5929,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2005</v>
+        <v>2031</v>
       </c>
       <c r="C139" t="n">
-        <v>2014</v>
+        <v>2032</v>
       </c>
       <c r="D139" t="n">
-        <v>2017</v>
+        <v>2032</v>
       </c>
       <c r="E139" t="n">
-        <v>1995</v>
+        <v>2031</v>
       </c>
       <c r="F139" t="n">
-        <v>6271.1372</v>
+        <v>385</v>
       </c>
       <c r="G139" t="n">
-        <v>-19795.08113717999</v>
+        <v>2023</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5463,7 +5961,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5473,28 +5971,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1996</v>
+        <v>2032</v>
       </c>
       <c r="C140" t="n">
-        <v>1996</v>
+        <v>2033</v>
       </c>
       <c r="D140" t="n">
-        <v>1996</v>
+        <v>2033</v>
       </c>
       <c r="E140" t="n">
-        <v>1996</v>
+        <v>2032</v>
       </c>
       <c r="F140" t="n">
-        <v>2993.2085</v>
+        <v>160.6677</v>
       </c>
       <c r="G140" t="n">
-        <v>-22788.28963717999</v>
+        <v>2025.25</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5504,7 +6003,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5514,28 +6013,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2007</v>
+        <v>2033</v>
       </c>
       <c r="C141" t="n">
-        <v>2007</v>
+        <v>2033</v>
       </c>
       <c r="D141" t="n">
-        <v>2007</v>
+        <v>2033</v>
       </c>
       <c r="E141" t="n">
-        <v>2007</v>
+        <v>2033</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1</v>
+        <v>324.6824</v>
       </c>
       <c r="G141" t="n">
-        <v>-22788.18963717999</v>
+        <v>2026.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5545,7 +6045,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5555,28 +6055,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2002</v>
+        <v>2033</v>
       </c>
       <c r="C142" t="n">
-        <v>2002</v>
+        <v>2033</v>
       </c>
       <c r="D142" t="n">
-        <v>2002</v>
+        <v>2033</v>
       </c>
       <c r="E142" t="n">
-        <v>2002</v>
+        <v>2033</v>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>241.4299</v>
       </c>
       <c r="G142" t="n">
-        <v>-22808.18963717999</v>
+        <v>2027.55</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5586,7 +6087,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5596,28 +6097,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="C143" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="D143" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="E143" t="n">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="F143" t="n">
-        <v>219.6958</v>
+        <v>182.658</v>
       </c>
       <c r="G143" t="n">
-        <v>-22588.49383717999</v>
+        <v>2028.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5627,7 +6129,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5637,28 +6139,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="C144" t="n">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="D144" t="n">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="E144" t="n">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="F144" t="n">
-        <v>49.77600796</v>
+        <v>497.604</v>
       </c>
       <c r="G144" t="n">
-        <v>-22538.71782921999</v>
+        <v>2029.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5668,7 +6171,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5678,28 +6181,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2007</v>
+        <v>2028</v>
       </c>
       <c r="C145" t="n">
-        <v>2007</v>
+        <v>2028</v>
       </c>
       <c r="D145" t="n">
-        <v>2007</v>
+        <v>2028</v>
       </c>
       <c r="E145" t="n">
-        <v>2007</v>
+        <v>2028</v>
       </c>
       <c r="F145" t="n">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="G145" t="n">
-        <v>-22828.71782921999</v>
+        <v>2030.85</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5709,7 +6213,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5719,28 +6223,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="C146" t="n">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="D146" t="n">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="E146" t="n">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="F146" t="n">
-        <v>769.2939</v>
+        <v>2283.085</v>
       </c>
       <c r="G146" t="n">
-        <v>-23598.01172921999</v>
+        <v>2031.35</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5750,7 +6255,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5760,40 +6265,39 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2011</v>
+        <v>2028</v>
       </c>
       <c r="C147" t="n">
-        <v>2011</v>
+        <v>2028</v>
       </c>
       <c r="D147" t="n">
-        <v>2011</v>
+        <v>2028</v>
       </c>
       <c r="E147" t="n">
-        <v>2011</v>
+        <v>2028</v>
       </c>
       <c r="F147" t="n">
-        <v>0.11</v>
+        <v>4.9038</v>
       </c>
       <c r="G147" t="n">
-        <v>-23597.90172921999</v>
+        <v>2032.8</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1995</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5803,28 +6307,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2009</v>
+        <v>2029</v>
       </c>
       <c r="C148" t="n">
-        <v>2008</v>
+        <v>2029</v>
       </c>
       <c r="D148" t="n">
-        <v>2010</v>
+        <v>2029</v>
       </c>
       <c r="E148" t="n">
-        <v>2008</v>
+        <v>2029</v>
       </c>
       <c r="F148" t="n">
-        <v>190.2173</v>
+        <v>79.02330000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>-23788.11902921999</v>
+        <v>2032.95</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5834,7 +6339,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5844,28 +6349,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2012</v>
+        <v>2030</v>
       </c>
       <c r="C149" t="n">
-        <v>2012</v>
+        <v>2030</v>
       </c>
       <c r="D149" t="n">
-        <v>2012</v>
+        <v>2030</v>
       </c>
       <c r="E149" t="n">
-        <v>2012</v>
+        <v>2030</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1</v>
+        <v>470.4433</v>
       </c>
       <c r="G149" t="n">
-        <v>-23788.01902921999</v>
+        <v>2032.75</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5875,7 +6381,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5885,28 +6391,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1995</v>
+        <v>2030</v>
       </c>
       <c r="C150" t="n">
-        <v>1995</v>
+        <v>2030</v>
       </c>
       <c r="D150" t="n">
-        <v>1995</v>
+        <v>2030</v>
       </c>
       <c r="E150" t="n">
-        <v>1995</v>
+        <v>2030</v>
       </c>
       <c r="F150" t="n">
-        <v>13.5917</v>
+        <v>1759.506</v>
       </c>
       <c r="G150" t="n">
-        <v>-23801.61072921999</v>
+        <v>2032.45</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5916,7 +6423,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5926,28 +6433,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1998</v>
+        <v>2031</v>
       </c>
       <c r="C151" t="n">
-        <v>1998</v>
+        <v>2031</v>
       </c>
       <c r="D151" t="n">
-        <v>1998</v>
+        <v>2031</v>
       </c>
       <c r="E151" t="n">
-        <v>1998</v>
+        <v>2031</v>
       </c>
       <c r="F151" t="n">
-        <v>31.4595</v>
+        <v>180.8409</v>
       </c>
       <c r="G151" t="n">
-        <v>-23770.15122921999</v>
+        <v>2032.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5957,7 +6465,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5967,40 +6475,39 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2001</v>
+        <v>2030</v>
       </c>
       <c r="C152" t="n">
-        <v>2001</v>
+        <v>2030</v>
       </c>
       <c r="D152" t="n">
-        <v>2001</v>
+        <v>2030</v>
       </c>
       <c r="E152" t="n">
-        <v>2001</v>
+        <v>2030</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1</v>
+        <v>170.477</v>
       </c>
       <c r="G152" t="n">
-        <v>-23770.05122921999</v>
+        <v>2031.55</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>1998</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6010,40 +6517,39 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="C153" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="D153" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="E153" t="n">
-        <v>2007</v>
+        <v>2040</v>
       </c>
       <c r="F153" t="n">
         <v>0.1</v>
       </c>
       <c r="G153" t="n">
-        <v>-23769.95122921999</v>
+        <v>2031.7</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>2001</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6053,40 +6559,39 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2006</v>
+        <v>2040</v>
       </c>
       <c r="C154" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="D154" t="n">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="E154" t="n">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="F154" t="n">
-        <v>2816.1937</v>
+        <v>969.4117</v>
       </c>
       <c r="G154" t="n">
-        <v>-26586.14492921999</v>
+        <v>2031.45</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>2007</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6096,40 +6601,39 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="C155" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="D155" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="E155" t="n">
-        <v>1996</v>
+        <v>2040</v>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>15.7034</v>
       </c>
       <c r="G155" t="n">
-        <v>-26576.14492921999</v>
+        <v>2031.95</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>1993</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6139,40 +6643,39 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C156" t="n">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="D156" t="n">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="E156" t="n">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="F156" t="n">
         <v>0.1</v>
       </c>
       <c r="G156" t="n">
-        <v>-26576.04492921999</v>
+        <v>2033.2</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>1996</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6182,40 +6685,39 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2017</v>
+        <v>2055</v>
       </c>
       <c r="C157" t="n">
-        <v>2017</v>
+        <v>2061</v>
       </c>
       <c r="D157" t="n">
-        <v>2017</v>
+        <v>2061</v>
       </c>
       <c r="E157" t="n">
-        <v>2017</v>
+        <v>2055</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1</v>
+        <v>58.1075</v>
       </c>
       <c r="G157" t="n">
-        <v>-26575.94492921999</v>
+        <v>2033.95</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>2015</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6225,40 +6727,39 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2018</v>
+        <v>2093</v>
       </c>
       <c r="C158" t="n">
-        <v>2018</v>
+        <v>2089</v>
       </c>
       <c r="D158" t="n">
-        <v>2018</v>
+        <v>2093</v>
       </c>
       <c r="E158" t="n">
-        <v>2018</v>
+        <v>2089</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>14.47</v>
       </c>
       <c r="G158" t="n">
-        <v>-26565.94492921999</v>
+        <v>2036.25</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>2017</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6268,28 +6769,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2000</v>
+        <v>2061</v>
       </c>
       <c r="C159" t="n">
-        <v>1998</v>
+        <v>2061</v>
       </c>
       <c r="D159" t="n">
-        <v>2000</v>
+        <v>2061</v>
       </c>
       <c r="E159" t="n">
-        <v>1998</v>
+        <v>2061</v>
       </c>
       <c r="F159" t="n">
-        <v>40.386</v>
+        <v>18.4418</v>
       </c>
       <c r="G159" t="n">
-        <v>-26606.33092921999</v>
+        <v>2037.75</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6299,7 +6801,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6309,28 +6811,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1998</v>
+        <v>2057</v>
       </c>
       <c r="C160" t="n">
-        <v>1998</v>
+        <v>2065</v>
       </c>
       <c r="D160" t="n">
-        <v>1998</v>
+        <v>2065</v>
       </c>
       <c r="E160" t="n">
-        <v>1998</v>
+        <v>2057</v>
       </c>
       <c r="F160" t="n">
-        <v>10.3863</v>
+        <v>61.9168</v>
       </c>
       <c r="G160" t="n">
-        <v>-26606.33092921999</v>
+        <v>2039</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6340,7 +6843,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6350,28 +6853,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1994</v>
+        <v>2090</v>
       </c>
       <c r="C161" t="n">
-        <v>1992</v>
+        <v>2090</v>
       </c>
       <c r="D161" t="n">
-        <v>1994</v>
+        <v>2090</v>
       </c>
       <c r="E161" t="n">
-        <v>1992</v>
+        <v>2090</v>
       </c>
       <c r="F161" t="n">
-        <v>290.9721</v>
+        <v>0.11</v>
       </c>
       <c r="G161" t="n">
-        <v>-26897.30302921999</v>
+        <v>2041.85</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6381,7 +6885,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6391,28 +6895,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1987</v>
+        <v>2065</v>
       </c>
       <c r="C162" t="n">
-        <v>1987</v>
+        <v>2065</v>
       </c>
       <c r="D162" t="n">
-        <v>1987</v>
+        <v>2065</v>
       </c>
       <c r="E162" t="n">
-        <v>1987</v>
+        <v>2065</v>
       </c>
       <c r="F162" t="n">
-        <v>374.9999</v>
+        <v>18.5</v>
       </c>
       <c r="G162" t="n">
-        <v>-27272.30292921999</v>
+        <v>2043.45</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6422,7 +6927,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6432,40 +6937,39 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2006</v>
+        <v>2089</v>
       </c>
       <c r="C163" t="n">
-        <v>2006</v>
+        <v>2089</v>
       </c>
       <c r="D163" t="n">
-        <v>2006</v>
+        <v>2089</v>
       </c>
       <c r="E163" t="n">
-        <v>2006</v>
+        <v>2089</v>
       </c>
       <c r="F163" t="n">
         <v>0.1</v>
       </c>
       <c r="G163" t="n">
-        <v>-27272.20292921999</v>
+        <v>2046.85</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>1987</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6475,28 +6979,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2014</v>
+        <v>2094</v>
       </c>
       <c r="C164" t="n">
-        <v>2014</v>
+        <v>2094</v>
       </c>
       <c r="D164" t="n">
-        <v>2014</v>
+        <v>2094</v>
       </c>
       <c r="E164" t="n">
-        <v>2014</v>
+        <v>2094</v>
       </c>
       <c r="F164" t="n">
         <v>0.1</v>
       </c>
       <c r="G164" t="n">
-        <v>-27272.10292921999</v>
+        <v>2050.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6506,7 +7011,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6516,28 +7021,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2000</v>
+        <v>2099</v>
       </c>
       <c r="C165" t="n">
-        <v>2000</v>
+        <v>2099</v>
       </c>
       <c r="D165" t="n">
-        <v>2001</v>
+        <v>2099</v>
       </c>
       <c r="E165" t="n">
-        <v>2000</v>
+        <v>2099</v>
       </c>
       <c r="F165" t="n">
-        <v>517.9582</v>
+        <v>103.0528</v>
       </c>
       <c r="G165" t="n">
-        <v>-27790.06112921999</v>
+        <v>2053.75</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6547,7 +7053,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6557,28 +7063,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2009</v>
+        <v>2079</v>
       </c>
       <c r="C166" t="n">
-        <v>2009</v>
+        <v>2081</v>
       </c>
       <c r="D166" t="n">
-        <v>2009</v>
+        <v>2098</v>
       </c>
       <c r="E166" t="n">
-        <v>2009</v>
+        <v>2079</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1</v>
+        <v>1161.8919</v>
       </c>
       <c r="G166" t="n">
-        <v>-27789.96112922</v>
+        <v>2056.75</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6588,7 +7095,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6598,28 +7105,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2001</v>
+        <v>2075</v>
       </c>
       <c r="C167" t="n">
-        <v>2011</v>
+        <v>2075</v>
       </c>
       <c r="D167" t="n">
-        <v>2011</v>
+        <v>2075</v>
       </c>
       <c r="E167" t="n">
-        <v>1990</v>
+        <v>2075</v>
       </c>
       <c r="F167" t="n">
-        <v>2912.9563</v>
+        <v>814.329</v>
       </c>
       <c r="G167" t="n">
-        <v>-24877.00482921999</v>
+        <v>2059.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6629,7 +7137,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6639,40 +7147,39 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="C168" t="n">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="D168" t="n">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="E168" t="n">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="F168" t="n">
-        <v>230</v>
+        <v>10.7233</v>
       </c>
       <c r="G168" t="n">
-        <v>-25107.00482921999</v>
+        <v>2061.45</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>2011</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6682,40 +7189,39 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1999</v>
+        <v>2093</v>
       </c>
       <c r="C169" t="n">
-        <v>1999</v>
+        <v>2093</v>
       </c>
       <c r="D169" t="n">
-        <v>1999</v>
+        <v>2093</v>
       </c>
       <c r="E169" t="n">
-        <v>1999</v>
+        <v>2093</v>
       </c>
       <c r="F169" t="n">
-        <v>15.96</v>
+        <v>0.1</v>
       </c>
       <c r="G169" t="n">
-        <v>-25122.96482921999</v>
+        <v>2064.6</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>2009</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6725,40 +7231,39 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2026</v>
+        <v>2075</v>
       </c>
       <c r="C170" t="n">
-        <v>2026</v>
+        <v>2075</v>
       </c>
       <c r="D170" t="n">
-        <v>2026</v>
+        <v>2075</v>
       </c>
       <c r="E170" t="n">
-        <v>2026</v>
+        <v>2075</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>327.3475</v>
       </c>
       <c r="G170" t="n">
-        <v>-25121.96482921999</v>
+        <v>2066.85</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>1999</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6768,28 +7273,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2034</v>
+        <v>2094</v>
       </c>
       <c r="C171" t="n">
-        <v>2036</v>
+        <v>2094</v>
       </c>
       <c r="D171" t="n">
-        <v>2036</v>
+        <v>2094</v>
       </c>
       <c r="E171" t="n">
-        <v>2034</v>
+        <v>2094</v>
       </c>
       <c r="F171" t="n">
-        <v>366.9389</v>
+        <v>0.1</v>
       </c>
       <c r="G171" t="n">
-        <v>-24755.02592921999</v>
+        <v>2070</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6799,7 +7305,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6809,28 +7315,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2036</v>
+        <v>2064</v>
       </c>
       <c r="C172" t="n">
-        <v>2036</v>
+        <v>2064</v>
       </c>
       <c r="D172" t="n">
-        <v>2036</v>
+        <v>2064</v>
       </c>
       <c r="E172" t="n">
-        <v>2036</v>
+        <v>2064</v>
       </c>
       <c r="F172" t="n">
-        <v>144.5616</v>
+        <v>18.4714</v>
       </c>
       <c r="G172" t="n">
-        <v>-24755.02592921999</v>
+        <v>2071.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6840,7 +7347,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6850,28 +7357,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2034</v>
+        <v>2060</v>
       </c>
       <c r="C173" t="n">
-        <v>2034</v>
+        <v>2075</v>
       </c>
       <c r="D173" t="n">
-        <v>2034</v>
+        <v>2075</v>
       </c>
       <c r="E173" t="n">
-        <v>2034</v>
+        <v>2060</v>
       </c>
       <c r="F173" t="n">
-        <v>75.25279999999999</v>
+        <v>499.7958</v>
       </c>
       <c r="G173" t="n">
-        <v>-24830.27872921999</v>
+        <v>2072.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6881,7 +7389,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6891,28 +7399,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2045</v>
+        <v>2061</v>
       </c>
       <c r="C174" t="n">
-        <v>2049</v>
+        <v>2061</v>
       </c>
       <c r="D174" t="n">
-        <v>2049</v>
+        <v>2061</v>
       </c>
       <c r="E174" t="n">
-        <v>2045</v>
+        <v>2061</v>
       </c>
       <c r="F174" t="n">
-        <v>374.9999</v>
+        <v>24.696</v>
       </c>
       <c r="G174" t="n">
-        <v>-24455.27882921999</v>
+        <v>2073.75</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6922,7 +7431,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6932,28 +7441,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2037</v>
+        <v>2058</v>
       </c>
       <c r="C175" t="n">
-        <v>2037</v>
+        <v>2058</v>
       </c>
       <c r="D175" t="n">
-        <v>2037</v>
+        <v>2058</v>
       </c>
       <c r="E175" t="n">
-        <v>2037</v>
+        <v>2058</v>
       </c>
       <c r="F175" t="n">
-        <v>18.4074</v>
+        <v>399.6886</v>
       </c>
       <c r="G175" t="n">
-        <v>-24473.68622921999</v>
+        <v>2074.65</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6963,7 +7473,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6973,28 +7483,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="C176" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D176" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="E176" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="F176" t="n">
-        <v>142.5054</v>
+        <v>22.7194</v>
       </c>
       <c r="G176" t="n">
-        <v>-24331.18082921999</v>
+        <v>2074.05</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7004,7 +7515,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7014,28 +7525,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2030</v>
+        <v>2063</v>
       </c>
       <c r="C177" t="n">
-        <v>2030</v>
+        <v>2063</v>
       </c>
       <c r="D177" t="n">
-        <v>2030</v>
+        <v>2063</v>
       </c>
       <c r="E177" t="n">
-        <v>2030</v>
+        <v>2063</v>
       </c>
       <c r="F177" t="n">
-        <v>11.0143</v>
+        <v>0.11</v>
       </c>
       <c r="G177" t="n">
-        <v>-24342.19512921999</v>
+        <v>2074.45</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7045,7 +7557,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7055,28 +7567,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="C178" t="n">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="D178" t="n">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="E178" t="n">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="F178" t="n">
-        <v>225</v>
+        <v>47.28</v>
       </c>
       <c r="G178" t="n">
-        <v>-24342.19512921999</v>
+        <v>2071.85</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7086,7 +7599,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7096,28 +7609,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="C179" t="n">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D179" t="n">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E179" t="n">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="F179" t="n">
-        <v>225.0375</v>
+        <v>25.0801</v>
       </c>
       <c r="G179" t="n">
-        <v>-24117.15762921999</v>
+        <v>2071.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7127,7 +7641,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7137,1654 +7651,7 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>2047</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2047</v>
-      </c>
-      <c r="D180" t="n">
-        <v>2047</v>
-      </c>
-      <c r="E180" t="n">
-        <v>2047</v>
-      </c>
-      <c r="F180" t="n">
-        <v>845</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-23272.15762921999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>2031</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2032</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2032</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2031</v>
-      </c>
-      <c r="F181" t="n">
-        <v>385</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-23657.15762921999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>2032</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2033</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2033</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F182" t="n">
-        <v>160.6677</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-23496.48992921999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2033</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2033</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2033</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2033</v>
-      </c>
-      <c r="F183" t="n">
-        <v>324.6824</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-23496.48992921999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>2033</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2033</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2033</v>
-      </c>
-      <c r="E184" t="n">
-        <v>2033</v>
-      </c>
-      <c r="F184" t="n">
-        <v>241.4299</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-23496.48992921999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F185" t="n">
-        <v>182.658</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-23679.14792921999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>2027</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2027</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2027</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2027</v>
-      </c>
-      <c r="F186" t="n">
-        <v>497.604</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-23181.54392921999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>2028</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2028</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2028</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2028</v>
-      </c>
-      <c r="F187" t="n">
-        <v>84</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-23097.54392921999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2283.085</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-25380.62892921999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="E189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="F189" t="n">
-        <v>4.9038</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-25375.72512921999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2029</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2029</v>
-      </c>
-      <c r="F190" t="n">
-        <v>79.02330000000001</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-25296.70182921999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F191" t="n">
-        <v>470.4433</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-24826.25852921999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1759.506</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-24826.25852921999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2031</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2031</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2031</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2031</v>
-      </c>
-      <c r="F193" t="n">
-        <v>180.8409</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-24645.41762921999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2030</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F194" t="n">
-        <v>170.477</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-24815.89462921999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-24815.79462921999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F196" t="n">
-        <v>969.4117</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-24815.79462921999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>2040</v>
-      </c>
-      <c r="K196" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2040</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F197" t="n">
-        <v>15.7034</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-24815.79462921999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2055</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2055</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2055</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2055</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-24815.69462921999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2040</v>
-      </c>
-      <c r="K198" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2055</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2061</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2061</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2055</v>
-      </c>
-      <c r="F199" t="n">
-        <v>58.1075</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-24757.58712922</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2093</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2089</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2093</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2089</v>
-      </c>
-      <c r="F200" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-24743.11712921999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2061</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2061</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2061</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2061</v>
-      </c>
-      <c r="F201" t="n">
-        <v>18.4418</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-24761.55892921999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2057</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2065</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2065</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2057</v>
-      </c>
-      <c r="F202" t="n">
-        <v>61.9168</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-24699.64212922</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>2090</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2090</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2090</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2090</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-24699.53212922</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>2065</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2065</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2065</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2065</v>
-      </c>
-      <c r="F204" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-24718.03212922</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2089</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2089</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2089</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2089</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-24717.93212922</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2094</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2094</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2094</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2094</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-24717.83212922</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2099</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2099</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2099</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2099</v>
-      </c>
-      <c r="F207" t="n">
-        <v>103.0528</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-24614.77932922</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2079</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2081</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2098</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2079</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1161.8919</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-25776.67122922</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1993</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1.039154540893126</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2075</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2075</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2075</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2075</v>
-      </c>
-      <c r="F209" t="n">
-        <v>814.329</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-26591.00022922</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2076</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2076</v>
-      </c>
-      <c r="D210" t="n">
-        <v>2076</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2076</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10.7233</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-26580.27692922</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>2093</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2093</v>
-      </c>
-      <c r="D211" t="n">
-        <v>2093</v>
-      </c>
-      <c r="E211" t="n">
-        <v>2093</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-26580.17692922</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>2075</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2075</v>
-      </c>
-      <c r="D212" t="n">
-        <v>2075</v>
-      </c>
-      <c r="E212" t="n">
-        <v>2075</v>
-      </c>
-      <c r="F212" t="n">
-        <v>327.3475</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-26907.52442922</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>2094</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2094</v>
-      </c>
-      <c r="D213" t="n">
-        <v>2094</v>
-      </c>
-      <c r="E213" t="n">
-        <v>2094</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-26907.42442922</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>2064</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2064</v>
-      </c>
-      <c r="D214" t="n">
-        <v>2064</v>
-      </c>
-      <c r="E214" t="n">
-        <v>2064</v>
-      </c>
-      <c r="F214" t="n">
-        <v>18.4714</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-26925.89582922</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>2060</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2075</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2075</v>
-      </c>
-      <c r="E215" t="n">
-        <v>2060</v>
-      </c>
-      <c r="F215" t="n">
-        <v>499.7958</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-26426.10002922</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>2061</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2061</v>
-      </c>
-      <c r="D216" t="n">
-        <v>2061</v>
-      </c>
-      <c r="E216" t="n">
-        <v>2061</v>
-      </c>
-      <c r="F216" t="n">
-        <v>24.696</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-26450.79602922</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>2058</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2058</v>
-      </c>
-      <c r="D217" t="n">
-        <v>2058</v>
-      </c>
-      <c r="E217" t="n">
-        <v>2058</v>
-      </c>
-      <c r="F217" t="n">
-        <v>399.6886</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-26850.48462922</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>2043</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2043</v>
-      </c>
-      <c r="D218" t="n">
-        <v>2043</v>
-      </c>
-      <c r="E218" t="n">
-        <v>2043</v>
-      </c>
-      <c r="F218" t="n">
-        <v>22.7194</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-26873.20402922</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>2063</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2063</v>
-      </c>
-      <c r="D219" t="n">
-        <v>2063</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2063</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-26873.09402922</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>2041</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2041</v>
-      </c>
-      <c r="D220" t="n">
-        <v>2041</v>
-      </c>
-      <c r="E220" t="n">
-        <v>2041</v>
-      </c>
-      <c r="F220" t="n">
-        <v>47.28</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-26920.37402922</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2041</v>
-      </c>
-      <c r="D221" t="n">
-        <v>2050</v>
-      </c>
-      <c r="E221" t="n">
-        <v>2041</v>
-      </c>
-      <c r="F221" t="n">
-        <v>25.0801</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-26920.37402922</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-509.5775</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-510.7775</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1392.5474</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1348.3348</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1863.1319</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3632.5631</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3632.5631</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3632.6631</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3877.6823</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3829.215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3829.315</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3676.0814</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3990.7586</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4366.228700000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,14 +1573,10 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1950</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1610,19 +1606,11 @@
         <v>-5051.464700000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1950</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1651,19 +1639,11 @@
         <v>-10397.7497</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1953</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1695,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1705,11 @@
         <v>-10365.7154</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1945</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1775,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1814,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1850,19 +1804,11 @@
         <v>-8313.968400000002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1966</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1891,19 +1837,11 @@
         <v>-8314.068400000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1932,19 +1870,11 @@
         <v>-7516.068400000002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1958</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1973,19 +1903,11 @@
         <v>-7514.351200000002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1959</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2014,19 +1936,11 @@
         <v>-7514.251200000002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1960</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2055,19 +1969,11 @@
         <v>-7606.732037180001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1985</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2096,19 +2002,11 @@
         <v>-7106.532037180002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1966</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2137,19 +2035,11 @@
         <v>-5806.532037180002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1996</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2181,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2220,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2259,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2298,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2337,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2415,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2454,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2493,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2532,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2571,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2610,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2649,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2688,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2727,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2766,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2802,23 +2596,15 @@
         <v>-4505.711337180001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1950</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>1.051923076923077</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.042564102564103</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2843,7 +2629,7 @@
         <v>-5873.922037180002</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2876,7 +2662,7 @@
         <v>-5873.922037180002</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2909,7 +2695,7 @@
         <v>-5892.910937180002</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2942,7 +2728,7 @@
         <v>-5892.810937180002</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3041,7 +2827,7 @@
         <v>-7592.708537180002</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3107,7 +2893,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3173,7 +2959,7 @@
         <v>-7479.711337180001</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3305,7 +3091,7 @@
         <v>-7055.270737180001</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3338,7 +3124,7 @@
         <v>-9000.986937180001</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3371,7 +3157,7 @@
         <v>-8772.693737180001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3404,7 +3190,7 @@
         <v>-8799.420737180002</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3437,7 +3223,7 @@
         <v>-9000.130137180002</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3635,7 +3421,7 @@
         <v>-8729.274337180001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3668,7 +3454,7 @@
         <v>-8748.32433718</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3701,7 +3487,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3734,7 +3520,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3767,7 +3553,7 @@
         <v>-8764.06693718</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3800,7 +3586,7 @@
         <v>-9906.81693718</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3833,7 +3619,7 @@
         <v>-9906.81693718</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3866,7 +3652,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3899,7 +3685,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3932,7 +3718,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3965,7 +3751,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3998,7 +3784,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4031,7 +3817,7 @@
         <v>-9779.66953718</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4064,7 +3850,7 @@
         <v>-9555.66173718</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4097,7 +3883,7 @@
         <v>-9895.66173718</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4130,7 +3916,7 @@
         <v>-9895.66173718</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4163,7 +3949,7 @@
         <v>-9895.46173718</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4196,7 +3982,7 @@
         <v>-9914.237737179999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4229,7 +4015,7 @@
         <v>-9914.137737179999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4262,7 +4048,7 @@
         <v>-9974.806537179998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4295,7 +4081,7 @@
         <v>-9974.706537179998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4328,7 +4114,7 @@
         <v>-9974.706537179998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4361,7 +4147,7 @@
         <v>-9993.763437179998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4394,7 +4180,7 @@
         <v>-9959.743437179997</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4427,7 +4213,7 @@
         <v>-9959.743437179997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4460,7 +4246,7 @@
         <v>-9959.632437179996</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4493,7 +4279,7 @@
         <v>-10726.18533718</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4526,7 +4312,7 @@
         <v>-11324.32293718</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4559,7 +4345,7 @@
         <v>-11324.22293718</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4592,7 +4378,7 @@
         <v>-11324.12293718</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4625,7 +4411,7 @@
         <v>-11106.96193718</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4757,7 +4543,7 @@
         <v>-11648.17133718</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4790,7 +4576,7 @@
         <v>-11648.07133718</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4823,7 +4609,7 @@
         <v>-11671.15873718</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4889,7 +4675,7 @@
         <v>-11894.50653718</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5186,7 +4972,7 @@
         <v>-12061.93463717999</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5285,7 +5071,7 @@
         <v>-12230.87433717999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5615,7 +5401,7 @@
         <v>-12583.49713717999</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5648,7 +5434,7 @@
         <v>-12583.39713717999</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5681,7 +5467,7 @@
         <v>-12583.39713717999</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5714,7 +5500,7 @@
         <v>-12583.28713717999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5747,7 +5533,7 @@
         <v>-13391.17893717999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5780,7 +5566,7 @@
         <v>-13391.07893717999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5813,7 +5599,7 @@
         <v>-13378.03913717999</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5846,7 +5632,7 @@
         <v>-13436.17863717999</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5879,7 +5665,7 @@
         <v>-13436.17863717999</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5912,7 +5698,7 @@
         <v>-13452.29903717999</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6077,7 +5863,7 @@
         <v>-13524.14393717999</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6176,7 +5962,7 @@
         <v>-22788.28963717999</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6209,7 +5995,7 @@
         <v>-22788.18963717999</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6242,7 +6028,7 @@
         <v>-22808.18963717999</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6275,7 +6061,7 @@
         <v>-22588.49383717999</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6308,7 +6094,7 @@
         <v>-22538.71782921999</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6341,7 +6127,7 @@
         <v>-22828.71782921999</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6704,14 +6490,10 @@
         <v>-26576.04492921999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1996</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
@@ -6741,19 +6523,11 @@
         <v>-26575.94492921999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2015</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1996</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6782,19 +6556,11 @@
         <v>-26565.94492921999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>2017</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1996</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6922,10 +6688,14 @@
         <v>-27272.30292921999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1992</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1992</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6955,15 +6725,19 @@
         <v>-27272.20292921999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>1987</v>
       </c>
       <c r="J192" t="n">
-        <v>1987</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+        <v>1992</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6992,13 +6766,13 @@
         <v>-27272.10292921999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>2006</v>
       </c>
       <c r="J193" t="n">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7033,17 +6807,17 @@
         <v>-27790.06112921999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>2014</v>
       </c>
       <c r="J194" t="n">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -7074,15 +6848,19 @@
         <v>-27789.96112922</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>2000</v>
       </c>
       <c r="J195" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+        <v>1992</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7111,15 +6889,17 @@
         <v>-24877.00482921999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2009</v>
+      </c>
       <c r="J196" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -7154,7 +6934,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7193,7 +6973,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7232,7 +7012,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7267,13 +7047,11 @@
         <v>-24755.02592921999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7308,13 +7086,11 @@
         <v>-24755.02592921999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>2036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7353,7 +7129,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7392,7 +7168,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7431,7 +7207,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7470,7 +7246,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7509,7 +7285,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7548,7 +7324,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7587,7 +7363,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7626,7 +7402,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7665,7 +7441,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7704,7 +7480,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7743,7 +7519,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7782,7 +7558,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7821,7 +7597,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7860,7 +7636,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7899,7 +7675,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7938,7 +7714,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7977,7 +7753,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8016,7 +7792,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8055,7 +7831,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8094,7 +7870,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8133,7 +7909,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8172,7 +7948,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8211,7 +7987,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8250,7 +8026,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8289,7 +8065,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8328,7 +8104,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8367,7 +8143,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8406,7 +8182,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8445,7 +8221,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8480,19 +8256,19 @@
         <v>-24699.64212922</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
-        <v>1.0275</v>
+        <v>1</v>
       </c>
       <c r="M231" t="inlineStr"/>
     </row>
@@ -8522,8 +8298,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8555,8 +8337,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8588,8 +8376,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8621,8 +8415,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8654,8 +8454,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8684,11 +8490,17 @@
         <v>-25776.67122922</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8720,8 +8532,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8750,11 +8568,17 @@
         <v>-26580.27692922</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8786,8 +8610,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8816,11 +8646,17 @@
         <v>-26907.52442922</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8852,8 +8688,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +8724,17 @@
         <v>-26925.89582922</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8915,11 +8763,17 @@
         <v>-26426.10002922</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8951,8 +8805,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8984,8 +8844,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9017,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9050,8 +8922,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9083,8 +8961,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +9000,20 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1992</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-509.5775</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-510.7775</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1348.3348</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1863.1319</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3632.5631</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3632.5631</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3632.6631</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3877.6823</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3829.215</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3829.315</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3676.0814</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3990.7586</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4366.228700000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5088.030200000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1738,10 +1738,14 @@
         <v>-10365.8154</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1955</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1774,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1955</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1955</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>-5873.922037180002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>-5892.910937180002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2744,7 @@
         <v>-5892.810937180002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2777,7 @@
         <v>-7557.705037180001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2810,7 @@
         <v>-7592.818537180002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>-7592.708537180002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>-7699.671337180002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>-7479.711337180001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3008,7 @@
         <v>-7479.611337180001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>-7410.053237180001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>-7717.683037180001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3107,7 @@
         <v>-7055.270737180001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3140,7 @@
         <v>-9000.986937180001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3173,7 @@
         <v>-8772.693737180001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3206,7 @@
         <v>-8799.420737180002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3239,7 @@
         <v>-9000.130137180002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3272,7 @@
         <v>-9032.528137180001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3619,7 +3635,7 @@
         <v>-9906.81693718</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3668,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3701,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3734,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3767,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3800,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3833,7 @@
         <v>-9779.66953718</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3866,7 @@
         <v>-9555.66173718</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3899,7 @@
         <v>-9895.66173718</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3932,7 @@
         <v>-9895.66173718</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3965,7 @@
         <v>-9895.46173718</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3998,7 @@
         <v>-9914.237737179999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4031,7 @@
         <v>-9914.137737179999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4064,7 @@
         <v>-9974.806537179998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4097,7 @@
         <v>-9974.706537179998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4130,7 @@
         <v>-9974.706537179998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4163,7 @@
         <v>-9993.763437179998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4196,7 @@
         <v>-9959.743437179997</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4229,7 @@
         <v>-9959.743437179997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4262,7 @@
         <v>-9959.632437179996</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4295,7 @@
         <v>-10726.18533718</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4328,7 @@
         <v>-11324.32293718</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4361,7 @@
         <v>-11324.22293718</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4394,7 @@
         <v>-11324.12293718</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4427,7 @@
         <v>-11106.96193718</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5005,11 +5021,17 @@
         <v>-12228.88263717999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1981</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5060,17 @@
         <v>-12212.98433717999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1980</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5099,17 @@
         <v>-12230.87433717999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1988</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5138,17 @@
         <v>-12230.67433717999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1986</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5177,17 @@
         <v>-12222.10403717999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1992</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5216,17 @@
         <v>-12222.00403717999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1995</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5255,17 @@
         <v>-12252.16713717999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1997</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5294,17 @@
         <v>-11895.29503717999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1985</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5333,17 @@
         <v>-11895.19503717999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1998</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5376,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5409,17 @@
         <v>-12347.40973717999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1990</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5452,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5489,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5526,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5563,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5600,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5637,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5674,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5711,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5748,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5785,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5822,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5859,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5896,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5933,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +5970,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6007,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6044,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6081,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6118,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6155,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6192,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6229,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6266,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6303,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6340,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6377,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6414,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6451,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6488,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6525,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6562,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6599,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6636,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6673,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6710,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6747,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6784,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6821,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6858,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6895,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,15 +6928,15 @@
         <v>-27272.30292921999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1992</v>
-      </c>
-      <c r="J191" t="n">
-        <v>1992</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,17 +6965,13 @@
         <v>-27272.20292921999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1987</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6766,17 +7002,13 @@
         <v>-27272.10292921999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2006</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6807,17 +7039,13 @@
         <v>-27790.06112921999</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2014</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6848,14 +7076,10 @@
         <v>-27789.96112922</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6889,14 +7113,10 @@
         <v>-24877.00482921999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2009</v>
-      </c>
-      <c r="J196" t="n">
-        <v>1992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,9 +7153,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,9 +7190,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,9 +7227,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,9 +7264,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,9 +7301,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,9 +7338,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,9 +7375,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,9 +7412,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,9 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,9 +7486,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,9 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,9 +7560,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,9 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7440,9 +7634,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,9 +7671,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,9 +7708,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,9 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,9 +7782,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,9 +7819,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,9 +7856,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7713,9 +7893,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7752,9 +7930,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,9 +7967,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,9 +8004,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,9 +8041,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,9 +8078,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,12 +8112,12 @@
         <v>-24815.89462921999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1992</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>2031</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7983,12 +8151,12 @@
         <v>-24815.79462921999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1992</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2030</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,9 +8193,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,9 +8230,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,9 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,9 +8304,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,9 +8341,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,9 +8378,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +8415,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,9 +8452,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +8489,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +8563,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +8600,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +8637,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +8674,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +8711,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +8748,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +8785,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +8859,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +8896,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +8933,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +9007,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +9044,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +9081,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +9118,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1992</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,6 +9130,6 @@
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -451,7 +451,7 @@
         <v>-509.5775</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-510.7775</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1392.5474</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1738,14 +1738,10 @@
         <v>-10365.8154</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1778,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1955</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1817,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1955</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2678,7 +2662,7 @@
         <v>-5873.922037180002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2695,7 @@
         <v>-5892.910937180002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +2728,7 @@
         <v>-5892.810937180002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +2761,7 @@
         <v>-7557.705037180001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +2794,7 @@
         <v>-7592.818537180002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2843,7 +2827,7 @@
         <v>-7592.708537180002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2876,7 +2860,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2909,7 +2893,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2942,7 +2926,7 @@
         <v>-7699.671337180002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2975,7 +2959,7 @@
         <v>-7479.711337180001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3008,7 +2992,7 @@
         <v>-7479.611337180001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3041,7 +3025,7 @@
         <v>-7410.053237180001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3058,7 @@
         <v>-7717.683037180001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3091,7 @@
         <v>-7055.270737180001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3124,7 @@
         <v>-9000.986937180001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>-8772.693737180001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3190,7 @@
         <v>-8799.420737180002</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3223,7 @@
         <v>-9000.130137180002</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3256,7 @@
         <v>-9032.528137180001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3437,7 +3421,7 @@
         <v>-8729.274337180001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3454,7 @@
         <v>-8748.32433718</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3487,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3520,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3635,7 +3619,7 @@
         <v>-9906.81693718</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3668,7 +3652,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3701,7 +3685,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3734,7 +3718,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3767,7 +3751,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3800,7 +3784,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3866,7 +3850,7 @@
         <v>-9555.66173718</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +3883,7 @@
         <v>-9895.66173718</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4295,7 +4279,7 @@
         <v>-10726.18533718</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4328,7 +4312,7 @@
         <v>-11324.32293718</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4427,7 +4411,7 @@
         <v>-11106.96193718</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4444,7 @@
         <v>-11076.96193718</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4477,7 @@
         <v>-11600.27133718</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +4510,7 @@
         <v>-11648.27133718</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4559,7 +4543,7 @@
         <v>-11648.17133718</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4625,7 +4609,7 @@
         <v>-11671.15873718</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5021,2033 +5005,1803 @@
         <v>-12228.88263717999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15.8983</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-12212.98433717999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1986</v>
+      </c>
+      <c r="F142" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-12230.87433717999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-12230.67433717999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8.5703</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-12222.10403717999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-12222.00403717999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30.1631</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-12252.16713717999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F147" t="n">
+        <v>356.8721</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-11895.29503717999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-11895.19503717999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F149" t="n">
+        <v>471.5122</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-12366.70723717999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F150" t="n">
+        <v>19.2975</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-12347.40973717999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-12347.30973717999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F152" t="n">
+        <v>236.1874</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-12583.49713717999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-12583.39713717999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F154" t="n">
+        <v>318.3823</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-12583.39713717999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-12583.28713717999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F156" t="n">
+        <v>807.8918</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-13391.17893717999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-13391.07893717999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13.0398</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-13378.03913717999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F159" t="n">
+        <v>58.1395</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-13436.17863717999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F160" t="n">
+        <v>29.0698</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-13436.17863717999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16.1204</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-13452.29903717999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-13452.19903717999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F163" t="n">
+        <v>62.308</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-13514.50703717999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9.442299999999999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-13505.06473717999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-13504.96473717999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19.1792</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-13524.14393717999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-13523.94393717999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6271.1372</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-19795.08113717999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2993.2085</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-22788.28963717999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-22788.18963717999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-22808.18963717999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F172" t="n">
+        <v>219.6958</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-22588.49383717999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F173" t="n">
+        <v>49.77600796</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-22538.71782921999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F174" t="n">
+        <v>290</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-22828.71782921999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F175" t="n">
+        <v>769.2939</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-23598.01172921999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-23597.90172921999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F177" t="n">
+        <v>190.2173</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-23788.11902921999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-23788.01902921999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1995</v>
+      </c>
+      <c r="F179" t="n">
+        <v>13.5917</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-23801.61072921999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F180" t="n">
+        <v>31.4595</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-23770.15122921999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-23770.05122921999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-23769.95122921999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2816.1937</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-26586.14492921999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1996</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-26576.14492921999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-26576.04492921999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-26575.94492921999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-26565.94492921999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F188" t="n">
+        <v>40.386</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-26606.33092921999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10.3863</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-26606.33092921999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F190" t="n">
+        <v>290.9721</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-26897.30302921999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1987</v>
+      </c>
+      <c r="F191" t="n">
+        <v>374.9999</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-27272.30292921999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-27272.20292921999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-27272.10292921999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F194" t="n">
+        <v>517.9582</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-27790.06112921999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1988</v>
-      </c>
-      <c r="F141" t="n">
-        <v>15.8983</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-12212.98433717999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1980</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1986</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1986</v>
-      </c>
-      <c r="F142" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-12230.87433717999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1988</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1992</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-12230.67433717999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1986</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F144" t="n">
-        <v>8.5703</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-12222.10403717999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1992</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1997</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1997</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-12222.00403717999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1995</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1985</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1985</v>
-      </c>
-      <c r="F146" t="n">
-        <v>30.1631</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-12252.16713717999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1997</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F147" t="n">
-        <v>356.8721</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-11895.29503717999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1985</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-11895.19503717999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1998</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1990</v>
-      </c>
-      <c r="F149" t="n">
-        <v>471.5122</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-12366.70723717999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F150" t="n">
-        <v>19.2975</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-12347.40973717999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1990</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D151" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E151" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-12347.30973717999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D152" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2012</v>
-      </c>
-      <c r="F152" t="n">
-        <v>236.1874</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-12583.49713717999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D153" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-12583.39713717999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F154" t="n">
-        <v>318.3823</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-12583.39713717999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-12583.28713717999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E156" t="n">
-        <v>2010</v>
-      </c>
-      <c r="F156" t="n">
-        <v>807.8918</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-13391.17893717999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-13391.07893717999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E158" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F158" t="n">
-        <v>13.0398</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-13378.03913717999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E159" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F159" t="n">
-        <v>58.1395</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-13436.17863717999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C160" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E160" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F160" t="n">
-        <v>29.0698</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-13436.17863717999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C161" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D161" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F161" t="n">
-        <v>16.1204</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-13452.29903717999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-13452.19903717999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D163" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E163" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F163" t="n">
-        <v>62.308</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-13514.50703717999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D164" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E164" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F164" t="n">
-        <v>9.442299999999999</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-13505.06473717999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C165" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D165" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E165" t="n">
-        <v>2024</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-13504.96473717999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C166" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D166" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E166" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F166" t="n">
-        <v>19.1792</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-13524.14393717999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C167" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D167" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E167" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-13523.94393717999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>2005</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F168" t="n">
-        <v>6271.1372</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-19795.08113717999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2993.2085</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-22788.28963717999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D170" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E170" t="n">
-        <v>2007</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-22788.18963717999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C171" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D171" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E171" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F171" t="n">
-        <v>20</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-22808.18963717999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C172" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D172" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E172" t="n">
-        <v>2002</v>
-      </c>
-      <c r="F172" t="n">
-        <v>219.6958</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-22588.49383717999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C173" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D173" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E173" t="n">
-        <v>2009</v>
-      </c>
-      <c r="F173" t="n">
-        <v>49.77600796</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-22538.71782921999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C174" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D174" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E174" t="n">
-        <v>2007</v>
-      </c>
-      <c r="F174" t="n">
-        <v>290</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-22828.71782921999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F175" t="n">
-        <v>769.2939</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-23598.01172921999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C176" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D176" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E176" t="n">
-        <v>2011</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-23597.90172921999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C177" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D177" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F177" t="n">
-        <v>190.2173</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-23788.11902921999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C178" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D178" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E178" t="n">
-        <v>2012</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-23788.01902921999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1995</v>
-      </c>
-      <c r="F179" t="n">
-        <v>13.5917</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-23801.61072921999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F180" t="n">
-        <v>31.4595</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-23770.15122921999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-23770.05122921999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2007</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-23769.95122921999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2047</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1993</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2816.1937</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-26586.14492921999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1996</v>
-      </c>
-      <c r="F184" t="n">
-        <v>10</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-26576.14492921999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-26576.04492921999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-26575.94492921999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F187" t="n">
-        <v>10</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-26565.94492921999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F188" t="n">
-        <v>40.386</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-26606.33092921999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1998</v>
-      </c>
-      <c r="F189" t="n">
-        <v>10.3863</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-26606.33092921999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1992</v>
-      </c>
-      <c r="F190" t="n">
-        <v>290.9721</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-26897.30302921999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1987</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1987</v>
-      </c>
-      <c r="F191" t="n">
-        <v>374.9999</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-27272.30292921999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-27272.20292921999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-27272.10292921999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F194" t="n">
-        <v>517.9582</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-27790.06112921999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7076,10 +6830,14 @@
         <v>-27789.96112922</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2006</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7113,10 +6871,14 @@
         <v>-24877.00482921999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2009</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2006</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7150,10 +6912,14 @@
         <v>-25107.00482921999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2011</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2006</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7187,10 +6953,14 @@
         <v>-25122.96482921999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2009</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2006</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,10 +6994,14 @@
         <v>-25121.96482921999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1999</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2006</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7264,7 +7038,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2006</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,7 +7077,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2006</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7338,7 +7116,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2006</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,7 +7155,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2006</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,7 +7194,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2006</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7449,7 +7233,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2006</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7486,7 +7272,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2006</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7523,7 +7311,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2006</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,7 +7350,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2006</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7597,7 +7389,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2006</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7634,7 +7428,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2006</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7671,7 +7467,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2006</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7708,7 +7506,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2006</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,10 +7542,14 @@
         <v>-23496.48992921999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2033</v>
+      </c>
+      <c r="J213" t="n">
+        <v>2006</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,7 +7586,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2006</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,10 +7622,14 @@
         <v>-23181.54392921999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2006</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,10 +7663,14 @@
         <v>-23097.54392921999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2027</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2006</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7890,10 +7704,14 @@
         <v>-25380.62892921999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2028</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2006</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7927,10 +7745,14 @@
         <v>-25375.72512921999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2014</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2006</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,10 +7786,14 @@
         <v>-25296.70182921999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2028</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2006</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8004,7 +7830,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2006</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8041,7 +7869,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2006</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8078,7 +7908,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2006</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +7949,9 @@
       <c r="I223" t="n">
         <v>2031</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2006</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,7 +7990,9 @@
       <c r="I224" t="n">
         <v>2030</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2006</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8190,10 +8026,14 @@
         <v>-24815.79462921999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>2040</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2006</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,10 +8067,14 @@
         <v>-24815.79462921999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2040</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2006</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8264,10 +8108,14 @@
         <v>-24815.69462921999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>2040</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2006</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,10 +8149,14 @@
         <v>-24757.58712922</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2055</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2006</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,10 +8190,14 @@
         <v>-24743.11712921999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2061</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2006</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,7 +8234,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2006</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,10 +8270,14 @@
         <v>-24699.64212922</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2061</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2006</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8452,7 +8314,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2006</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,7 +8353,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2006</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,7 +8392,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2006</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2006</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8597,17 +8467,19 @@
         <v>-24614.77932922</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2006</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1</v>
+        <v>1.041360917248255</v>
       </c>
       <c r="M236" t="inlineStr"/>
     </row>
@@ -8634,15 +8506,11 @@
         <v>-25776.67122922</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8671,15 +8539,11 @@
         <v>-26591.00022922</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +8576,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8749,11 +8609,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8782,15 +8638,11 @@
         <v>-26907.52442922</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8819,15 +8671,11 @@
         <v>-26907.42442922</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8856,15 +8704,11 @@
         <v>-26925.89582922</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8897,11 +8741,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8934,11 +8774,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8971,11 +8807,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9008,11 +8840,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9041,15 +8869,15 @@
         <v>-26873.09402922</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>2043</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2043</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9078,13 +8906,17 @@
         <v>-26920.37402922</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>2063</v>
+      </c>
+      <c r="J249" t="n">
+        <v>2043</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -9115,13 +8947,17 @@
         <v>-26920.37402922</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2041</v>
+      </c>
+      <c r="J250" t="n">
+        <v>2043</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L250" t="n">

--- a/BackTest/2019-10-30 BackTest HC.xlsx
+++ b/BackTest/2019-10-30 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>-509.5775</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>-510.7775</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>934.5082</v>
       </c>
       <c r="G4" t="n">
-        <v>-1445.2857</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>381.16</v>
       </c>
       <c r="G5" t="n">
-        <v>-1445.2857</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>52.7383</v>
       </c>
       <c r="G6" t="n">
-        <v>-1392.5474</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>-1392.6474</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1.1</v>
       </c>
       <c r="G8" t="n">
-        <v>-1392.6474</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>11.7247</v>
       </c>
       <c r="G9" t="n">
-        <v>-1380.9227</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>144.1678</v>
       </c>
       <c r="G10" t="n">
-        <v>-1380.9227</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>32.4879</v>
       </c>
       <c r="G11" t="n">
-        <v>-1348.4348</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>-1348.3348</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>514.7971</v>
       </c>
       <c r="G13" t="n">
-        <v>-1863.1319</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>293.2098</v>
       </c>
       <c r="G14" t="n">
-        <v>-2156.3417</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>670.3808</v>
       </c>
       <c r="G15" t="n">
-        <v>-2156.3417</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>250.94</v>
       </c>
       <c r="G16" t="n">
-        <v>-2156.3417</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>578.2042</v>
       </c>
       <c r="G17" t="n">
-        <v>-2156.3417</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>98.4307</v>
       </c>
       <c r="G18" t="n">
-        <v>-2156.3417</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>108.5885</v>
       </c>
       <c r="G19" t="n">
-        <v>-2156.3417</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1476.2214</v>
       </c>
       <c r="G20" t="n">
-        <v>-3632.5631</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>139.6236</v>
       </c>
       <c r="G21" t="n">
-        <v>-3632.5631</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>-3632.6631</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>245.0192</v>
       </c>
       <c r="G23" t="n">
-        <v>-3877.6823</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>48.4673</v>
       </c>
       <c r="G24" t="n">
-        <v>-3829.215</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>-3829.315</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>153.2336</v>
       </c>
       <c r="G26" t="n">
-        <v>-3676.0814</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>314.6772</v>
       </c>
       <c r="G27" t="n">
-        <v>-3990.7586</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>-3993.0586</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>372.6701</v>
       </c>
       <c r="G29" t="n">
-        <v>-4365.728700000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>-4365.828700000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>0.4</v>
       </c>
       <c r="G31" t="n">
-        <v>-4366.228700000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>721.8015</v>
       </c>
       <c r="G32" t="n">
-        <v>-5088.030200000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>141.748</v>
       </c>
       <c r="G33" t="n">
-        <v>-5088.030200000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>68.9701</v>
       </c>
       <c r="G34" t="n">
-        <v>-5088.030200000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>602.1369</v>
       </c>
       <c r="G35" t="n">
-        <v>-5088.030200000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>238.4843</v>
       </c>
       <c r="G36" t="n">
-        <v>-5088.030200000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>36.5655</v>
       </c>
       <c r="G37" t="n">
-        <v>-5051.464700000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5346.285</v>
       </c>
       <c r="G38" t="n">
-        <v>-10397.7497</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>572.7325</v>
       </c>
       <c r="G39" t="n">
-        <v>-10970.4822</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>604.7668</v>
       </c>
       <c r="G40" t="n">
-        <v>-10365.7154</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,19 @@
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>-10365.8154</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1955</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1955</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1647,23 @@
         <v>253.8607</v>
       </c>
       <c r="G42" t="n">
-        <v>-10111.9547</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>1950</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1685,23 @@
         <v>1797.9863</v>
       </c>
       <c r="G43" t="n">
-        <v>-8313.968400000002</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>1966</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1723,19 @@
         <v>0.1</v>
       </c>
       <c r="G44" t="n">
-        <v>-8314.068400000002</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1981</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1981</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1757,23 @@
         <v>798</v>
       </c>
       <c r="G45" t="n">
-        <v>-7516.068400000002</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>1958</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1795,23 @@
         <v>1.7172</v>
       </c>
       <c r="G46" t="n">
-        <v>-7514.351200000002</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>1959</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1833,19 @@
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>-7514.251200000002</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1960</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1960</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1867,21 @@
         <v>92.48083717999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-7606.732037180001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1903,21 @@
         <v>500.2</v>
       </c>
       <c r="G49" t="n">
-        <v>-7106.532037180002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1939,15 @@
         <v>1300</v>
       </c>
       <c r="G50" t="n">
-        <v>-5806.532037180002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1969,15 @@
         <v>43.0981</v>
       </c>
       <c r="G51" t="n">
-        <v>-5806.532037180002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1999,15 @@
         <v>64</v>
       </c>
       <c r="G52" t="n">
-        <v>-5742.532037180002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2029,15 @@
         <v>1191.1452</v>
       </c>
       <c r="G53" t="n">
-        <v>-5742.532037180002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2059,15 @@
         <v>36.1</v>
       </c>
       <c r="G54" t="n">
-        <v>-5706.432037180001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2089,15 @@
         <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>-5706.332037180001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2119,15 @@
         <v>23.8865</v>
       </c>
       <c r="G56" t="n">
-        <v>-5706.332037180001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2149,15 @@
         <v>39.5417</v>
       </c>
       <c r="G57" t="n">
-        <v>-5666.790337180001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2179,15 @@
         <v>763.761</v>
       </c>
       <c r="G58" t="n">
-        <v>-4903.029337180002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2209,15 @@
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>-4902.929337180001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2239,15 @@
         <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>-4902.829337180001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2269,15 @@
         <v>220.8773</v>
       </c>
       <c r="G61" t="n">
-        <v>-5123.706637180001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2299,15 @@
         <v>220.9862</v>
       </c>
       <c r="G62" t="n">
-        <v>-5344.692837180001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2329,15 @@
         <v>25.1831</v>
       </c>
       <c r="G63" t="n">
-        <v>-5369.875937180002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2359,15 @@
         <v>0.1648</v>
       </c>
       <c r="G64" t="n">
-        <v>-5369.711137180002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2389,15 @@
         <v>850.2483999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-4519.462737180002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2419,15 @@
         <v>13.6514</v>
       </c>
       <c r="G66" t="n">
-        <v>-4505.811337180002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2449,15 @@
         <v>0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>-4505.711337180001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2479,15 @@
         <v>1368.2107</v>
       </c>
       <c r="G68" t="n">
-        <v>-5873.922037180002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2509,15 @@
         <v>32.1281</v>
       </c>
       <c r="G69" t="n">
-        <v>-5873.922037180002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2539,15 @@
         <v>18.9889</v>
       </c>
       <c r="G70" t="n">
-        <v>-5892.910937180002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2569,15 @@
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>-5892.810937180002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2599,15 @@
         <v>1664.8941</v>
       </c>
       <c r="G72" t="n">
-        <v>-7557.705037180001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2629,15 @@
         <v>35.1135</v>
       </c>
       <c r="G73" t="n">
-        <v>-7592.818537180002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2659,15 @@
         <v>0.11</v>
       </c>
       <c r="G74" t="n">
-        <v>-7592.708537180002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2689,15 @@
         <v>376.9328</v>
       </c>
       <c r="G75" t="n">
-        <v>-7969.641337180002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2719,15 @@
         <v>24.1538</v>
       </c>
       <c r="G76" t="n">
-        <v>-7969.641337180002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2749,15 @@
         <v>269.97</v>
       </c>
       <c r="G77" t="n">
-        <v>-7699.671337180002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2779,15 @@
         <v>219.96</v>
       </c>
       <c r="G78" t="n">
-        <v>-7479.711337180001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2809,15 @@
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>-7479.611337180001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2839,15 @@
         <v>69.5581</v>
       </c>
       <c r="G80" t="n">
-        <v>-7410.053237180001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2869,15 @@
         <v>307.6298</v>
       </c>
       <c r="G81" t="n">
-        <v>-7717.683037180001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2899,15 @@
         <v>662.4123</v>
       </c>
       <c r="G82" t="n">
-        <v>-7055.270737180001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2929,15 @@
         <v>1945.7162</v>
       </c>
       <c r="G83" t="n">
-        <v>-9000.986937180001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2959,15 @@
         <v>228.2932</v>
       </c>
       <c r="G84" t="n">
-        <v>-8772.693737180001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2989,15 @@
         <v>26.727</v>
       </c>
       <c r="G85" t="n">
-        <v>-8799.420737180002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3019,15 @@
         <v>200.7094</v>
       </c>
       <c r="G86" t="n">
-        <v>-9000.130137180002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3049,15 @@
         <v>32.398</v>
       </c>
       <c r="G87" t="n">
-        <v>-9032.528137180001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3079,15 @@
         <v>54.4027</v>
       </c>
       <c r="G88" t="n">
-        <v>-9086.930837180002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3109,15 @@
         <v>31.2377</v>
       </c>
       <c r="G89" t="n">
-        <v>-9118.168537180001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3139,15 @@
         <v>24.9043</v>
       </c>
       <c r="G90" t="n">
-        <v>-9143.072837180001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3169,15 @@
         <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>-9142.972837180001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3199,15 @@
         <v>413.6985</v>
       </c>
       <c r="G92" t="n">
-        <v>-8729.274337180001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3229,15 @@
         <v>19.05</v>
       </c>
       <c r="G93" t="n">
-        <v>-8748.32433718</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3259,15 @@
         <v>15.8526</v>
       </c>
       <c r="G94" t="n">
-        <v>-8764.17693718</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3289,15 @@
         <v>606.9181</v>
       </c>
       <c r="G95" t="n">
-        <v>-8764.17693718</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3319,15 @@
         <v>0.11</v>
       </c>
       <c r="G96" t="n">
-        <v>-8764.06693718</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3349,15 @@
         <v>1142.75</v>
       </c>
       <c r="G97" t="n">
-        <v>-9906.81693718</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3379,15 @@
         <v>35.59</v>
       </c>
       <c r="G98" t="n">
-        <v>-9906.81693718</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3409,15 @@
         <v>36</v>
       </c>
       <c r="G99" t="n">
-        <v>-9942.81693718</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3439,15 @@
         <v>19</v>
       </c>
       <c r="G100" t="n">
-        <v>-9942.81693718</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3469,15 @@
         <v>163.0474</v>
       </c>
       <c r="G101" t="n">
-        <v>-9779.76953718</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3499,15 @@
         <v>71.76000000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-9779.76953718</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3529,15 @@
         <v>152.9853</v>
       </c>
       <c r="G103" t="n">
-        <v>-9779.76953718</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3559,15 @@
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>-9779.66953718</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3589,15 @@
         <v>224.0078</v>
       </c>
       <c r="G105" t="n">
-        <v>-9555.66173718</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3619,15 @@
         <v>340</v>
       </c>
       <c r="G106" t="n">
-        <v>-9895.66173718</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3649,15 @@
         <v>39.9131</v>
       </c>
       <c r="G107" t="n">
-        <v>-9895.66173718</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3679,15 @@
         <v>0.2</v>
       </c>
       <c r="G108" t="n">
-        <v>-9895.46173718</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3709,15 @@
         <v>18.776</v>
       </c>
       <c r="G109" t="n">
-        <v>-9914.237737179999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3739,15 @@
         <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>-9914.137737179999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3769,15 @@
         <v>60.6688</v>
       </c>
       <c r="G111" t="n">
-        <v>-9974.806537179998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3799,15 @@
         <v>0.1</v>
       </c>
       <c r="G112" t="n">
-        <v>-9974.706537179998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3829,15 @@
         <v>501.0881</v>
       </c>
       <c r="G113" t="n">
-        <v>-9974.706537179998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3859,15 @@
         <v>19.0569</v>
       </c>
       <c r="G114" t="n">
-        <v>-9993.763437179998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3889,15 @@
         <v>34.02</v>
       </c>
       <c r="G115" t="n">
-        <v>-9959.743437179997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3919,15 @@
         <v>204.8148</v>
       </c>
       <c r="G116" t="n">
-        <v>-9959.743437179997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3949,15 @@
         <v>0.111</v>
       </c>
       <c r="G117" t="n">
-        <v>-9959.632437179996</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3979,15 @@
         <v>766.5529</v>
       </c>
       <c r="G118" t="n">
-        <v>-10726.18533718</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4009,15 @@
         <v>598.1376</v>
       </c>
       <c r="G119" t="n">
-        <v>-11324.32293718</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4039,15 @@
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>-11324.22293718</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4069,15 @@
         <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>-11324.12293718</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4099,15 @@
         <v>217.161</v>
       </c>
       <c r="G122" t="n">
-        <v>-11106.96193718</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4129,15 @@
         <v>30</v>
       </c>
       <c r="G123" t="n">
-        <v>-11076.96193718</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4159,15 @@
         <v>523.3094</v>
       </c>
       <c r="G124" t="n">
-        <v>-11600.27133718</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4189,15 @@
         <v>48</v>
       </c>
       <c r="G125" t="n">
-        <v>-11648.27133718</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4219,15 @@
         <v>0.1</v>
       </c>
       <c r="G126" t="n">
-        <v>-11648.17133718</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4249,15 @@
         <v>0.1</v>
       </c>
       <c r="G127" t="n">
-        <v>-11648.07133718</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4279,15 @@
         <v>23.0874</v>
       </c>
       <c r="G128" t="n">
-        <v>-11671.15873718</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4309,15 @@
         <v>223.4478</v>
       </c>
       <c r="G129" t="n">
-        <v>-11894.60653718</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4339,15 @@
         <v>0.1</v>
       </c>
       <c r="G130" t="n">
-        <v>-11894.50653718</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4369,15 @@
         <v>33.3848</v>
       </c>
       <c r="G131" t="n">
-        <v>-11927.89133718</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4399,15 @@
         <v>2.0716</v>
       </c>
       <c r="G132" t="n">
-        <v>-11929.96293717999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4429,15 @@
         <v>0.1</v>
       </c>
       <c r="G133" t="n">
-        <v>-11929.86293717999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4459,15 @@
         <v>38.5051</v>
       </c>
       <c r="G134" t="n">
-        <v>-11968.36803717999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4489,15 @@
         <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>-11968.26803717999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4519,15 @@
         <v>80.821</v>
       </c>
       <c r="G136" t="n">
-        <v>-12049.08903717999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4549,15 @@
         <v>0.1</v>
       </c>
       <c r="G137" t="n">
-        <v>-12048.98903717999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4579,15 @@
         <v>13.5461</v>
       </c>
       <c r="G138" t="n">
-        <v>-12062.53513717999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4609,15 @@
         <v>0.6005</v>
       </c>
       <c r="G139" t="n">
-        <v>-12061.93463717999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4639,15 @@
         <v>166.948</v>
       </c>
       <c r="G140" t="n">
-        <v>-12228.88263717999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4669,15 @@
         <v>15.8983</v>
       </c>
       <c r="G141" t="n">
-        <v>-12212.98433717999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4699,15 @@
         <v>17.89</v>
       </c>
       <c r="G142" t="n">
-        <v>-12230.87433717999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4729,15 @@
         <v>0.2</v>
       </c>
       <c r="G143" t="n">
-        <v>-12230.67433717999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4759,15 @@
         <v>8.5703</v>
       </c>
       <c r="G144" t="n">
-        <v>-12222.10403717999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4789,15 @@
         <v>0.1</v>
       </c>
       <c r="G145" t="n">
-        <v>-12222.00403717999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4819,15 @@
         <v>30.1631</v>
       </c>
       <c r="G146" t="n">
-        <v>-12252.16713717999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4849,15 @@
         <v>356.8721</v>
       </c>
       <c r="G147" t="n">
-        <v>-11895.29503717999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4879,15 @@
         <v>0.1</v>
       </c>
       <c r="G148" t="n">
-        <v>-11895.19503717999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4909,15 @@
         <v>471.5122</v>
       </c>
       <c r="G149" t="n">
-        <v>-12366.70723717999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4939,15 @@
         <v>19.2975</v>
       </c>
       <c r="G150" t="n">
-        <v>-12347.40973717999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4969,15 @@
         <v>0.1</v>
       </c>
       <c r="G151" t="n">
-        <v>-12347.30973717999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4999,15 @@
         <v>236.1874</v>
       </c>
       <c r="G152" t="n">
-        <v>-12583.49713717999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5029,15 @@
         <v>0.1</v>
       </c>
       <c r="G153" t="n">
-        <v>-12583.39713717999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5059,15 @@
         <v>318.3823</v>
       </c>
       <c r="G154" t="n">
-        <v>-12583.39713717999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5089,15 @@
         <v>0.11</v>
       </c>
       <c r="G155" t="n">
-        <v>-12583.28713717999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5119,15 @@
         <v>807.8918</v>
       </c>
       <c r="G156" t="n">
-        <v>-13391.17893717999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5149,15 @@
         <v>0.1</v>
       </c>
       <c r="G157" t="n">
-        <v>-13391.07893717999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5179,15 @@
         <v>13.0398</v>
       </c>
       <c r="G158" t="n">
-        <v>-13378.03913717999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5209,15 @@
         <v>58.1395</v>
       </c>
       <c r="G159" t="n">
-        <v>-13436.17863717999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5239,15 @@
         <v>29.0698</v>
       </c>
       <c r="G160" t="n">
-        <v>-13436.17863717999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5269,15 @@
         <v>16.1204</v>
       </c>
       <c r="G161" t="n">
-        <v>-13452.29903717999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5299,15 @@
         <v>0.1</v>
       </c>
       <c r="G162" t="n">
-        <v>-13452.19903717999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5329,15 @@
         <v>62.308</v>
       </c>
       <c r="G163" t="n">
-        <v>-13514.50703717999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5359,15 @@
         <v>9.442299999999999</v>
       </c>
       <c r="G164" t="n">
-        <v>-13505.06473717999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5389,15 @@
         <v>0.1</v>
       </c>
       <c r="G165" t="n">
-        <v>-13504.96473717999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5419,15 @@
         <v>19.1792</v>
       </c>
       <c r="G166" t="n">
-        <v>-13524.14393717999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5449,15 @@
         <v>0.2</v>
       </c>
       <c r="G167" t="n">
-        <v>-13523.94393717999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5479,15 @@
         <v>6271.1372</v>
       </c>
       <c r="G168" t="n">
-        <v>-19795.08113717999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5509,15 @@
         <v>2993.2085</v>
       </c>
       <c r="G169" t="n">
-        <v>-22788.28963717999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5539,15 @@
         <v>0.1</v>
       </c>
       <c r="G170" t="n">
-        <v>-22788.18963717999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5569,15 @@
         <v>20</v>
       </c>
       <c r="G171" t="n">
-        <v>-22808.18963717999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5599,15 @@
         <v>219.6958</v>
       </c>
       <c r="G172" t="n">
-        <v>-22588.49383717999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5629,15 @@
         <v>49.77600796</v>
       </c>
       <c r="G173" t="n">
-        <v>-22538.71782921999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5659,15 @@
         <v>290</v>
       </c>
       <c r="G174" t="n">
-        <v>-22828.71782921999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5689,15 @@
         <v>769.2939</v>
       </c>
       <c r="G175" t="n">
-        <v>-23598.01172921999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5719,15 @@
         <v>0.11</v>
       </c>
       <c r="G176" t="n">
-        <v>-23597.90172921999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5749,15 @@
         <v>190.2173</v>
       </c>
       <c r="G177" t="n">
-        <v>-23788.11902921999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5779,15 @@
         <v>0.1</v>
       </c>
       <c r="G178" t="n">
-        <v>-23788.01902921999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5809,15 @@
         <v>13.5917</v>
       </c>
       <c r="G179" t="n">
-        <v>-23801.61072921999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5839,15 @@
         <v>31.4595</v>
       </c>
       <c r="G180" t="n">
-        <v>-23770.15122921999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5869,15 @@
         <v>0.1</v>
       </c>
       <c r="G181" t="n">
-        <v>-23770.05122921999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5899,15 @@
         <v>0.1</v>
       </c>
       <c r="G182" t="n">
-        <v>-23769.95122921999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5929,15 @@
         <v>2816.1937</v>
       </c>
       <c r="G183" t="n">
-        <v>-26586.14492921999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5959,15 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-26576.14492921999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5989,15 @@
         <v>0.1</v>
       </c>
       <c r="G185" t="n">
-        <v>-26576.04492921999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6019,15 @@
         <v>0.1</v>
       </c>
       <c r="G186" t="n">
-        <v>-26575.94492921999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6049,15 @@
         <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>-26565.94492921999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6079,15 @@
         <v>40.386</v>
       </c>
       <c r="G188" t="n">
-        <v>-26606.33092921999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6109,15 @@
         <v>10.3863</v>
       </c>
       <c r="G189" t="n">
-        <v>-26606.33092921999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6139,15 @@
         <v>290.9721</v>
       </c>
       <c r="G190" t="n">
-        <v>-26897.30302921999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6169,15 @@
         <v>374.9999</v>
       </c>
       <c r="G191" t="n">
-        <v>-27272.30292921999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6199,15 @@
         <v>0.1</v>
       </c>
       <c r="G192" t="n">
-        <v>-27272.20292921999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,22 +6229,15 @@
         <v>0.1</v>
       </c>
       <c r="G193" t="n">
-        <v>-27272.10292921999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2006</v>
-      </c>
-      <c r="J193" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6788,24 +6259,15 @@
         <v>517.9582</v>
       </c>
       <c r="G194" t="n">
-        <v>-27790.06112921999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6827,26 +6289,15 @@
         <v>0.1</v>
       </c>
       <c r="G195" t="n">
-        <v>-27789.96112922</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J195" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6868,26 +6319,15 @@
         <v>2912.9563</v>
       </c>
       <c r="G196" t="n">
-        <v>-24877.00482921999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2009</v>
-      </c>
-      <c r="J196" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6909,26 +6349,15 @@
         <v>230</v>
       </c>
       <c r="G197" t="n">
-        <v>-25107.00482921999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2011</v>
-      </c>
-      <c r="J197" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6950,26 +6379,15 @@
         <v>15.96</v>
       </c>
       <c r="G198" t="n">
-        <v>-25122.96482921999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2009</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6991,26 +6409,15 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>-25121.96482921999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1999</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7032,24 +6439,15 @@
         <v>366.9389</v>
       </c>
       <c r="G200" t="n">
-        <v>-24755.02592921999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7071,24 +6469,15 @@
         <v>144.5616</v>
       </c>
       <c r="G201" t="n">
-        <v>-24755.02592921999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7110,24 +6499,15 @@
         <v>75.25279999999999</v>
       </c>
       <c r="G202" t="n">
-        <v>-24830.27872921999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7149,24 +6529,15 @@
         <v>374.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>-24455.27882921999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7188,24 +6559,15 @@
         <v>18.4074</v>
       </c>
       <c r="G204" t="n">
-        <v>-24473.68622921999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7227,24 +6589,15 @@
         <v>142.5054</v>
       </c>
       <c r="G205" t="n">
-        <v>-24331.18082921999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7266,24 +6619,15 @@
         <v>11.0143</v>
       </c>
       <c r="G206" t="n">
-        <v>-24342.19512921999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7305,24 +6649,15 @@
         <v>225</v>
       </c>
       <c r="G207" t="n">
-        <v>-24342.19512921999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7344,24 +6679,15 @@
         <v>225.0375</v>
       </c>
       <c r="G208" t="n">
-        <v>-24117.15762921999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7383,24 +6709,15 @@
         <v>845</v>
       </c>
       <c r="G209" t="n">
-        <v>-23272.15762921999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7422,24 +6739,15 @@
         <v>385</v>
       </c>
       <c r="G210" t="n">
-        <v>-23657.15762921999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7461,24 +6769,15 @@
         <v>160.6677</v>
       </c>
       <c r="G211" t="n">
-        <v>-23496.48992921999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7500,24 +6799,15 @@
         <v>324.6824</v>
       </c>
       <c r="G212" t="n">
-        <v>-23496.48992921999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7539,26 +6829,15 @@
         <v>241.4299</v>
       </c>
       <c r="G213" t="n">
-        <v>-23496.48992921999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>2033</v>
-      </c>
-      <c r="J213" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7580,24 +6859,15 @@
         <v>182.658</v>
       </c>
       <c r="G214" t="n">
-        <v>-23679.14792921999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7619,26 +6889,15 @@
         <v>497.604</v>
       </c>
       <c r="G215" t="n">
-        <v>-23181.54392921999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>2021</v>
-      </c>
-      <c r="J215" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7660,26 +6919,15 @@
         <v>84</v>
       </c>
       <c r="G216" t="n">
-        <v>-23097.54392921999</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>2027</v>
-      </c>
-      <c r="J216" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7701,26 +6949,15 @@
         <v>2283.085</v>
       </c>
       <c r="G217" t="n">
-        <v>-25380.62892921999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>2028</v>
-      </c>
-      <c r="J217" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7742,26 +6979,15 @@
         <v>4.9038</v>
       </c>
       <c r="G218" t="n">
-        <v>-25375.72512921999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>2014</v>
-      </c>
-      <c r="J218" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7783,26 +7009,15 @@
         <v>79.02330000000001</v>
       </c>
       <c r="G219" t="n">
-        <v>-25296.70182921999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>2028</v>
-      </c>
-      <c r="J219" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7824,24 +7039,15 @@
         <v>470.4433</v>
       </c>
       <c r="G220" t="n">
-        <v>-24826.25852921999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7863,24 +7069,15 @@
         <v>1759.506</v>
       </c>
       <c r="G221" t="n">
-        <v>-24826.25852921999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7902,24 +7099,15 @@
         <v>180.8409</v>
       </c>
       <c r="G222" t="n">
-        <v>-24645.41762921999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7941,26 +7129,15 @@
         <v>170.477</v>
       </c>
       <c r="G223" t="n">
-        <v>-24815.89462921999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>2031</v>
-      </c>
-      <c r="J223" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7982,26 +7159,15 @@
         <v>0.1</v>
       </c>
       <c r="G224" t="n">
-        <v>-24815.79462921999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>2030</v>
-      </c>
-      <c r="J224" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8023,26 +7189,15 @@
         <v>969.4117</v>
       </c>
       <c r="G225" t="n">
-        <v>-24815.79462921999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>2040</v>
-      </c>
-      <c r="J225" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8064,26 +7219,15 @@
         <v>15.7034</v>
       </c>
       <c r="G226" t="n">
-        <v>-24815.79462921999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>2040</v>
-      </c>
-      <c r="J226" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8105,26 +7249,15 @@
         <v>0.1</v>
       </c>
       <c r="G227" t="n">
-        <v>-24815.69462921999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>2040</v>
-      </c>
-      <c r="J227" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8146,26 +7279,15 @@
         <v>58.1075</v>
       </c>
       <c r="G228" t="n">
-        <v>-24757.58712922</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2055</v>
-      </c>
-      <c r="J228" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8187,26 +7309,15 @@
         <v>14.47</v>
       </c>
       <c r="G229" t="n">
-        <v>-24743.11712921999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>2061</v>
-      </c>
-      <c r="J229" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8228,24 +7339,15 @@
         <v>18.4418</v>
       </c>
       <c r="G230" t="n">
-        <v>-24761.55892921999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8267,26 +7369,15 @@
         <v>61.9168</v>
       </c>
       <c r="G231" t="n">
-        <v>-24699.64212922</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>2061</v>
-      </c>
-      <c r="J231" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8308,24 +7399,15 @@
         <v>0.11</v>
       </c>
       <c r="G232" t="n">
-        <v>-24699.53212922</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8347,24 +7429,15 @@
         <v>18.5</v>
       </c>
       <c r="G233" t="n">
-        <v>-24718.03212922</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8386,24 +7459,15 @@
         <v>0.1</v>
       </c>
       <c r="G234" t="n">
-        <v>-24717.93212922</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8425,24 +7489,15 @@
         <v>0.1</v>
       </c>
       <c r="G235" t="n">
-        <v>-24717.83212922</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8464,24 +7519,15 @@
         <v>103.0528</v>
       </c>
       <c r="G236" t="n">
-        <v>-24614.77932922</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2006</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1.041360917248255</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8503,18 +7549,15 @@
         <v>1161.8919</v>
       </c>
       <c r="G237" t="n">
-        <v>-25776.67122922</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8536,18 +7579,15 @@
         <v>814.329</v>
       </c>
       <c r="G238" t="n">
-        <v>-26591.00022922</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8569,18 +7609,15 @@
         <v>10.7233</v>
       </c>
       <c r="G239" t="n">
-        <v>-26580.27692922</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8602,18 +7639,15 @@
         <v>0.1</v>
       </c>
       <c r="G240" t="n">
-        <v>-26580.17692922</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8635,18 +7669,15 @@
         <v>327.3475</v>
       </c>
       <c r="G241" t="n">
-        <v>-26907.52442922</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8668,18 +7699,15 @@
         <v>0.1</v>
       </c>
       <c r="G242" t="n">
-        <v>-26907.42442922</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8701,18 +7729,15 @@
         <v>18.4714</v>
       </c>
       <c r="G243" t="n">
-        <v>-26925.89582922</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8734,18 +7759,15 @@
         <v>499.7958</v>
       </c>
       <c r="G244" t="n">
-        <v>-26426.10002922</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8767,18 +7789,15 @@
         <v>24.696</v>
       </c>
       <c r="G245" t="n">
-        <v>-26450.79602922</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8800,18 +7819,15 @@
         <v>399.6886</v>
       </c>
       <c r="G246" t="n">
-        <v>-26850.48462922</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8833,18 +7849,15 @@
         <v>22.7194</v>
       </c>
       <c r="G247" t="n">
-        <v>-26873.20402922</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8866,22 +7879,15 @@
         <v>0.11</v>
       </c>
       <c r="G248" t="n">
-        <v>-26873.09402922</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>2043</v>
-      </c>
-      <c r="J248" t="n">
-        <v>2043</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8903,26 +7909,15 @@
         <v>47.28</v>
       </c>
       <c r="G249" t="n">
-        <v>-26920.37402922</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>2063</v>
-      </c>
-      <c r="J249" t="n">
-        <v>2043</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8944,26 +7939,15 @@
         <v>25.0801</v>
       </c>
       <c r="G250" t="n">
-        <v>-26920.37402922</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2041</v>
-      </c>
-      <c r="J250" t="n">
-        <v>2043</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
